--- a/Demand/意向单跟进表牛.xlsx
+++ b/Demand/意向单跟进表牛.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8370" tabRatio="249"/>
@@ -2445,6 +2445,102 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2465,102 +2561,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="61" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2908,8 +2908,8 @@
   <dimension ref="A1:BG84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="8" topLeftCell="L1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I5" sqref="I5"/>
+      <pane xSplit="8" topLeftCell="I1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2922,7 +2922,7 @@
     <col min="6" max="6" width="9.875" style="2" customWidth="1"/>
     <col min="7" max="7" width="17.375" style="2" customWidth="1"/>
     <col min="8" max="8" width="15.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="5.25" style="2" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="2" customWidth="1"/>
     <col min="10" max="10" width="5.375" style="2" customWidth="1"/>
     <col min="11" max="11" width="6.25" style="2" customWidth="1"/>
     <col min="12" max="12" width="5.875" style="2" customWidth="1"/>
@@ -2950,66 +2950,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:59" ht="27.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="115" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
-      <c r="G1" s="135"/>
-      <c r="H1" s="135"/>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="135"/>
-      <c r="M1" s="135"/>
-      <c r="N1" s="135"/>
-      <c r="O1" s="135"/>
-      <c r="P1" s="135"/>
-      <c r="Q1" s="135"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="135"/>
-      <c r="T1" s="135"/>
-      <c r="U1" s="135"/>
-      <c r="V1" s="135"/>
-      <c r="W1" s="135"/>
-      <c r="X1" s="135"/>
-      <c r="Y1" s="136"/>
-      <c r="Z1" s="136"/>
-      <c r="AA1" s="136"/>
-      <c r="AB1" s="136"/>
-      <c r="AC1" s="136"/>
-      <c r="AD1" s="136"/>
-      <c r="AE1" s="136"/>
-      <c r="AF1" s="136"/>
-      <c r="AG1" s="136"/>
-      <c r="AH1" s="136"/>
-      <c r="AI1" s="136"/>
-      <c r="AJ1" s="136"/>
-      <c r="AK1" s="136"/>
-      <c r="AL1" s="136"/>
-      <c r="AM1" s="136"/>
-      <c r="AN1" s="136"/>
-      <c r="AO1" s="136"/>
-      <c r="AP1" s="136"/>
-      <c r="AQ1" s="136"/>
-      <c r="AR1" s="136"/>
-      <c r="AS1" s="136"/>
-      <c r="AT1" s="136"/>
-      <c r="AU1" s="136"/>
-      <c r="AV1" s="136"/>
-      <c r="AW1" s="136"/>
-      <c r="AX1" s="136"/>
-      <c r="AY1" s="136"/>
-      <c r="AZ1" s="136"/>
-      <c r="BA1" s="136"/>
-      <c r="BB1" s="136"/>
-      <c r="BC1" s="136"/>
-      <c r="BD1" s="136"/>
-      <c r="BE1" s="136"/>
-      <c r="BF1" s="136"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
+      <c r="P1" s="115"/>
+      <c r="Q1" s="115"/>
+      <c r="R1" s="115"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+      <c r="W1" s="115"/>
+      <c r="X1" s="115"/>
+      <c r="Y1" s="116"/>
+      <c r="Z1" s="116"/>
+      <c r="AA1" s="116"/>
+      <c r="AB1" s="116"/>
+      <c r="AC1" s="116"/>
+      <c r="AD1" s="116"/>
+      <c r="AE1" s="116"/>
+      <c r="AF1" s="116"/>
+      <c r="AG1" s="116"/>
+      <c r="AH1" s="116"/>
+      <c r="AI1" s="116"/>
+      <c r="AJ1" s="116"/>
+      <c r="AK1" s="116"/>
+      <c r="AL1" s="116"/>
+      <c r="AM1" s="116"/>
+      <c r="AN1" s="116"/>
+      <c r="AO1" s="116"/>
+      <c r="AP1" s="116"/>
+      <c r="AQ1" s="116"/>
+      <c r="AR1" s="116"/>
+      <c r="AS1" s="116"/>
+      <c r="AT1" s="116"/>
+      <c r="AU1" s="116"/>
+      <c r="AV1" s="116"/>
+      <c r="AW1" s="116"/>
+      <c r="AX1" s="116"/>
+      <c r="AY1" s="116"/>
+      <c r="AZ1" s="116"/>
+      <c r="BA1" s="116"/>
+      <c r="BB1" s="116"/>
+      <c r="BC1" s="116"/>
+      <c r="BD1" s="116"/>
+      <c r="BE1" s="116"/>
+      <c r="BF1" s="116"/>
     </row>
     <row r="2" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
@@ -3075,94 +3075,94 @@
       <c r="BG2" s="77"/>
     </row>
     <row r="3" spans="1:59" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="120" t="s">
+      <c r="A3" s="152" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="137" t="s">
+      <c r="B3" s="117" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="138"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="137" t="s">
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="119"/>
+      <c r="F3" s="119"/>
+      <c r="G3" s="119"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="117" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="141" t="s">
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="119"/>
+      <c r="M3" s="119"/>
+      <c r="N3" s="119"/>
+      <c r="O3" s="119"/>
+      <c r="P3" s="119"/>
+      <c r="Q3" s="119"/>
+      <c r="R3" s="120"/>
+      <c r="S3" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="T3" s="142"/>
-      <c r="U3" s="142"/>
-      <c r="V3" s="142"/>
-      <c r="W3" s="142"/>
-      <c r="X3" s="143"/>
-      <c r="Y3" s="144" t="s">
+      <c r="T3" s="122"/>
+      <c r="U3" s="122"/>
+      <c r="V3" s="122"/>
+      <c r="W3" s="122"/>
+      <c r="X3" s="123"/>
+      <c r="Y3" s="124" t="s">
         <v>6</v>
       </c>
-      <c r="Z3" s="145"/>
-      <c r="AA3" s="145"/>
-      <c r="AB3" s="146"/>
-      <c r="AC3" s="147" t="s">
+      <c r="Z3" s="125"/>
+      <c r="AA3" s="125"/>
+      <c r="AB3" s="126"/>
+      <c r="AC3" s="127" t="s">
         <v>7</v>
       </c>
-      <c r="AD3" s="145"/>
-      <c r="AE3" s="145"/>
-      <c r="AF3" s="148"/>
-      <c r="AG3" s="149" t="s">
+      <c r="AD3" s="125"/>
+      <c r="AE3" s="125"/>
+      <c r="AF3" s="128"/>
+      <c r="AG3" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="AH3" s="145"/>
-      <c r="AI3" s="145"/>
-      <c r="AJ3" s="148"/>
-      <c r="AK3" s="149" t="s">
+      <c r="AH3" s="125"/>
+      <c r="AI3" s="125"/>
+      <c r="AJ3" s="128"/>
+      <c r="AK3" s="129" t="s">
         <v>9</v>
       </c>
-      <c r="AL3" s="145"/>
-      <c r="AM3" s="145"/>
-      <c r="AN3" s="148"/>
-      <c r="AO3" s="149" t="s">
+      <c r="AL3" s="125"/>
+      <c r="AM3" s="125"/>
+      <c r="AN3" s="128"/>
+      <c r="AO3" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="AP3" s="145"/>
-      <c r="AQ3" s="145"/>
-      <c r="AR3" s="146"/>
-      <c r="AS3" s="150" t="s">
+      <c r="AP3" s="125"/>
+      <c r="AQ3" s="125"/>
+      <c r="AR3" s="126"/>
+      <c r="AS3" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="AT3" s="150"/>
-      <c r="AU3" s="150"/>
-      <c r="AV3" s="151"/>
-      <c r="AW3" s="150" t="s">
+      <c r="AT3" s="130"/>
+      <c r="AU3" s="130"/>
+      <c r="AV3" s="131"/>
+      <c r="AW3" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="AX3" s="150"/>
-      <c r="AY3" s="150"/>
-      <c r="AZ3" s="151"/>
-      <c r="BA3" s="150" t="s">
+      <c r="AX3" s="130"/>
+      <c r="AY3" s="130"/>
+      <c r="AZ3" s="131"/>
+      <c r="BA3" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="BB3" s="150"/>
-      <c r="BC3" s="150"/>
-      <c r="BD3" s="151"/>
-      <c r="BE3" s="152" t="s">
+      <c r="BB3" s="130"/>
+      <c r="BC3" s="130"/>
+      <c r="BD3" s="131"/>
+      <c r="BE3" s="132" t="s">
         <v>14</v>
       </c>
-      <c r="BF3" s="153"/>
+      <c r="BF3" s="133"/>
       <c r="BG3" s="77"/>
     </row>
     <row r="4" spans="1:59" ht="16.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="121"/>
+      <c r="A4" s="153"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
       <c r="D4" s="7" t="s">
@@ -3231,67 +3231,67 @@
       <c r="Y4" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="Z4" s="129" t="s">
+      <c r="Z4" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="AA4" s="129"/>
-      <c r="AB4" s="130"/>
+      <c r="AA4" s="134"/>
+      <c r="AB4" s="135"/>
       <c r="AC4" s="66" t="s">
         <v>31</v>
       </c>
-      <c r="AD4" s="129" t="s">
+      <c r="AD4" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="AE4" s="129"/>
-      <c r="AF4" s="131"/>
+      <c r="AE4" s="134"/>
+      <c r="AF4" s="136"/>
       <c r="AG4" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="AH4" s="129" t="s">
+      <c r="AH4" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="AI4" s="129"/>
-      <c r="AJ4" s="131"/>
+      <c r="AI4" s="134"/>
+      <c r="AJ4" s="136"/>
       <c r="AK4" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="AL4" s="129" t="s">
+      <c r="AL4" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="AM4" s="129"/>
-      <c r="AN4" s="131"/>
+      <c r="AM4" s="134"/>
+      <c r="AN4" s="136"/>
       <c r="AO4" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="AP4" s="129" t="s">
+      <c r="AP4" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="AQ4" s="129"/>
-      <c r="AR4" s="130"/>
+      <c r="AQ4" s="134"/>
+      <c r="AR4" s="135"/>
       <c r="AS4" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="AT4" s="132" t="s">
+      <c r="AT4" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="AU4" s="133"/>
-      <c r="AV4" s="134"/>
+      <c r="AU4" s="138"/>
+      <c r="AV4" s="139"/>
       <c r="AW4" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="AX4" s="132" t="s">
+      <c r="AX4" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="AY4" s="133"/>
-      <c r="AZ4" s="134"/>
+      <c r="AY4" s="138"/>
+      <c r="AZ4" s="139"/>
       <c r="BA4" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="BB4" s="132" t="s">
+      <c r="BB4" s="137" t="s">
         <v>32</v>
       </c>
-      <c r="BC4" s="133"/>
-      <c r="BD4" s="134"/>
+      <c r="BC4" s="138"/>
+      <c r="BD4" s="139"/>
       <c r="BE4" s="78" t="s">
         <v>33</v>
       </c>
@@ -3345,67 +3345,67 @@
       <c r="Y5" s="67">
         <v>9.9</v>
       </c>
-      <c r="Z5" s="125" t="s">
+      <c r="Z5" s="140" t="s">
         <v>39</v>
       </c>
-      <c r="AA5" s="126"/>
-      <c r="AB5" s="127"/>
+      <c r="AA5" s="141"/>
+      <c r="AB5" s="142"/>
       <c r="AC5" s="68">
         <v>9.17</v>
       </c>
-      <c r="AD5" s="125" t="s">
+      <c r="AD5" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="AE5" s="126"/>
-      <c r="AF5" s="128"/>
+      <c r="AE5" s="141"/>
+      <c r="AF5" s="143"/>
       <c r="AG5" s="68">
         <v>9.2100000000000009</v>
       </c>
-      <c r="AH5" s="125" t="s">
+      <c r="AH5" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="AI5" s="126"/>
-      <c r="AJ5" s="128"/>
+      <c r="AI5" s="141"/>
+      <c r="AJ5" s="143"/>
       <c r="AK5" s="68">
         <v>9.24</v>
       </c>
-      <c r="AL5" s="125" t="s">
+      <c r="AL5" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="AM5" s="126"/>
-      <c r="AN5" s="128"/>
+      <c r="AM5" s="141"/>
+      <c r="AN5" s="143"/>
       <c r="AO5" s="68">
         <v>9.2899999999999991</v>
       </c>
-      <c r="AP5" s="122" t="s">
+      <c r="AP5" s="144" t="s">
         <v>41</v>
       </c>
-      <c r="AQ5" s="123"/>
-      <c r="AR5" s="123"/>
+      <c r="AQ5" s="145"/>
+      <c r="AR5" s="145"/>
       <c r="AS5" s="68">
         <v>10.5</v>
       </c>
-      <c r="AT5" s="122" t="s">
+      <c r="AT5" s="144" t="s">
         <v>42</v>
       </c>
-      <c r="AU5" s="123"/>
-      <c r="AV5" s="124"/>
+      <c r="AU5" s="145"/>
+      <c r="AV5" s="146"/>
       <c r="AW5" s="76">
         <v>10.9</v>
       </c>
-      <c r="AX5" s="122" t="s">
+      <c r="AX5" s="144" t="s">
         <v>43</v>
       </c>
-      <c r="AY5" s="123"/>
-      <c r="AZ5" s="124"/>
+      <c r="AY5" s="145"/>
+      <c r="AZ5" s="146"/>
       <c r="BA5" s="76" t="s">
         <v>44</v>
       </c>
-      <c r="BB5" s="122" t="s">
+      <c r="BB5" s="144" t="s">
         <v>45</v>
       </c>
-      <c r="BC5" s="123"/>
-      <c r="BD5" s="124"/>
+      <c r="BC5" s="145"/>
+      <c r="BD5" s="146"/>
       <c r="BE5" s="80"/>
       <c r="BF5" s="81"/>
     </row>
@@ -3457,47 +3457,47 @@
       <c r="Y6" s="67">
         <v>9.1</v>
       </c>
-      <c r="Z6" s="125" t="s">
+      <c r="Z6" s="140" t="s">
         <v>49</v>
       </c>
-      <c r="AA6" s="126"/>
-      <c r="AB6" s="127"/>
+      <c r="AA6" s="141"/>
+      <c r="AB6" s="142"/>
       <c r="AC6" s="68">
         <v>9.2799999999999994</v>
       </c>
-      <c r="AD6" s="125" t="s">
+      <c r="AD6" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="AE6" s="126"/>
-      <c r="AF6" s="128"/>
+      <c r="AE6" s="141"/>
+      <c r="AF6" s="143"/>
       <c r="AG6" s="68">
         <v>10.9</v>
       </c>
-      <c r="AH6" s="125" t="s">
+      <c r="AH6" s="140" t="s">
         <v>51</v>
       </c>
-      <c r="AI6" s="126"/>
-      <c r="AJ6" s="128"/>
+      <c r="AI6" s="141"/>
+      <c r="AJ6" s="143"/>
       <c r="AK6" s="68"/>
-      <c r="AL6" s="125"/>
-      <c r="AM6" s="126"/>
-      <c r="AN6" s="128"/>
+      <c r="AL6" s="140"/>
+      <c r="AM6" s="141"/>
+      <c r="AN6" s="143"/>
       <c r="AO6" s="68"/>
-      <c r="AP6" s="122"/>
-      <c r="AQ6" s="123"/>
-      <c r="AR6" s="123"/>
+      <c r="AP6" s="144"/>
+      <c r="AQ6" s="145"/>
+      <c r="AR6" s="145"/>
       <c r="AS6" s="68"/>
-      <c r="AT6" s="122"/>
-      <c r="AU6" s="123"/>
-      <c r="AV6" s="124"/>
+      <c r="AT6" s="144"/>
+      <c r="AU6" s="145"/>
+      <c r="AV6" s="146"/>
       <c r="AW6" s="76"/>
-      <c r="AX6" s="122"/>
-      <c r="AY6" s="123"/>
-      <c r="AZ6" s="124"/>
+      <c r="AX6" s="144"/>
+      <c r="AY6" s="145"/>
+      <c r="AZ6" s="146"/>
       <c r="BA6" s="76"/>
-      <c r="BB6" s="122"/>
-      <c r="BC6" s="123"/>
-      <c r="BD6" s="124"/>
+      <c r="BB6" s="144"/>
+      <c r="BC6" s="145"/>
+      <c r="BD6" s="146"/>
       <c r="BE6" s="80"/>
       <c r="BF6" s="81"/>
     </row>
@@ -3547,55 +3547,55 @@
       <c r="Y7" s="67">
         <v>9.1</v>
       </c>
-      <c r="Z7" s="125" t="s">
+      <c r="Z7" s="140" t="s">
         <v>54</v>
       </c>
-      <c r="AA7" s="126"/>
-      <c r="AB7" s="127"/>
+      <c r="AA7" s="141"/>
+      <c r="AB7" s="142"/>
       <c r="AC7" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="AD7" s="125" t="s">
+      <c r="AD7" s="140" t="s">
         <v>56</v>
       </c>
-      <c r="AE7" s="126"/>
-      <c r="AF7" s="128"/>
+      <c r="AE7" s="141"/>
+      <c r="AF7" s="143"/>
       <c r="AG7" s="68">
         <v>10.5</v>
       </c>
-      <c r="AH7" s="125" t="s">
+      <c r="AH7" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="AI7" s="126"/>
-      <c r="AJ7" s="128"/>
+      <c r="AI7" s="141"/>
+      <c r="AJ7" s="143"/>
       <c r="AK7" s="68">
         <v>10.9</v>
       </c>
-      <c r="AL7" s="125" t="s">
+      <c r="AL7" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="AM7" s="126"/>
-      <c r="AN7" s="128"/>
+      <c r="AM7" s="141"/>
+      <c r="AN7" s="143"/>
       <c r="AO7" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="AP7" s="122" t="s">
+      <c r="AP7" s="144" t="s">
         <v>59</v>
       </c>
-      <c r="AQ7" s="123"/>
-      <c r="AR7" s="123"/>
+      <c r="AQ7" s="145"/>
+      <c r="AR7" s="145"/>
       <c r="AS7" s="68"/>
-      <c r="AT7" s="122"/>
-      <c r="AU7" s="123"/>
-      <c r="AV7" s="124"/>
+      <c r="AT7" s="144"/>
+      <c r="AU7" s="145"/>
+      <c r="AV7" s="146"/>
       <c r="AW7" s="76"/>
-      <c r="AX7" s="122"/>
-      <c r="AY7" s="123"/>
-      <c r="AZ7" s="124"/>
+      <c r="AX7" s="144"/>
+      <c r="AY7" s="145"/>
+      <c r="AZ7" s="146"/>
       <c r="BA7" s="76"/>
-      <c r="BB7" s="122"/>
-      <c r="BC7" s="123"/>
-      <c r="BD7" s="124"/>
+      <c r="BB7" s="144"/>
+      <c r="BC7" s="145"/>
+      <c r="BD7" s="146"/>
       <c r="BE7" s="80"/>
       <c r="BF7" s="81"/>
     </row>
@@ -3649,59 +3649,59 @@
       <c r="Y8" s="67">
         <v>8.2899999999999991</v>
       </c>
-      <c r="Z8" s="125" t="s">
+      <c r="Z8" s="140" t="s">
         <v>62</v>
       </c>
-      <c r="AA8" s="126"/>
-      <c r="AB8" s="127"/>
+      <c r="AA8" s="141"/>
+      <c r="AB8" s="142"/>
       <c r="AC8" s="68">
         <v>9.2799999999999994</v>
       </c>
-      <c r="AD8" s="125" t="s">
+      <c r="AD8" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="AE8" s="126"/>
-      <c r="AF8" s="128"/>
+      <c r="AE8" s="141"/>
+      <c r="AF8" s="143"/>
       <c r="AG8" s="68">
         <v>10.5</v>
       </c>
-      <c r="AH8" s="125" t="s">
+      <c r="AH8" s="140" t="s">
         <v>57</v>
       </c>
-      <c r="AI8" s="126"/>
-      <c r="AJ8" s="128"/>
+      <c r="AI8" s="141"/>
+      <c r="AJ8" s="143"/>
       <c r="AK8" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="AL8" s="125" t="s">
+      <c r="AL8" s="140" t="s">
         <v>65</v>
       </c>
-      <c r="AM8" s="126"/>
-      <c r="AN8" s="128"/>
+      <c r="AM8" s="141"/>
+      <c r="AN8" s="143"/>
       <c r="AO8" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="AP8" s="122" t="s">
+      <c r="AP8" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="AQ8" s="123"/>
-      <c r="AR8" s="123"/>
+      <c r="AQ8" s="145"/>
+      <c r="AR8" s="145"/>
       <c r="AS8" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="AT8" s="122" t="s">
+      <c r="AT8" s="144" t="s">
         <v>68</v>
       </c>
-      <c r="AU8" s="123"/>
-      <c r="AV8" s="124"/>
+      <c r="AU8" s="145"/>
+      <c r="AV8" s="146"/>
       <c r="AW8" s="76"/>
-      <c r="AX8" s="122"/>
-      <c r="AY8" s="123"/>
-      <c r="AZ8" s="124"/>
+      <c r="AX8" s="144"/>
+      <c r="AY8" s="145"/>
+      <c r="AZ8" s="146"/>
       <c r="BA8" s="76"/>
-      <c r="BB8" s="122"/>
-      <c r="BC8" s="123"/>
-      <c r="BD8" s="124"/>
+      <c r="BB8" s="144"/>
+      <c r="BC8" s="145"/>
+      <c r="BD8" s="146"/>
       <c r="BE8" s="80"/>
       <c r="BF8" s="81"/>
     </row>
@@ -3751,63 +3751,63 @@
       <c r="Y9" s="67">
         <v>8.2899999999999991</v>
       </c>
-      <c r="Z9" s="125" t="s">
+      <c r="Z9" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="AA9" s="126"/>
-      <c r="AB9" s="127"/>
+      <c r="AA9" s="141"/>
+      <c r="AB9" s="142"/>
       <c r="AC9" s="68">
         <v>9.9</v>
       </c>
-      <c r="AD9" s="125" t="s">
+      <c r="AD9" s="140" t="s">
         <v>73</v>
       </c>
-      <c r="AE9" s="126"/>
-      <c r="AF9" s="128"/>
+      <c r="AE9" s="141"/>
+      <c r="AF9" s="143"/>
       <c r="AG9" s="68">
         <v>9.2100000000000009</v>
       </c>
-      <c r="AH9" s="125" t="s">
+      <c r="AH9" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="AI9" s="126"/>
-      <c r="AJ9" s="128"/>
+      <c r="AI9" s="141"/>
+      <c r="AJ9" s="143"/>
       <c r="AK9" s="68">
         <v>9.24</v>
       </c>
-      <c r="AL9" s="125" t="s">
+      <c r="AL9" s="140" t="s">
         <v>75</v>
       </c>
-      <c r="AM9" s="126"/>
-      <c r="AN9" s="128"/>
+      <c r="AM9" s="141"/>
+      <c r="AN9" s="143"/>
       <c r="AO9" s="68">
         <v>10.5</v>
       </c>
-      <c r="AP9" s="122" t="s">
+      <c r="AP9" s="144" t="s">
         <v>76</v>
       </c>
-      <c r="AQ9" s="123"/>
-      <c r="AR9" s="123"/>
+      <c r="AQ9" s="145"/>
+      <c r="AR9" s="145"/>
       <c r="AS9" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="AT9" s="122" t="s">
+      <c r="AT9" s="144" t="s">
         <v>77</v>
       </c>
-      <c r="AU9" s="123"/>
-      <c r="AV9" s="124"/>
+      <c r="AU9" s="145"/>
+      <c r="AV9" s="146"/>
       <c r="AW9" s="76" t="s">
         <v>67</v>
       </c>
-      <c r="AX9" s="122" t="s">
+      <c r="AX9" s="144" t="s">
         <v>78</v>
       </c>
-      <c r="AY9" s="123"/>
-      <c r="AZ9" s="124"/>
+      <c r="AY9" s="145"/>
+      <c r="AZ9" s="146"/>
       <c r="BA9" s="76"/>
-      <c r="BB9" s="122"/>
-      <c r="BC9" s="123"/>
-      <c r="BD9" s="124"/>
+      <c r="BB9" s="144"/>
+      <c r="BC9" s="145"/>
+      <c r="BD9" s="146"/>
       <c r="BE9" s="80"/>
       <c r="BF9" s="81"/>
     </row>
@@ -3855,51 +3855,51 @@
       <c r="Y10" s="67">
         <v>8.2899999999999991</v>
       </c>
-      <c r="Z10" s="125" t="s">
+      <c r="Z10" s="140" t="s">
         <v>80</v>
       </c>
-      <c r="AA10" s="126"/>
-      <c r="AB10" s="127"/>
+      <c r="AA10" s="141"/>
+      <c r="AB10" s="142"/>
       <c r="AC10" s="68">
         <v>9.6999999999999993</v>
       </c>
-      <c r="AD10" s="125" t="s">
+      <c r="AD10" s="140" t="s">
         <v>81</v>
       </c>
-      <c r="AE10" s="126"/>
-      <c r="AF10" s="128"/>
+      <c r="AE10" s="141"/>
+      <c r="AF10" s="143"/>
       <c r="AG10" s="68">
         <v>9.9</v>
       </c>
-      <c r="AH10" s="125" t="s">
+      <c r="AH10" s="140" t="s">
         <v>82</v>
       </c>
-      <c r="AI10" s="126"/>
-      <c r="AJ10" s="128"/>
+      <c r="AI10" s="141"/>
+      <c r="AJ10" s="143"/>
       <c r="AK10" s="68">
         <v>9.24</v>
       </c>
-      <c r="AL10" s="125" t="s">
+      <c r="AL10" s="140" t="s">
         <v>83</v>
       </c>
-      <c r="AM10" s="126"/>
-      <c r="AN10" s="128"/>
+      <c r="AM10" s="141"/>
+      <c r="AN10" s="143"/>
       <c r="AO10" s="68"/>
-      <c r="AP10" s="122"/>
-      <c r="AQ10" s="123"/>
-      <c r="AR10" s="123"/>
+      <c r="AP10" s="144"/>
+      <c r="AQ10" s="145"/>
+      <c r="AR10" s="145"/>
       <c r="AS10" s="68"/>
-      <c r="AT10" s="122"/>
-      <c r="AU10" s="123"/>
-      <c r="AV10" s="124"/>
+      <c r="AT10" s="144"/>
+      <c r="AU10" s="145"/>
+      <c r="AV10" s="146"/>
       <c r="AW10" s="76"/>
-      <c r="AX10" s="122"/>
-      <c r="AY10" s="123"/>
-      <c r="AZ10" s="124"/>
+      <c r="AX10" s="144"/>
+      <c r="AY10" s="145"/>
+      <c r="AZ10" s="146"/>
       <c r="BA10" s="76"/>
-      <c r="BB10" s="122"/>
-      <c r="BC10" s="123"/>
-      <c r="BD10" s="124"/>
+      <c r="BB10" s="144"/>
+      <c r="BC10" s="145"/>
+      <c r="BD10" s="146"/>
       <c r="BE10" s="80"/>
       <c r="BF10" s="81"/>
     </row>
@@ -3951,55 +3951,55 @@
       <c r="Y11" s="67">
         <v>8.9</v>
       </c>
-      <c r="Z11" s="125" t="s">
+      <c r="Z11" s="140" t="s">
         <v>85</v>
       </c>
-      <c r="AA11" s="126"/>
-      <c r="AB11" s="127"/>
+      <c r="AA11" s="141"/>
+      <c r="AB11" s="142"/>
       <c r="AC11" s="68">
         <v>9.9</v>
       </c>
-      <c r="AD11" s="125" t="s">
+      <c r="AD11" s="140" t="s">
         <v>86</v>
       </c>
-      <c r="AE11" s="126"/>
-      <c r="AF11" s="128"/>
+      <c r="AE11" s="141"/>
+      <c r="AF11" s="143"/>
       <c r="AG11" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="AH11" s="125" t="s">
+      <c r="AH11" s="140" t="s">
         <v>87</v>
       </c>
-      <c r="AI11" s="126"/>
-      <c r="AJ11" s="128"/>
+      <c r="AI11" s="141"/>
+      <c r="AJ11" s="143"/>
       <c r="AK11" s="68">
         <v>10.5</v>
       </c>
-      <c r="AL11" s="125" t="s">
+      <c r="AL11" s="140" t="s">
         <v>88</v>
       </c>
-      <c r="AM11" s="126"/>
-      <c r="AN11" s="128"/>
+      <c r="AM11" s="141"/>
+      <c r="AN11" s="143"/>
       <c r="AO11" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="AP11" s="122" t="s">
+      <c r="AP11" s="144" t="s">
         <v>89</v>
       </c>
-      <c r="AQ11" s="123"/>
-      <c r="AR11" s="123"/>
+      <c r="AQ11" s="145"/>
+      <c r="AR11" s="145"/>
       <c r="AS11" s="68"/>
-      <c r="AT11" s="122"/>
-      <c r="AU11" s="123"/>
-      <c r="AV11" s="124"/>
+      <c r="AT11" s="144"/>
+      <c r="AU11" s="145"/>
+      <c r="AV11" s="146"/>
       <c r="AW11" s="76"/>
-      <c r="AX11" s="122"/>
-      <c r="AY11" s="123"/>
-      <c r="AZ11" s="124"/>
+      <c r="AX11" s="144"/>
+      <c r="AY11" s="145"/>
+      <c r="AZ11" s="146"/>
       <c r="BA11" s="76"/>
-      <c r="BB11" s="122"/>
-      <c r="BC11" s="123"/>
-      <c r="BD11" s="124"/>
+      <c r="BB11" s="144"/>
+      <c r="BC11" s="145"/>
+      <c r="BD11" s="146"/>
       <c r="BE11" s="80"/>
       <c r="BF11" s="81"/>
     </row>
@@ -4049,51 +4049,51 @@
       <c r="Y12" s="67">
         <v>9.9</v>
       </c>
-      <c r="Z12" s="125" t="s">
+      <c r="Z12" s="140" t="s">
         <v>92</v>
       </c>
-      <c r="AA12" s="126"/>
-      <c r="AB12" s="127"/>
+      <c r="AA12" s="141"/>
+      <c r="AB12" s="142"/>
       <c r="AC12" s="68">
         <v>10.5</v>
       </c>
-      <c r="AD12" s="125" t="s">
+      <c r="AD12" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="AE12" s="126"/>
-      <c r="AF12" s="128"/>
+      <c r="AE12" s="141"/>
+      <c r="AF12" s="143"/>
       <c r="AG12" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="AH12" s="125" t="s">
+      <c r="AH12" s="140" t="s">
         <v>94</v>
       </c>
-      <c r="AI12" s="126"/>
-      <c r="AJ12" s="128"/>
+      <c r="AI12" s="141"/>
+      <c r="AJ12" s="143"/>
       <c r="AK12" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="AL12" s="125" t="s">
+      <c r="AL12" s="140" t="s">
         <v>96</v>
       </c>
-      <c r="AM12" s="126"/>
-      <c r="AN12" s="128"/>
+      <c r="AM12" s="141"/>
+      <c r="AN12" s="143"/>
       <c r="AO12" s="68"/>
-      <c r="AP12" s="122"/>
-      <c r="AQ12" s="123"/>
-      <c r="AR12" s="123"/>
+      <c r="AP12" s="144"/>
+      <c r="AQ12" s="145"/>
+      <c r="AR12" s="145"/>
       <c r="AS12" s="68"/>
-      <c r="AT12" s="122"/>
-      <c r="AU12" s="123"/>
-      <c r="AV12" s="124"/>
+      <c r="AT12" s="144"/>
+      <c r="AU12" s="145"/>
+      <c r="AV12" s="146"/>
       <c r="AW12" s="76"/>
-      <c r="AX12" s="122"/>
-      <c r="AY12" s="123"/>
-      <c r="AZ12" s="124"/>
+      <c r="AX12" s="144"/>
+      <c r="AY12" s="145"/>
+      <c r="AZ12" s="146"/>
       <c r="BA12" s="76"/>
-      <c r="BB12" s="122"/>
-      <c r="BC12" s="123"/>
-      <c r="BD12" s="124"/>
+      <c r="BB12" s="144"/>
+      <c r="BC12" s="145"/>
+      <c r="BD12" s="146"/>
       <c r="BE12" s="80"/>
       <c r="BF12" s="81"/>
     </row>
@@ -4142,47 +4142,47 @@
       <c r="Y13" s="67">
         <v>9.1</v>
       </c>
-      <c r="Z13" s="125" t="s">
+      <c r="Z13" s="140" t="s">
         <v>99</v>
       </c>
-      <c r="AA13" s="126"/>
-      <c r="AB13" s="127"/>
+      <c r="AA13" s="141"/>
+      <c r="AB13" s="142"/>
       <c r="AC13" s="68">
         <v>9.2100000000000009</v>
       </c>
-      <c r="AD13" s="125" t="s">
+      <c r="AD13" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="AE13" s="126"/>
-      <c r="AF13" s="128"/>
+      <c r="AE13" s="141"/>
+      <c r="AF13" s="143"/>
       <c r="AG13" s="68">
         <v>10.5</v>
       </c>
-      <c r="AH13" s="125" t="s">
+      <c r="AH13" s="140" t="s">
         <v>101</v>
       </c>
-      <c r="AI13" s="126"/>
-      <c r="AJ13" s="128"/>
+      <c r="AI13" s="141"/>
+      <c r="AJ13" s="143"/>
       <c r="AK13" s="68"/>
-      <c r="AL13" s="125"/>
-      <c r="AM13" s="126"/>
-      <c r="AN13" s="128"/>
+      <c r="AL13" s="140"/>
+      <c r="AM13" s="141"/>
+      <c r="AN13" s="143"/>
       <c r="AO13" s="68"/>
-      <c r="AP13" s="122"/>
-      <c r="AQ13" s="123"/>
-      <c r="AR13" s="123"/>
+      <c r="AP13" s="144"/>
+      <c r="AQ13" s="145"/>
+      <c r="AR13" s="145"/>
       <c r="AS13" s="68"/>
-      <c r="AT13" s="122"/>
-      <c r="AU13" s="123"/>
-      <c r="AV13" s="124"/>
+      <c r="AT13" s="144"/>
+      <c r="AU13" s="145"/>
+      <c r="AV13" s="146"/>
       <c r="AW13" s="76"/>
-      <c r="AX13" s="122"/>
-      <c r="AY13" s="123"/>
-      <c r="AZ13" s="124"/>
+      <c r="AX13" s="144"/>
+      <c r="AY13" s="145"/>
+      <c r="AZ13" s="146"/>
       <c r="BA13" s="76"/>
-      <c r="BB13" s="122"/>
-      <c r="BC13" s="123"/>
-      <c r="BD13" s="124"/>
+      <c r="BB13" s="144"/>
+      <c r="BC13" s="145"/>
+      <c r="BD13" s="146"/>
       <c r="BE13" s="80"/>
       <c r="BF13" s="81"/>
     </row>
@@ -4232,51 +4232,51 @@
       <c r="Y14" s="67">
         <v>9.2200000000000006</v>
       </c>
-      <c r="Z14" s="125" t="s">
+      <c r="Z14" s="140" t="s">
         <v>104</v>
       </c>
-      <c r="AA14" s="126"/>
-      <c r="AB14" s="127"/>
+      <c r="AA14" s="141"/>
+      <c r="AB14" s="142"/>
       <c r="AC14" s="68">
         <v>10.5</v>
       </c>
-      <c r="AD14" s="125" t="s">
+      <c r="AD14" s="140" t="s">
         <v>105</v>
       </c>
-      <c r="AE14" s="126"/>
-      <c r="AF14" s="128"/>
+      <c r="AE14" s="141"/>
+      <c r="AF14" s="143"/>
       <c r="AG14" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="AH14" s="125" t="s">
+      <c r="AH14" s="140" t="s">
         <v>107</v>
       </c>
-      <c r="AI14" s="126"/>
-      <c r="AJ14" s="128"/>
+      <c r="AI14" s="141"/>
+      <c r="AJ14" s="143"/>
       <c r="AK14" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="AL14" s="125" t="s">
+      <c r="AL14" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="AM14" s="126"/>
-      <c r="AN14" s="128"/>
+      <c r="AM14" s="141"/>
+      <c r="AN14" s="143"/>
       <c r="AO14" s="68"/>
-      <c r="AP14" s="122"/>
-      <c r="AQ14" s="123"/>
-      <c r="AR14" s="123"/>
+      <c r="AP14" s="144"/>
+      <c r="AQ14" s="145"/>
+      <c r="AR14" s="145"/>
       <c r="AS14" s="68"/>
-      <c r="AT14" s="122"/>
-      <c r="AU14" s="123"/>
-      <c r="AV14" s="124"/>
+      <c r="AT14" s="144"/>
+      <c r="AU14" s="145"/>
+      <c r="AV14" s="146"/>
       <c r="AW14" s="76"/>
-      <c r="AX14" s="122"/>
-      <c r="AY14" s="123"/>
-      <c r="AZ14" s="124"/>
+      <c r="AX14" s="144"/>
+      <c r="AY14" s="145"/>
+      <c r="AZ14" s="146"/>
       <c r="BA14" s="76"/>
-      <c r="BB14" s="122"/>
-      <c r="BC14" s="123"/>
-      <c r="BD14" s="124"/>
+      <c r="BB14" s="144"/>
+      <c r="BC14" s="145"/>
+      <c r="BD14" s="146"/>
       <c r="BE14" s="82"/>
       <c r="BF14" s="83"/>
     </row>
@@ -4324,59 +4324,59 @@
       <c r="Y15" s="69">
         <v>9.25</v>
       </c>
-      <c r="Z15" s="122" t="s">
+      <c r="Z15" s="144" t="s">
         <v>110</v>
       </c>
-      <c r="AA15" s="123"/>
-      <c r="AB15" s="123"/>
+      <c r="AA15" s="145"/>
+      <c r="AB15" s="145"/>
       <c r="AC15" s="68">
         <v>9.24</v>
       </c>
-      <c r="AD15" s="122" t="s">
+      <c r="AD15" s="144" t="s">
         <v>111</v>
       </c>
-      <c r="AE15" s="123"/>
-      <c r="AF15" s="124"/>
+      <c r="AE15" s="145"/>
+      <c r="AF15" s="146"/>
       <c r="AG15" s="73">
         <v>9.2799999999999994</v>
       </c>
-      <c r="AH15" s="122" t="s">
+      <c r="AH15" s="144" t="s">
         <v>112</v>
       </c>
-      <c r="AI15" s="123"/>
-      <c r="AJ15" s="124"/>
+      <c r="AI15" s="145"/>
+      <c r="AJ15" s="146"/>
       <c r="AK15" s="68">
         <v>10.5</v>
       </c>
-      <c r="AL15" s="125" t="s">
+      <c r="AL15" s="140" t="s">
         <v>113</v>
       </c>
-      <c r="AM15" s="126"/>
-      <c r="AN15" s="128"/>
+      <c r="AM15" s="141"/>
+      <c r="AN15" s="143"/>
       <c r="AO15" s="68">
         <v>10.8</v>
       </c>
-      <c r="AP15" s="122" t="s">
+      <c r="AP15" s="144" t="s">
         <v>114</v>
       </c>
-      <c r="AQ15" s="123"/>
-      <c r="AR15" s="123"/>
+      <c r="AQ15" s="145"/>
+      <c r="AR15" s="145"/>
       <c r="AS15" s="68">
         <v>10.9</v>
       </c>
-      <c r="AT15" s="122" t="s">
+      <c r="AT15" s="144" t="s">
         <v>115</v>
       </c>
-      <c r="AU15" s="123"/>
-      <c r="AV15" s="124"/>
+      <c r="AU15" s="145"/>
+      <c r="AV15" s="146"/>
       <c r="AW15" s="76"/>
-      <c r="AX15" s="122"/>
-      <c r="AY15" s="123"/>
-      <c r="AZ15" s="124"/>
+      <c r="AX15" s="144"/>
+      <c r="AY15" s="145"/>
+      <c r="AZ15" s="146"/>
       <c r="BA15" s="76"/>
-      <c r="BB15" s="122"/>
-      <c r="BC15" s="123"/>
-      <c r="BD15" s="124"/>
+      <c r="BB15" s="144"/>
+      <c r="BC15" s="145"/>
+      <c r="BD15" s="146"/>
       <c r="BE15" s="80"/>
       <c r="BF15" s="84" t="s">
         <v>38</v>
@@ -4427,47 +4427,47 @@
       <c r="Y16" s="69">
         <v>9.24</v>
       </c>
-      <c r="Z16" s="125" t="s">
+      <c r="Z16" s="140" t="s">
         <v>118</v>
       </c>
-      <c r="AA16" s="126"/>
-      <c r="AB16" s="127"/>
+      <c r="AA16" s="141"/>
+      <c r="AB16" s="142"/>
       <c r="AC16" s="68">
         <v>9.2799999999999994</v>
       </c>
-      <c r="AD16" s="122" t="s">
+      <c r="AD16" s="144" t="s">
         <v>57</v>
       </c>
-      <c r="AE16" s="123"/>
-      <c r="AF16" s="124"/>
+      <c r="AE16" s="145"/>
+      <c r="AF16" s="146"/>
       <c r="AG16" s="73">
         <v>10.5</v>
       </c>
-      <c r="AH16" s="122" t="s">
+      <c r="AH16" s="144" t="s">
         <v>119</v>
       </c>
-      <c r="AI16" s="123"/>
-      <c r="AJ16" s="124"/>
+      <c r="AI16" s="145"/>
+      <c r="AJ16" s="146"/>
       <c r="AK16" s="68"/>
-      <c r="AL16" s="125"/>
-      <c r="AM16" s="126"/>
-      <c r="AN16" s="128"/>
+      <c r="AL16" s="140"/>
+      <c r="AM16" s="141"/>
+      <c r="AN16" s="143"/>
       <c r="AO16" s="68"/>
-      <c r="AP16" s="122"/>
-      <c r="AQ16" s="123"/>
-      <c r="AR16" s="123"/>
+      <c r="AP16" s="144"/>
+      <c r="AQ16" s="145"/>
+      <c r="AR16" s="145"/>
       <c r="AS16" s="68"/>
-      <c r="AT16" s="122"/>
-      <c r="AU16" s="123"/>
-      <c r="AV16" s="124"/>
+      <c r="AT16" s="144"/>
+      <c r="AU16" s="145"/>
+      <c r="AV16" s="146"/>
       <c r="AW16" s="76"/>
-      <c r="AX16" s="122"/>
-      <c r="AY16" s="123"/>
-      <c r="AZ16" s="124"/>
+      <c r="AX16" s="144"/>
+      <c r="AY16" s="145"/>
+      <c r="AZ16" s="146"/>
       <c r="BA16" s="76"/>
-      <c r="BB16" s="122"/>
-      <c r="BC16" s="123"/>
-      <c r="BD16" s="124"/>
+      <c r="BB16" s="144"/>
+      <c r="BC16" s="145"/>
+      <c r="BD16" s="146"/>
       <c r="BE16" s="80"/>
       <c r="BF16" s="84" t="s">
         <v>38</v>
@@ -4517,51 +4517,51 @@
       <c r="Y17" s="69">
         <v>9.25</v>
       </c>
-      <c r="Z17" s="125" t="s">
+      <c r="Z17" s="140" t="s">
         <v>122</v>
       </c>
-      <c r="AA17" s="126"/>
-      <c r="AB17" s="127"/>
+      <c r="AA17" s="141"/>
+      <c r="AB17" s="142"/>
       <c r="AC17" s="68">
         <v>9.2799999999999994</v>
       </c>
-      <c r="AD17" s="122" t="s">
+      <c r="AD17" s="144" t="s">
         <v>123</v>
       </c>
-      <c r="AE17" s="123"/>
-      <c r="AF17" s="124"/>
+      <c r="AE17" s="145"/>
+      <c r="AF17" s="146"/>
       <c r="AG17" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="AH17" s="122" t="s">
+      <c r="AH17" s="144" t="s">
         <v>124</v>
       </c>
-      <c r="AI17" s="123"/>
-      <c r="AJ17" s="124"/>
+      <c r="AI17" s="145"/>
+      <c r="AJ17" s="146"/>
       <c r="AK17" s="68" t="s">
         <v>95</v>
       </c>
-      <c r="AL17" s="125" t="s">
+      <c r="AL17" s="140" t="s">
         <v>125</v>
       </c>
-      <c r="AM17" s="126"/>
-      <c r="AN17" s="128"/>
+      <c r="AM17" s="141"/>
+      <c r="AN17" s="143"/>
       <c r="AO17" s="68"/>
-      <c r="AP17" s="122"/>
-      <c r="AQ17" s="123"/>
-      <c r="AR17" s="123"/>
+      <c r="AP17" s="144"/>
+      <c r="AQ17" s="145"/>
+      <c r="AR17" s="145"/>
       <c r="AS17" s="68"/>
-      <c r="AT17" s="122"/>
-      <c r="AU17" s="123"/>
-      <c r="AV17" s="124"/>
+      <c r="AT17" s="144"/>
+      <c r="AU17" s="145"/>
+      <c r="AV17" s="146"/>
       <c r="AW17" s="76"/>
-      <c r="AX17" s="122"/>
-      <c r="AY17" s="123"/>
-      <c r="AZ17" s="124"/>
+      <c r="AX17" s="144"/>
+      <c r="AY17" s="145"/>
+      <c r="AZ17" s="146"/>
       <c r="BA17" s="76"/>
-      <c r="BB17" s="122"/>
-      <c r="BC17" s="123"/>
-      <c r="BD17" s="124"/>
+      <c r="BB17" s="144"/>
+      <c r="BC17" s="145"/>
+      <c r="BD17" s="146"/>
       <c r="BE17" s="80"/>
       <c r="BF17" s="81"/>
     </row>
@@ -4603,47 +4603,47 @@
       <c r="Y18" s="69">
         <v>9.2799999999999994</v>
       </c>
-      <c r="Z18" s="125" t="s">
+      <c r="Z18" s="140" t="s">
         <v>127</v>
       </c>
-      <c r="AA18" s="126"/>
-      <c r="AB18" s="127"/>
+      <c r="AA18" s="141"/>
+      <c r="AB18" s="142"/>
       <c r="AC18" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="AD18" s="122" t="s">
+      <c r="AD18" s="144" t="s">
         <v>128</v>
       </c>
-      <c r="AE18" s="123"/>
-      <c r="AF18" s="124"/>
+      <c r="AE18" s="145"/>
+      <c r="AF18" s="146"/>
       <c r="AG18" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="AH18" s="122" t="s">
+      <c r="AH18" s="144" t="s">
         <v>130</v>
       </c>
-      <c r="AI18" s="123"/>
-      <c r="AJ18" s="124"/>
+      <c r="AI18" s="145"/>
+      <c r="AJ18" s="146"/>
       <c r="AK18" s="68"/>
-      <c r="AL18" s="122"/>
-      <c r="AM18" s="123"/>
-      <c r="AN18" s="124"/>
+      <c r="AL18" s="144"/>
+      <c r="AM18" s="145"/>
+      <c r="AN18" s="146"/>
       <c r="AO18" s="68"/>
-      <c r="AP18" s="122"/>
-      <c r="AQ18" s="123"/>
-      <c r="AR18" s="123"/>
+      <c r="AP18" s="144"/>
+      <c r="AQ18" s="145"/>
+      <c r="AR18" s="145"/>
       <c r="AS18" s="68"/>
-      <c r="AT18" s="122"/>
-      <c r="AU18" s="123"/>
-      <c r="AV18" s="124"/>
+      <c r="AT18" s="144"/>
+      <c r="AU18" s="145"/>
+      <c r="AV18" s="146"/>
       <c r="AW18" s="76"/>
-      <c r="AX18" s="122"/>
-      <c r="AY18" s="123"/>
-      <c r="AZ18" s="124"/>
+      <c r="AX18" s="144"/>
+      <c r="AY18" s="145"/>
+      <c r="AZ18" s="146"/>
       <c r="BA18" s="76"/>
-      <c r="BB18" s="122"/>
-      <c r="BC18" s="123"/>
-      <c r="BD18" s="124"/>
+      <c r="BB18" s="144"/>
+      <c r="BC18" s="145"/>
+      <c r="BD18" s="146"/>
       <c r="BE18" s="80"/>
       <c r="BF18" s="81"/>
     </row>
@@ -4693,43 +4693,43 @@
       <c r="Y19" s="69">
         <v>9.2799999999999994</v>
       </c>
-      <c r="Z19" s="125" t="s">
+      <c r="Z19" s="140" t="s">
         <v>133</v>
       </c>
-      <c r="AA19" s="126"/>
-      <c r="AB19" s="127"/>
+      <c r="AA19" s="141"/>
+      <c r="AB19" s="142"/>
       <c r="AC19" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="AD19" s="122" t="s">
+      <c r="AD19" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="AE19" s="123"/>
-      <c r="AF19" s="124"/>
+      <c r="AE19" s="145"/>
+      <c r="AF19" s="146"/>
       <c r="AG19" s="73"/>
-      <c r="AH19" s="122"/>
-      <c r="AI19" s="123"/>
-      <c r="AJ19" s="124"/>
+      <c r="AH19" s="144"/>
+      <c r="AI19" s="145"/>
+      <c r="AJ19" s="146"/>
       <c r="AK19" s="68"/>
-      <c r="AL19" s="122"/>
-      <c r="AM19" s="123"/>
-      <c r="AN19" s="124"/>
+      <c r="AL19" s="144"/>
+      <c r="AM19" s="145"/>
+      <c r="AN19" s="146"/>
       <c r="AO19" s="68"/>
-      <c r="AP19" s="122"/>
-      <c r="AQ19" s="123"/>
-      <c r="AR19" s="123"/>
+      <c r="AP19" s="144"/>
+      <c r="AQ19" s="145"/>
+      <c r="AR19" s="145"/>
       <c r="AS19" s="68"/>
-      <c r="AT19" s="122"/>
-      <c r="AU19" s="123"/>
-      <c r="AV19" s="124"/>
+      <c r="AT19" s="144"/>
+      <c r="AU19" s="145"/>
+      <c r="AV19" s="146"/>
       <c r="AW19" s="76"/>
-      <c r="AX19" s="122"/>
-      <c r="AY19" s="123"/>
-      <c r="AZ19" s="124"/>
+      <c r="AX19" s="144"/>
+      <c r="AY19" s="145"/>
+      <c r="AZ19" s="146"/>
       <c r="BA19" s="76"/>
-      <c r="BB19" s="122"/>
-      <c r="BC19" s="123"/>
-      <c r="BD19" s="124"/>
+      <c r="BB19" s="144"/>
+      <c r="BC19" s="145"/>
+      <c r="BD19" s="146"/>
       <c r="BE19" s="80"/>
       <c r="BF19" s="81"/>
     </row>
@@ -4779,47 +4779,47 @@
       <c r="Y20" s="70">
         <v>10.7</v>
       </c>
-      <c r="Z20" s="125" t="s">
+      <c r="Z20" s="140" t="s">
         <v>137</v>
       </c>
-      <c r="AA20" s="126"/>
-      <c r="AB20" s="127"/>
+      <c r="AA20" s="141"/>
+      <c r="AB20" s="142"/>
       <c r="AC20" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="AD20" s="122" t="s">
+      <c r="AD20" s="144" t="s">
         <v>138</v>
       </c>
-      <c r="AE20" s="123"/>
-      <c r="AF20" s="124"/>
+      <c r="AE20" s="145"/>
+      <c r="AF20" s="146"/>
       <c r="AG20" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="AH20" s="122" t="s">
+      <c r="AH20" s="144" t="s">
         <v>139</v>
       </c>
-      <c r="AI20" s="123"/>
-      <c r="AJ20" s="124"/>
+      <c r="AI20" s="145"/>
+      <c r="AJ20" s="146"/>
       <c r="AK20" s="73"/>
-      <c r="AL20" s="122"/>
-      <c r="AM20" s="123"/>
-      <c r="AN20" s="124"/>
+      <c r="AL20" s="144"/>
+      <c r="AM20" s="145"/>
+      <c r="AN20" s="146"/>
       <c r="AO20" s="68"/>
-      <c r="AP20" s="122"/>
-      <c r="AQ20" s="123"/>
-      <c r="AR20" s="123"/>
+      <c r="AP20" s="144"/>
+      <c r="AQ20" s="145"/>
+      <c r="AR20" s="145"/>
       <c r="AS20" s="68"/>
-      <c r="AT20" s="122"/>
-      <c r="AU20" s="123"/>
-      <c r="AV20" s="124"/>
+      <c r="AT20" s="144"/>
+      <c r="AU20" s="145"/>
+      <c r="AV20" s="146"/>
       <c r="AW20" s="76"/>
-      <c r="AX20" s="122"/>
-      <c r="AY20" s="123"/>
-      <c r="AZ20" s="124"/>
+      <c r="AX20" s="144"/>
+      <c r="AY20" s="145"/>
+      <c r="AZ20" s="146"/>
       <c r="BA20" s="76"/>
-      <c r="BB20" s="122"/>
-      <c r="BC20" s="123"/>
-      <c r="BD20" s="124"/>
+      <c r="BB20" s="144"/>
+      <c r="BC20" s="145"/>
+      <c r="BD20" s="146"/>
       <c r="BE20" s="80"/>
       <c r="BF20" s="81"/>
     </row>
@@ -4869,47 +4869,47 @@
       <c r="Y21" s="70">
         <v>10.7</v>
       </c>
-      <c r="Z21" s="125" t="s">
+      <c r="Z21" s="140" t="s">
         <v>142</v>
       </c>
-      <c r="AA21" s="126"/>
-      <c r="AB21" s="127"/>
+      <c r="AA21" s="141"/>
+      <c r="AB21" s="142"/>
       <c r="AC21" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="AD21" s="122" t="s">
+      <c r="AD21" s="144" t="s">
         <v>144</v>
       </c>
-      <c r="AE21" s="123"/>
-      <c r="AF21" s="124"/>
+      <c r="AE21" s="145"/>
+      <c r="AF21" s="146"/>
       <c r="AG21" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="AH21" s="122" t="s">
+      <c r="AH21" s="144" t="s">
         <v>145</v>
       </c>
-      <c r="AI21" s="123"/>
-      <c r="AJ21" s="124"/>
+      <c r="AI21" s="145"/>
+      <c r="AJ21" s="146"/>
       <c r="AK21" s="73"/>
-      <c r="AL21" s="122"/>
-      <c r="AM21" s="123"/>
-      <c r="AN21" s="124"/>
+      <c r="AL21" s="144"/>
+      <c r="AM21" s="145"/>
+      <c r="AN21" s="146"/>
       <c r="AO21" s="68"/>
-      <c r="AP21" s="122"/>
-      <c r="AQ21" s="123"/>
-      <c r="AR21" s="123"/>
+      <c r="AP21" s="144"/>
+      <c r="AQ21" s="145"/>
+      <c r="AR21" s="145"/>
       <c r="AS21" s="68"/>
-      <c r="AT21" s="122"/>
-      <c r="AU21" s="123"/>
-      <c r="AV21" s="124"/>
+      <c r="AT21" s="144"/>
+      <c r="AU21" s="145"/>
+      <c r="AV21" s="146"/>
       <c r="AW21" s="76"/>
-      <c r="AX21" s="122"/>
-      <c r="AY21" s="123"/>
-      <c r="AZ21" s="124"/>
+      <c r="AX21" s="144"/>
+      <c r="AY21" s="145"/>
+      <c r="AZ21" s="146"/>
       <c r="BA21" s="76"/>
-      <c r="BB21" s="122"/>
-      <c r="BC21" s="123"/>
-      <c r="BD21" s="124"/>
+      <c r="BB21" s="144"/>
+      <c r="BC21" s="145"/>
+      <c r="BD21" s="146"/>
       <c r="BE21" s="80"/>
       <c r="BF21" s="81"/>
     </row>
@@ -4953,43 +4953,43 @@
       <c r="Y22" s="70">
         <v>10.8</v>
       </c>
-      <c r="Z22" s="125" t="s">
+      <c r="Z22" s="140" t="s">
         <v>148</v>
       </c>
-      <c r="AA22" s="126"/>
-      <c r="AB22" s="127"/>
+      <c r="AA22" s="141"/>
+      <c r="AB22" s="142"/>
       <c r="AC22" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="AD22" s="122" t="s">
+      <c r="AD22" s="144" t="s">
         <v>149</v>
       </c>
-      <c r="AE22" s="123"/>
-      <c r="AF22" s="124"/>
+      <c r="AE22" s="145"/>
+      <c r="AF22" s="146"/>
       <c r="AG22" s="73"/>
-      <c r="AH22" s="122"/>
-      <c r="AI22" s="123"/>
-      <c r="AJ22" s="124"/>
+      <c r="AH22" s="144"/>
+      <c r="AI22" s="145"/>
+      <c r="AJ22" s="146"/>
       <c r="AK22" s="73"/>
-      <c r="AL22" s="122"/>
-      <c r="AM22" s="123"/>
-      <c r="AN22" s="124"/>
+      <c r="AL22" s="144"/>
+      <c r="AM22" s="145"/>
+      <c r="AN22" s="146"/>
       <c r="AO22" s="68"/>
-      <c r="AP22" s="122"/>
-      <c r="AQ22" s="123"/>
-      <c r="AR22" s="123"/>
+      <c r="AP22" s="144"/>
+      <c r="AQ22" s="145"/>
+      <c r="AR22" s="145"/>
       <c r="AS22" s="68"/>
-      <c r="AT22" s="122"/>
-      <c r="AU22" s="123"/>
-      <c r="AV22" s="124"/>
+      <c r="AT22" s="144"/>
+      <c r="AU22" s="145"/>
+      <c r="AV22" s="146"/>
       <c r="AW22" s="76"/>
-      <c r="AX22" s="122"/>
-      <c r="AY22" s="123"/>
-      <c r="AZ22" s="124"/>
+      <c r="AX22" s="144"/>
+      <c r="AY22" s="145"/>
+      <c r="AZ22" s="146"/>
       <c r="BA22" s="76"/>
-      <c r="BB22" s="122"/>
-      <c r="BC22" s="123"/>
-      <c r="BD22" s="124"/>
+      <c r="BB22" s="144"/>
+      <c r="BC22" s="145"/>
+      <c r="BD22" s="146"/>
       <c r="BE22" s="80"/>
       <c r="BF22" s="81"/>
     </row>
@@ -5033,43 +5033,43 @@
       <c r="Y23" s="70">
         <v>10.8</v>
       </c>
-      <c r="Z23" s="125" t="s">
+      <c r="Z23" s="140" t="s">
         <v>152</v>
       </c>
-      <c r="AA23" s="126"/>
-      <c r="AB23" s="127"/>
+      <c r="AA23" s="141"/>
+      <c r="AB23" s="142"/>
       <c r="AC23" s="68" t="s">
         <v>106</v>
       </c>
-      <c r="AD23" s="122" t="s">
+      <c r="AD23" s="144" t="s">
         <v>153</v>
       </c>
-      <c r="AE23" s="123"/>
-      <c r="AF23" s="124"/>
+      <c r="AE23" s="145"/>
+      <c r="AF23" s="146"/>
       <c r="AG23" s="73"/>
-      <c r="AH23" s="122"/>
-      <c r="AI23" s="123"/>
-      <c r="AJ23" s="124"/>
+      <c r="AH23" s="144"/>
+      <c r="AI23" s="145"/>
+      <c r="AJ23" s="146"/>
       <c r="AK23" s="73"/>
-      <c r="AL23" s="122"/>
-      <c r="AM23" s="123"/>
-      <c r="AN23" s="124"/>
+      <c r="AL23" s="144"/>
+      <c r="AM23" s="145"/>
+      <c r="AN23" s="146"/>
       <c r="AO23" s="68"/>
-      <c r="AP23" s="122"/>
-      <c r="AQ23" s="123"/>
-      <c r="AR23" s="123"/>
+      <c r="AP23" s="144"/>
+      <c r="AQ23" s="145"/>
+      <c r="AR23" s="145"/>
       <c r="AS23" s="68"/>
-      <c r="AT23" s="122"/>
-      <c r="AU23" s="123"/>
-      <c r="AV23" s="124"/>
+      <c r="AT23" s="144"/>
+      <c r="AU23" s="145"/>
+      <c r="AV23" s="146"/>
       <c r="AW23" s="76"/>
-      <c r="AX23" s="122"/>
-      <c r="AY23" s="123"/>
-      <c r="AZ23" s="124"/>
+      <c r="AX23" s="144"/>
+      <c r="AY23" s="145"/>
+      <c r="AZ23" s="146"/>
       <c r="BA23" s="76"/>
-      <c r="BB23" s="122"/>
-      <c r="BC23" s="123"/>
-      <c r="BD23" s="124"/>
+      <c r="BB23" s="144"/>
+      <c r="BC23" s="145"/>
+      <c r="BD23" s="146"/>
       <c r="BE23" s="80"/>
       <c r="BF23" s="81"/>
     </row>
@@ -5111,51 +5111,51 @@
       <c r="Y24" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="Z24" s="125" t="s">
+      <c r="Z24" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="AA24" s="126"/>
-      <c r="AB24" s="127"/>
+      <c r="AA24" s="141"/>
+      <c r="AB24" s="142"/>
       <c r="AC24" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="AD24" s="122" t="s">
+      <c r="AD24" s="144" t="s">
         <v>158</v>
       </c>
-      <c r="AE24" s="123"/>
-      <c r="AF24" s="124"/>
+      <c r="AE24" s="145"/>
+      <c r="AF24" s="146"/>
       <c r="AG24" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="AH24" s="122" t="s">
+      <c r="AH24" s="144" t="s">
         <v>159</v>
       </c>
-      <c r="AI24" s="123"/>
-      <c r="AJ24" s="124"/>
+      <c r="AI24" s="145"/>
+      <c r="AJ24" s="146"/>
       <c r="AK24" s="73" t="s">
         <v>129</v>
       </c>
-      <c r="AL24" s="122" t="s">
+      <c r="AL24" s="144" t="s">
         <v>160</v>
       </c>
-      <c r="AM24" s="123"/>
-      <c r="AN24" s="124"/>
+      <c r="AM24" s="145"/>
+      <c r="AN24" s="146"/>
       <c r="AO24" s="68"/>
-      <c r="AP24" s="122"/>
-      <c r="AQ24" s="123"/>
-      <c r="AR24" s="123"/>
+      <c r="AP24" s="144"/>
+      <c r="AQ24" s="145"/>
+      <c r="AR24" s="145"/>
       <c r="AS24" s="68"/>
-      <c r="AT24" s="122"/>
-      <c r="AU24" s="123"/>
-      <c r="AV24" s="124"/>
+      <c r="AT24" s="144"/>
+      <c r="AU24" s="145"/>
+      <c r="AV24" s="146"/>
       <c r="AW24" s="76"/>
-      <c r="AX24" s="122"/>
-      <c r="AY24" s="123"/>
-      <c r="AZ24" s="124"/>
+      <c r="AX24" s="144"/>
+      <c r="AY24" s="145"/>
+      <c r="AZ24" s="146"/>
       <c r="BA24" s="76"/>
-      <c r="BB24" s="122"/>
-      <c r="BC24" s="123"/>
-      <c r="BD24" s="124"/>
+      <c r="BB24" s="144"/>
+      <c r="BC24" s="145"/>
+      <c r="BD24" s="146"/>
       <c r="BE24" s="80"/>
       <c r="BF24" s="81"/>
     </row>
@@ -5197,43 +5197,43 @@
       <c r="Y25" s="70" t="s">
         <v>162</v>
       </c>
-      <c r="Z25" s="125" t="s">
+      <c r="Z25" s="140" t="s">
         <v>163</v>
       </c>
-      <c r="AA25" s="126"/>
-      <c r="AB25" s="127"/>
+      <c r="AA25" s="141"/>
+      <c r="AB25" s="142"/>
       <c r="AC25" s="68" t="s">
         <v>143</v>
       </c>
-      <c r="AD25" s="122" t="s">
+      <c r="AD25" s="144" t="s">
         <v>89</v>
       </c>
-      <c r="AE25" s="123"/>
-      <c r="AF25" s="124"/>
+      <c r="AE25" s="145"/>
+      <c r="AF25" s="146"/>
       <c r="AG25" s="73"/>
-      <c r="AH25" s="122"/>
-      <c r="AI25" s="123"/>
-      <c r="AJ25" s="124"/>
+      <c r="AH25" s="144"/>
+      <c r="AI25" s="145"/>
+      <c r="AJ25" s="146"/>
       <c r="AK25" s="73"/>
-      <c r="AL25" s="122"/>
-      <c r="AM25" s="123"/>
-      <c r="AN25" s="124"/>
+      <c r="AL25" s="144"/>
+      <c r="AM25" s="145"/>
+      <c r="AN25" s="146"/>
       <c r="AO25" s="68"/>
-      <c r="AP25" s="122"/>
-      <c r="AQ25" s="123"/>
-      <c r="AR25" s="123"/>
+      <c r="AP25" s="144"/>
+      <c r="AQ25" s="145"/>
+      <c r="AR25" s="145"/>
       <c r="AS25" s="68"/>
-      <c r="AT25" s="122"/>
-      <c r="AU25" s="123"/>
-      <c r="AV25" s="124"/>
+      <c r="AT25" s="144"/>
+      <c r="AU25" s="145"/>
+      <c r="AV25" s="146"/>
       <c r="AW25" s="76"/>
-      <c r="AX25" s="122"/>
-      <c r="AY25" s="123"/>
-      <c r="AZ25" s="124"/>
+      <c r="AX25" s="144"/>
+      <c r="AY25" s="145"/>
+      <c r="AZ25" s="146"/>
       <c r="BA25" s="76"/>
-      <c r="BB25" s="122"/>
-      <c r="BC25" s="123"/>
-      <c r="BD25" s="124"/>
+      <c r="BB25" s="144"/>
+      <c r="BC25" s="145"/>
+      <c r="BD25" s="146"/>
       <c r="BE25" s="80"/>
       <c r="BF25" s="81"/>
     </row>
@@ -5275,39 +5275,39 @@
       <c r="Y26" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="Z26" s="125" t="s">
+      <c r="Z26" s="140" t="s">
         <v>165</v>
       </c>
-      <c r="AA26" s="126"/>
-      <c r="AB26" s="127"/>
+      <c r="AA26" s="141"/>
+      <c r="AB26" s="142"/>
       <c r="AC26" s="68"/>
-      <c r="AD26" s="122"/>
-      <c r="AE26" s="123"/>
-      <c r="AF26" s="124"/>
+      <c r="AD26" s="144"/>
+      <c r="AE26" s="145"/>
+      <c r="AF26" s="146"/>
       <c r="AG26" s="73"/>
-      <c r="AH26" s="122"/>
-      <c r="AI26" s="123"/>
-      <c r="AJ26" s="124"/>
+      <c r="AH26" s="144"/>
+      <c r="AI26" s="145"/>
+      <c r="AJ26" s="146"/>
       <c r="AK26" s="73"/>
-      <c r="AL26" s="122"/>
-      <c r="AM26" s="123"/>
-      <c r="AN26" s="124"/>
+      <c r="AL26" s="144"/>
+      <c r="AM26" s="145"/>
+      <c r="AN26" s="146"/>
       <c r="AO26" s="68"/>
-      <c r="AP26" s="122"/>
-      <c r="AQ26" s="123"/>
-      <c r="AR26" s="123"/>
+      <c r="AP26" s="144"/>
+      <c r="AQ26" s="145"/>
+      <c r="AR26" s="145"/>
       <c r="AS26" s="68"/>
-      <c r="AT26" s="122"/>
-      <c r="AU26" s="123"/>
-      <c r="AV26" s="124"/>
+      <c r="AT26" s="144"/>
+      <c r="AU26" s="145"/>
+      <c r="AV26" s="146"/>
       <c r="AW26" s="76"/>
-      <c r="AX26" s="122"/>
-      <c r="AY26" s="123"/>
-      <c r="AZ26" s="124"/>
+      <c r="AX26" s="144"/>
+      <c r="AY26" s="145"/>
+      <c r="AZ26" s="146"/>
       <c r="BA26" s="76"/>
-      <c r="BB26" s="122"/>
-      <c r="BC26" s="123"/>
-      <c r="BD26" s="124"/>
+      <c r="BB26" s="144"/>
+      <c r="BC26" s="145"/>
+      <c r="BD26" s="146"/>
       <c r="BE26" s="80"/>
       <c r="BF26" s="84" t="s">
         <v>38</v>
@@ -5349,43 +5349,43 @@
       <c r="Y27" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="Z27" s="125" t="s">
+      <c r="Z27" s="140" t="s">
         <v>167</v>
       </c>
-      <c r="AA27" s="126"/>
-      <c r="AB27" s="127"/>
+      <c r="AA27" s="141"/>
+      <c r="AB27" s="142"/>
       <c r="AC27" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="AD27" s="122" t="s">
+      <c r="AD27" s="144" t="s">
         <v>168</v>
       </c>
-      <c r="AE27" s="123"/>
-      <c r="AF27" s="124"/>
+      <c r="AE27" s="145"/>
+      <c r="AF27" s="146"/>
       <c r="AG27" s="73"/>
-      <c r="AH27" s="122"/>
-      <c r="AI27" s="123"/>
-      <c r="AJ27" s="124"/>
+      <c r="AH27" s="144"/>
+      <c r="AI27" s="145"/>
+      <c r="AJ27" s="146"/>
       <c r="AK27" s="73"/>
-      <c r="AL27" s="122"/>
-      <c r="AM27" s="123"/>
-      <c r="AN27" s="124"/>
+      <c r="AL27" s="144"/>
+      <c r="AM27" s="145"/>
+      <c r="AN27" s="146"/>
       <c r="AO27" s="68"/>
-      <c r="AP27" s="122"/>
-      <c r="AQ27" s="123"/>
-      <c r="AR27" s="123"/>
+      <c r="AP27" s="144"/>
+      <c r="AQ27" s="145"/>
+      <c r="AR27" s="145"/>
       <c r="AS27" s="68"/>
-      <c r="AT27" s="122"/>
-      <c r="AU27" s="123"/>
-      <c r="AV27" s="124"/>
+      <c r="AT27" s="144"/>
+      <c r="AU27" s="145"/>
+      <c r="AV27" s="146"/>
       <c r="AW27" s="76"/>
-      <c r="AX27" s="122"/>
-      <c r="AY27" s="123"/>
-      <c r="AZ27" s="124"/>
+      <c r="AX27" s="144"/>
+      <c r="AY27" s="145"/>
+      <c r="AZ27" s="146"/>
       <c r="BA27" s="76"/>
-      <c r="BB27" s="122"/>
-      <c r="BC27" s="123"/>
-      <c r="BD27" s="124"/>
+      <c r="BB27" s="144"/>
+      <c r="BC27" s="145"/>
+      <c r="BD27" s="146"/>
       <c r="BE27" s="80"/>
       <c r="BF27" s="81"/>
     </row>
@@ -5429,43 +5429,43 @@
       <c r="Y28" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="Z28" s="125" t="s">
+      <c r="Z28" s="140" t="s">
         <v>172</v>
       </c>
-      <c r="AA28" s="126"/>
-      <c r="AB28" s="127"/>
+      <c r="AA28" s="141"/>
+      <c r="AB28" s="142"/>
       <c r="AC28" s="68" t="s">
         <v>58</v>
       </c>
-      <c r="AD28" s="122" t="s">
+      <c r="AD28" s="144" t="s">
         <v>173</v>
       </c>
-      <c r="AE28" s="123"/>
-      <c r="AF28" s="124"/>
+      <c r="AE28" s="145"/>
+      <c r="AF28" s="146"/>
       <c r="AG28" s="73"/>
-      <c r="AH28" s="122"/>
-      <c r="AI28" s="123"/>
-      <c r="AJ28" s="124"/>
+      <c r="AH28" s="144"/>
+      <c r="AI28" s="145"/>
+      <c r="AJ28" s="146"/>
       <c r="AK28" s="73"/>
-      <c r="AL28" s="122"/>
-      <c r="AM28" s="123"/>
-      <c r="AN28" s="124"/>
+      <c r="AL28" s="144"/>
+      <c r="AM28" s="145"/>
+      <c r="AN28" s="146"/>
       <c r="AO28" s="68"/>
-      <c r="AP28" s="122"/>
-      <c r="AQ28" s="123"/>
-      <c r="AR28" s="123"/>
+      <c r="AP28" s="144"/>
+      <c r="AQ28" s="145"/>
+      <c r="AR28" s="145"/>
       <c r="AS28" s="68"/>
-      <c r="AT28" s="122"/>
-      <c r="AU28" s="123"/>
-      <c r="AV28" s="124"/>
+      <c r="AT28" s="144"/>
+      <c r="AU28" s="145"/>
+      <c r="AV28" s="146"/>
       <c r="AW28" s="76"/>
-      <c r="AX28" s="122"/>
-      <c r="AY28" s="123"/>
-      <c r="AZ28" s="124"/>
+      <c r="AX28" s="144"/>
+      <c r="AY28" s="145"/>
+      <c r="AZ28" s="146"/>
       <c r="BA28" s="76"/>
-      <c r="BB28" s="122"/>
-      <c r="BC28" s="123"/>
-      <c r="BD28" s="124"/>
+      <c r="BB28" s="144"/>
+      <c r="BC28" s="145"/>
+      <c r="BD28" s="146"/>
       <c r="BE28" s="80"/>
       <c r="BF28" s="81"/>
     </row>
@@ -5517,51 +5517,51 @@
       <c r="Y29" s="70" t="s">
         <v>177</v>
       </c>
-      <c r="Z29" s="122" t="s">
+      <c r="Z29" s="144" t="s">
         <v>178</v>
       </c>
-      <c r="AA29" s="123"/>
-      <c r="AB29" s="123"/>
+      <c r="AA29" s="145"/>
+      <c r="AB29" s="145"/>
       <c r="AC29" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="AD29" s="122" t="s">
+      <c r="AD29" s="144" t="s">
         <v>179</v>
       </c>
-      <c r="AE29" s="123"/>
-      <c r="AF29" s="124"/>
+      <c r="AE29" s="145"/>
+      <c r="AF29" s="146"/>
       <c r="AG29" s="73" t="s">
         <v>143</v>
       </c>
-      <c r="AH29" s="122" t="s">
+      <c r="AH29" s="144" t="s">
         <v>180</v>
       </c>
-      <c r="AI29" s="123"/>
-      <c r="AJ29" s="124"/>
+      <c r="AI29" s="145"/>
+      <c r="AJ29" s="146"/>
       <c r="AK29" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="AL29" s="122" t="s">
+      <c r="AL29" s="144" t="s">
         <v>181</v>
       </c>
-      <c r="AM29" s="123"/>
-      <c r="AN29" s="124"/>
+      <c r="AM29" s="145"/>
+      <c r="AN29" s="146"/>
       <c r="AO29" s="68"/>
-      <c r="AP29" s="122"/>
-      <c r="AQ29" s="123"/>
-      <c r="AR29" s="123"/>
+      <c r="AP29" s="144"/>
+      <c r="AQ29" s="145"/>
+      <c r="AR29" s="145"/>
       <c r="AS29" s="68"/>
-      <c r="AT29" s="122"/>
-      <c r="AU29" s="123"/>
-      <c r="AV29" s="124"/>
+      <c r="AT29" s="144"/>
+      <c r="AU29" s="145"/>
+      <c r="AV29" s="146"/>
       <c r="AW29" s="76"/>
-      <c r="AX29" s="122"/>
-      <c r="AY29" s="123"/>
-      <c r="AZ29" s="124"/>
+      <c r="AX29" s="144"/>
+      <c r="AY29" s="145"/>
+      <c r="AZ29" s="146"/>
       <c r="BA29" s="76"/>
-      <c r="BB29" s="122"/>
-      <c r="BC29" s="123"/>
-      <c r="BD29" s="124"/>
+      <c r="BB29" s="144"/>
+      <c r="BC29" s="145"/>
+      <c r="BD29" s="146"/>
       <c r="BE29" s="80"/>
       <c r="BF29" s="81"/>
     </row>
@@ -5609,47 +5609,47 @@
       <c r="Y30" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="Z30" s="122" t="s">
+      <c r="Z30" s="144" t="s">
         <v>186</v>
       </c>
-      <c r="AA30" s="123"/>
-      <c r="AB30" s="123"/>
+      <c r="AA30" s="145"/>
+      <c r="AB30" s="145"/>
       <c r="AC30" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="AD30" s="122" t="s">
+      <c r="AD30" s="144" t="s">
         <v>188</v>
       </c>
-      <c r="AE30" s="123"/>
-      <c r="AF30" s="124"/>
+      <c r="AE30" s="145"/>
+      <c r="AF30" s="146"/>
       <c r="AG30" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="AH30" s="122" t="s">
+      <c r="AH30" s="144" t="s">
         <v>189</v>
       </c>
-      <c r="AI30" s="123"/>
-      <c r="AJ30" s="124"/>
+      <c r="AI30" s="145"/>
+      <c r="AJ30" s="146"/>
       <c r="AK30" s="73"/>
-      <c r="AL30" s="122"/>
-      <c r="AM30" s="123"/>
-      <c r="AN30" s="124"/>
+      <c r="AL30" s="144"/>
+      <c r="AM30" s="145"/>
+      <c r="AN30" s="146"/>
       <c r="AO30" s="68"/>
-      <c r="AP30" s="122"/>
-      <c r="AQ30" s="123"/>
-      <c r="AR30" s="123"/>
+      <c r="AP30" s="144"/>
+      <c r="AQ30" s="145"/>
+      <c r="AR30" s="145"/>
       <c r="AS30" s="68"/>
-      <c r="AT30" s="122"/>
-      <c r="AU30" s="123"/>
-      <c r="AV30" s="124"/>
+      <c r="AT30" s="144"/>
+      <c r="AU30" s="145"/>
+      <c r="AV30" s="146"/>
       <c r="AW30" s="76"/>
-      <c r="AX30" s="122"/>
-      <c r="AY30" s="123"/>
-      <c r="AZ30" s="124"/>
+      <c r="AX30" s="144"/>
+      <c r="AY30" s="145"/>
+      <c r="AZ30" s="146"/>
       <c r="BA30" s="76"/>
-      <c r="BB30" s="122"/>
-      <c r="BC30" s="123"/>
-      <c r="BD30" s="124"/>
+      <c r="BB30" s="144"/>
+      <c r="BC30" s="145"/>
+      <c r="BD30" s="146"/>
       <c r="BE30" s="80"/>
       <c r="BF30" s="81"/>
     </row>
@@ -5703,47 +5703,47 @@
       <c r="Y31" s="70" t="s">
         <v>192</v>
       </c>
-      <c r="Z31" s="122" t="s">
+      <c r="Z31" s="144" t="s">
         <v>193</v>
       </c>
-      <c r="AA31" s="123"/>
-      <c r="AB31" s="123"/>
+      <c r="AA31" s="145"/>
+      <c r="AB31" s="145"/>
       <c r="AC31" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="AD31" s="122" t="s">
+      <c r="AD31" s="144" t="s">
         <v>194</v>
       </c>
-      <c r="AE31" s="123"/>
-      <c r="AF31" s="124"/>
+      <c r="AE31" s="145"/>
+      <c r="AF31" s="146"/>
       <c r="AG31" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="AH31" s="122" t="s">
+      <c r="AH31" s="144" t="s">
         <v>195</v>
       </c>
-      <c r="AI31" s="123"/>
-      <c r="AJ31" s="124"/>
+      <c r="AI31" s="145"/>
+      <c r="AJ31" s="146"/>
       <c r="AK31" s="73"/>
-      <c r="AL31" s="122"/>
-      <c r="AM31" s="123"/>
-      <c r="AN31" s="124"/>
+      <c r="AL31" s="144"/>
+      <c r="AM31" s="145"/>
+      <c r="AN31" s="146"/>
       <c r="AO31" s="68"/>
-      <c r="AP31" s="122"/>
-      <c r="AQ31" s="123"/>
-      <c r="AR31" s="123"/>
+      <c r="AP31" s="144"/>
+      <c r="AQ31" s="145"/>
+      <c r="AR31" s="145"/>
       <c r="AS31" s="68"/>
-      <c r="AT31" s="122"/>
-      <c r="AU31" s="123"/>
-      <c r="AV31" s="124"/>
+      <c r="AT31" s="144"/>
+      <c r="AU31" s="145"/>
+      <c r="AV31" s="146"/>
       <c r="AW31" s="76"/>
-      <c r="AX31" s="122"/>
-      <c r="AY31" s="123"/>
-      <c r="AZ31" s="124"/>
+      <c r="AX31" s="144"/>
+      <c r="AY31" s="145"/>
+      <c r="AZ31" s="146"/>
       <c r="BA31" s="76"/>
-      <c r="BB31" s="122"/>
-      <c r="BC31" s="123"/>
-      <c r="BD31" s="124"/>
+      <c r="BB31" s="144"/>
+      <c r="BC31" s="145"/>
+      <c r="BD31" s="146"/>
       <c r="BE31" s="80"/>
       <c r="BF31" s="81"/>
     </row>
@@ -5793,51 +5793,51 @@
       <c r="Y32" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="Z32" s="122" t="s">
+      <c r="Z32" s="144" t="s">
         <v>198</v>
       </c>
-      <c r="AA32" s="123"/>
-      <c r="AB32" s="123"/>
+      <c r="AA32" s="145"/>
+      <c r="AB32" s="145"/>
       <c r="AC32" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="AD32" s="122" t="s">
+      <c r="AD32" s="144" t="s">
         <v>199</v>
       </c>
-      <c r="AE32" s="123"/>
-      <c r="AF32" s="124"/>
+      <c r="AE32" s="145"/>
+      <c r="AF32" s="146"/>
       <c r="AG32" s="73" t="s">
         <v>200</v>
       </c>
-      <c r="AH32" s="122" t="s">
+      <c r="AH32" s="144" t="s">
         <v>201</v>
       </c>
-      <c r="AI32" s="123"/>
-      <c r="AJ32" s="124"/>
+      <c r="AI32" s="145"/>
+      <c r="AJ32" s="146"/>
       <c r="AK32" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="AL32" s="122" t="s">
+      <c r="AL32" s="144" t="s">
         <v>202</v>
       </c>
-      <c r="AM32" s="123"/>
-      <c r="AN32" s="124"/>
+      <c r="AM32" s="145"/>
+      <c r="AN32" s="146"/>
       <c r="AO32" s="68"/>
-      <c r="AP32" s="122"/>
-      <c r="AQ32" s="123"/>
-      <c r="AR32" s="123"/>
+      <c r="AP32" s="144"/>
+      <c r="AQ32" s="145"/>
+      <c r="AR32" s="145"/>
       <c r="AS32" s="68"/>
-      <c r="AT32" s="122"/>
-      <c r="AU32" s="123"/>
-      <c r="AV32" s="124"/>
+      <c r="AT32" s="144"/>
+      <c r="AU32" s="145"/>
+      <c r="AV32" s="146"/>
       <c r="AW32" s="76"/>
-      <c r="AX32" s="122"/>
-      <c r="AY32" s="123"/>
-      <c r="AZ32" s="124"/>
+      <c r="AX32" s="144"/>
+      <c r="AY32" s="145"/>
+      <c r="AZ32" s="146"/>
       <c r="BA32" s="76"/>
-      <c r="BB32" s="122"/>
-      <c r="BC32" s="123"/>
-      <c r="BD32" s="124"/>
+      <c r="BB32" s="144"/>
+      <c r="BC32" s="145"/>
+      <c r="BD32" s="146"/>
       <c r="BE32" s="80"/>
       <c r="BF32" s="81"/>
     </row>
@@ -5887,47 +5887,47 @@
       <c r="Y33" s="70" t="s">
         <v>176</v>
       </c>
-      <c r="Z33" s="122" t="s">
+      <c r="Z33" s="144" t="s">
         <v>205</v>
       </c>
-      <c r="AA33" s="123"/>
-      <c r="AB33" s="123"/>
+      <c r="AA33" s="145"/>
+      <c r="AB33" s="145"/>
       <c r="AC33" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="AD33" s="122" t="s">
+      <c r="AD33" s="144" t="s">
         <v>206</v>
       </c>
-      <c r="AE33" s="123"/>
-      <c r="AF33" s="124"/>
+      <c r="AE33" s="145"/>
+      <c r="AF33" s="146"/>
       <c r="AG33" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="AH33" s="122" t="s">
+      <c r="AH33" s="144" t="s">
         <v>89</v>
       </c>
-      <c r="AI33" s="123"/>
-      <c r="AJ33" s="124"/>
+      <c r="AI33" s="145"/>
+      <c r="AJ33" s="146"/>
       <c r="AK33" s="73"/>
-      <c r="AL33" s="122"/>
-      <c r="AM33" s="123"/>
-      <c r="AN33" s="124"/>
+      <c r="AL33" s="144"/>
+      <c r="AM33" s="145"/>
+      <c r="AN33" s="146"/>
       <c r="AO33" s="68"/>
-      <c r="AP33" s="122"/>
-      <c r="AQ33" s="123"/>
-      <c r="AR33" s="123"/>
+      <c r="AP33" s="144"/>
+      <c r="AQ33" s="145"/>
+      <c r="AR33" s="145"/>
       <c r="AS33" s="68"/>
-      <c r="AT33" s="122"/>
-      <c r="AU33" s="123"/>
-      <c r="AV33" s="124"/>
+      <c r="AT33" s="144"/>
+      <c r="AU33" s="145"/>
+      <c r="AV33" s="146"/>
       <c r="AW33" s="76"/>
-      <c r="AX33" s="122"/>
-      <c r="AY33" s="123"/>
-      <c r="AZ33" s="124"/>
+      <c r="AX33" s="144"/>
+      <c r="AY33" s="145"/>
+      <c r="AZ33" s="146"/>
       <c r="BA33" s="76"/>
-      <c r="BB33" s="122"/>
-      <c r="BC33" s="123"/>
-      <c r="BD33" s="124"/>
+      <c r="BB33" s="144"/>
+      <c r="BC33" s="145"/>
+      <c r="BD33" s="146"/>
       <c r="BE33" s="80"/>
       <c r="BF33" s="81"/>
     </row>
@@ -5977,43 +5977,43 @@
       <c r="Y34" s="70" t="s">
         <v>208</v>
       </c>
-      <c r="Z34" s="122" t="s">
+      <c r="Z34" s="144" t="s">
         <v>210</v>
       </c>
-      <c r="AA34" s="123"/>
-      <c r="AB34" s="123"/>
+      <c r="AA34" s="145"/>
+      <c r="AB34" s="145"/>
       <c r="AC34" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="AD34" s="122" t="s">
+      <c r="AD34" s="144" t="s">
         <v>211</v>
       </c>
-      <c r="AE34" s="123"/>
-      <c r="AF34" s="124"/>
+      <c r="AE34" s="145"/>
+      <c r="AF34" s="146"/>
       <c r="AG34" s="73"/>
-      <c r="AH34" s="122"/>
-      <c r="AI34" s="123"/>
-      <c r="AJ34" s="124"/>
+      <c r="AH34" s="144"/>
+      <c r="AI34" s="145"/>
+      <c r="AJ34" s="146"/>
       <c r="AK34" s="73"/>
-      <c r="AL34" s="122"/>
-      <c r="AM34" s="123"/>
-      <c r="AN34" s="124"/>
+      <c r="AL34" s="144"/>
+      <c r="AM34" s="145"/>
+      <c r="AN34" s="146"/>
       <c r="AO34" s="68"/>
-      <c r="AP34" s="122"/>
-      <c r="AQ34" s="123"/>
-      <c r="AR34" s="123"/>
+      <c r="AP34" s="144"/>
+      <c r="AQ34" s="145"/>
+      <c r="AR34" s="145"/>
       <c r="AS34" s="68"/>
-      <c r="AT34" s="122"/>
-      <c r="AU34" s="123"/>
-      <c r="AV34" s="124"/>
+      <c r="AT34" s="144"/>
+      <c r="AU34" s="145"/>
+      <c r="AV34" s="146"/>
       <c r="AW34" s="76"/>
-      <c r="AX34" s="122"/>
-      <c r="AY34" s="123"/>
-      <c r="AZ34" s="124"/>
+      <c r="AX34" s="144"/>
+      <c r="AY34" s="145"/>
+      <c r="AZ34" s="146"/>
       <c r="BA34" s="76"/>
-      <c r="BB34" s="122"/>
-      <c r="BC34" s="123"/>
-      <c r="BD34" s="124"/>
+      <c r="BB34" s="144"/>
+      <c r="BC34" s="145"/>
+      <c r="BD34" s="146"/>
       <c r="BE34" s="80"/>
       <c r="BF34" s="81"/>
     </row>
@@ -6061,43 +6061,43 @@
       <c r="Y35" s="70" t="s">
         <v>213</v>
       </c>
-      <c r="Z35" s="122" t="s">
+      <c r="Z35" s="144" t="s">
         <v>215</v>
       </c>
-      <c r="AA35" s="123"/>
-      <c r="AB35" s="123"/>
+      <c r="AA35" s="145"/>
+      <c r="AB35" s="145"/>
       <c r="AC35" s="71" t="s">
         <v>170</v>
       </c>
-      <c r="AD35" s="122" t="s">
+      <c r="AD35" s="144" t="s">
         <v>216</v>
       </c>
-      <c r="AE35" s="123"/>
-      <c r="AF35" s="124"/>
+      <c r="AE35" s="145"/>
+      <c r="AF35" s="146"/>
       <c r="AG35" s="73"/>
-      <c r="AH35" s="122"/>
-      <c r="AI35" s="123"/>
-      <c r="AJ35" s="124"/>
+      <c r="AH35" s="144"/>
+      <c r="AI35" s="145"/>
+      <c r="AJ35" s="146"/>
       <c r="AK35" s="73"/>
-      <c r="AL35" s="122"/>
-      <c r="AM35" s="123"/>
-      <c r="AN35" s="124"/>
+      <c r="AL35" s="144"/>
+      <c r="AM35" s="145"/>
+      <c r="AN35" s="146"/>
       <c r="AO35" s="68"/>
-      <c r="AP35" s="122"/>
-      <c r="AQ35" s="123"/>
-      <c r="AR35" s="123"/>
+      <c r="AP35" s="144"/>
+      <c r="AQ35" s="145"/>
+      <c r="AR35" s="145"/>
       <c r="AS35" s="68"/>
-      <c r="AT35" s="122"/>
-      <c r="AU35" s="123"/>
-      <c r="AV35" s="124"/>
+      <c r="AT35" s="144"/>
+      <c r="AU35" s="145"/>
+      <c r="AV35" s="146"/>
       <c r="AW35" s="76"/>
-      <c r="AX35" s="122"/>
-      <c r="AY35" s="123"/>
-      <c r="AZ35" s="124"/>
+      <c r="AX35" s="144"/>
+      <c r="AY35" s="145"/>
+      <c r="AZ35" s="146"/>
       <c r="BA35" s="76"/>
-      <c r="BB35" s="122"/>
-      <c r="BC35" s="123"/>
-      <c r="BD35" s="124"/>
+      <c r="BB35" s="144"/>
+      <c r="BC35" s="145"/>
+      <c r="BD35" s="146"/>
       <c r="BE35" s="80"/>
       <c r="BF35" s="81"/>
     </row>
@@ -6144,47 +6144,47 @@
       <c r="Y36" s="70" t="s">
         <v>185</v>
       </c>
-      <c r="Z36" s="122" t="s">
+      <c r="Z36" s="144" t="s">
         <v>219</v>
       </c>
-      <c r="AA36" s="123"/>
-      <c r="AB36" s="123"/>
+      <c r="AA36" s="145"/>
+      <c r="AB36" s="145"/>
       <c r="AC36" s="71" t="s">
         <v>187</v>
       </c>
-      <c r="AD36" s="122" t="s">
+      <c r="AD36" s="144" t="s">
         <v>220</v>
       </c>
-      <c r="AE36" s="123"/>
-      <c r="AF36" s="124"/>
+      <c r="AE36" s="145"/>
+      <c r="AF36" s="146"/>
       <c r="AG36" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="AH36" s="122" t="s">
+      <c r="AH36" s="144" t="s">
         <v>221</v>
       </c>
-      <c r="AI36" s="123"/>
-      <c r="AJ36" s="124"/>
+      <c r="AI36" s="145"/>
+      <c r="AJ36" s="146"/>
       <c r="AK36" s="73"/>
-      <c r="AL36" s="122"/>
-      <c r="AM36" s="123"/>
-      <c r="AN36" s="124"/>
+      <c r="AL36" s="144"/>
+      <c r="AM36" s="145"/>
+      <c r="AN36" s="146"/>
       <c r="AO36" s="68"/>
-      <c r="AP36" s="122"/>
-      <c r="AQ36" s="123"/>
-      <c r="AR36" s="123"/>
+      <c r="AP36" s="144"/>
+      <c r="AQ36" s="145"/>
+      <c r="AR36" s="145"/>
       <c r="AS36" s="68"/>
-      <c r="AT36" s="122"/>
-      <c r="AU36" s="123"/>
-      <c r="AV36" s="124"/>
+      <c r="AT36" s="144"/>
+      <c r="AU36" s="145"/>
+      <c r="AV36" s="146"/>
       <c r="AW36" s="76"/>
-      <c r="AX36" s="122"/>
-      <c r="AY36" s="123"/>
-      <c r="AZ36" s="124"/>
+      <c r="AX36" s="144"/>
+      <c r="AY36" s="145"/>
+      <c r="AZ36" s="146"/>
       <c r="BA36" s="76"/>
-      <c r="BB36" s="122"/>
-      <c r="BC36" s="123"/>
-      <c r="BD36" s="124"/>
+      <c r="BB36" s="144"/>
+      <c r="BC36" s="145"/>
+      <c r="BD36" s="146"/>
       <c r="BE36" s="80"/>
       <c r="BF36" s="81"/>
     </row>
@@ -6230,39 +6230,39 @@
       <c r="Y37" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="Z37" s="125" t="s">
+      <c r="Z37" s="140" t="s">
         <v>223</v>
       </c>
-      <c r="AA37" s="126"/>
-      <c r="AB37" s="127"/>
+      <c r="AA37" s="141"/>
+      <c r="AB37" s="142"/>
       <c r="AC37" s="68"/>
-      <c r="AD37" s="122"/>
-      <c r="AE37" s="123"/>
-      <c r="AF37" s="124"/>
+      <c r="AD37" s="144"/>
+      <c r="AE37" s="145"/>
+      <c r="AF37" s="146"/>
       <c r="AG37" s="73"/>
-      <c r="AH37" s="122"/>
-      <c r="AI37" s="123"/>
-      <c r="AJ37" s="124"/>
+      <c r="AH37" s="144"/>
+      <c r="AI37" s="145"/>
+      <c r="AJ37" s="146"/>
       <c r="AK37" s="73"/>
-      <c r="AL37" s="122"/>
-      <c r="AM37" s="123"/>
-      <c r="AN37" s="124"/>
+      <c r="AL37" s="144"/>
+      <c r="AM37" s="145"/>
+      <c r="AN37" s="146"/>
       <c r="AO37" s="68"/>
-      <c r="AP37" s="122"/>
-      <c r="AQ37" s="123"/>
-      <c r="AR37" s="123"/>
+      <c r="AP37" s="144"/>
+      <c r="AQ37" s="145"/>
+      <c r="AR37" s="145"/>
       <c r="AS37" s="68"/>
-      <c r="AT37" s="122"/>
-      <c r="AU37" s="123"/>
-      <c r="AV37" s="124"/>
+      <c r="AT37" s="144"/>
+      <c r="AU37" s="145"/>
+      <c r="AV37" s="146"/>
       <c r="AW37" s="76"/>
-      <c r="AX37" s="122"/>
-      <c r="AY37" s="123"/>
-      <c r="AZ37" s="124"/>
+      <c r="AX37" s="144"/>
+      <c r="AY37" s="145"/>
+      <c r="AZ37" s="146"/>
       <c r="BA37" s="76"/>
-      <c r="BB37" s="122"/>
-      <c r="BC37" s="123"/>
-      <c r="BD37" s="124"/>
+      <c r="BB37" s="144"/>
+      <c r="BC37" s="145"/>
+      <c r="BD37" s="146"/>
       <c r="BE37" s="80"/>
       <c r="BF37" s="81"/>
     </row>
@@ -6308,43 +6308,43 @@
       <c r="Y38" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="Z38" s="125" t="s">
+      <c r="Z38" s="140" t="s">
         <v>225</v>
       </c>
-      <c r="AA38" s="126"/>
-      <c r="AB38" s="127"/>
+      <c r="AA38" s="141"/>
+      <c r="AB38" s="142"/>
       <c r="AC38" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="AD38" s="122" t="s">
+      <c r="AD38" s="144" t="s">
         <v>226</v>
       </c>
-      <c r="AE38" s="123"/>
-      <c r="AF38" s="124"/>
+      <c r="AE38" s="145"/>
+      <c r="AF38" s="146"/>
       <c r="AG38" s="73"/>
-      <c r="AH38" s="122"/>
-      <c r="AI38" s="123"/>
-      <c r="AJ38" s="124"/>
+      <c r="AH38" s="144"/>
+      <c r="AI38" s="145"/>
+      <c r="AJ38" s="146"/>
       <c r="AK38" s="73"/>
-      <c r="AL38" s="122"/>
-      <c r="AM38" s="123"/>
-      <c r="AN38" s="124"/>
+      <c r="AL38" s="144"/>
+      <c r="AM38" s="145"/>
+      <c r="AN38" s="146"/>
       <c r="AO38" s="68"/>
-      <c r="AP38" s="122"/>
-      <c r="AQ38" s="123"/>
-      <c r="AR38" s="123"/>
+      <c r="AP38" s="144"/>
+      <c r="AQ38" s="145"/>
+      <c r="AR38" s="145"/>
       <c r="AS38" s="68"/>
-      <c r="AT38" s="122"/>
-      <c r="AU38" s="123"/>
-      <c r="AV38" s="124"/>
+      <c r="AT38" s="144"/>
+      <c r="AU38" s="145"/>
+      <c r="AV38" s="146"/>
       <c r="AW38" s="76"/>
-      <c r="AX38" s="122"/>
-      <c r="AY38" s="123"/>
-      <c r="AZ38" s="124"/>
+      <c r="AX38" s="144"/>
+      <c r="AY38" s="145"/>
+      <c r="AZ38" s="146"/>
       <c r="BA38" s="76"/>
-      <c r="BB38" s="122"/>
-      <c r="BC38" s="123"/>
-      <c r="BD38" s="124"/>
+      <c r="BB38" s="144"/>
+      <c r="BC38" s="145"/>
+      <c r="BD38" s="146"/>
       <c r="BE38" s="80"/>
       <c r="BF38" s="81"/>
     </row>
@@ -6388,43 +6388,43 @@
       <c r="Y39" s="70" t="s">
         <v>129</v>
       </c>
-      <c r="Z39" s="125" t="s">
+      <c r="Z39" s="140" t="s">
         <v>228</v>
       </c>
-      <c r="AA39" s="126"/>
-      <c r="AB39" s="127"/>
+      <c r="AA39" s="141"/>
+      <c r="AB39" s="142"/>
       <c r="AC39" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="AD39" s="122" t="s">
+      <c r="AD39" s="144" t="s">
         <v>229</v>
       </c>
-      <c r="AE39" s="123"/>
-      <c r="AF39" s="124"/>
+      <c r="AE39" s="145"/>
+      <c r="AF39" s="146"/>
       <c r="AG39" s="73"/>
-      <c r="AH39" s="122"/>
-      <c r="AI39" s="123"/>
-      <c r="AJ39" s="124"/>
+      <c r="AH39" s="144"/>
+      <c r="AI39" s="145"/>
+      <c r="AJ39" s="146"/>
       <c r="AK39" s="73"/>
-      <c r="AL39" s="122"/>
-      <c r="AM39" s="123"/>
-      <c r="AN39" s="124"/>
+      <c r="AL39" s="144"/>
+      <c r="AM39" s="145"/>
+      <c r="AN39" s="146"/>
       <c r="AO39" s="68"/>
-      <c r="AP39" s="122"/>
-      <c r="AQ39" s="123"/>
-      <c r="AR39" s="123"/>
+      <c r="AP39" s="144"/>
+      <c r="AQ39" s="145"/>
+      <c r="AR39" s="145"/>
       <c r="AS39" s="68"/>
-      <c r="AT39" s="122"/>
-      <c r="AU39" s="123"/>
-      <c r="AV39" s="124"/>
+      <c r="AT39" s="144"/>
+      <c r="AU39" s="145"/>
+      <c r="AV39" s="146"/>
       <c r="AW39" s="76"/>
-      <c r="AX39" s="122"/>
-      <c r="AY39" s="123"/>
-      <c r="AZ39" s="124"/>
+      <c r="AX39" s="144"/>
+      <c r="AY39" s="145"/>
+      <c r="AZ39" s="146"/>
       <c r="BA39" s="76"/>
-      <c r="BB39" s="122"/>
-      <c r="BC39" s="123"/>
-      <c r="BD39" s="124"/>
+      <c r="BB39" s="144"/>
+      <c r="BC39" s="145"/>
+      <c r="BD39" s="146"/>
       <c r="BE39" s="80"/>
       <c r="BF39" s="81"/>
     </row>
@@ -6470,39 +6470,39 @@
       <c r="Y40" s="70" t="s">
         <v>200</v>
       </c>
-      <c r="Z40" s="122" t="s">
+      <c r="Z40" s="144" t="s">
         <v>231</v>
       </c>
-      <c r="AA40" s="123"/>
-      <c r="AB40" s="123"/>
+      <c r="AA40" s="145"/>
+      <c r="AB40" s="145"/>
       <c r="AC40" s="68"/>
-      <c r="AD40" s="122"/>
-      <c r="AE40" s="123"/>
-      <c r="AF40" s="124"/>
+      <c r="AD40" s="144"/>
+      <c r="AE40" s="145"/>
+      <c r="AF40" s="146"/>
       <c r="AG40" s="73"/>
-      <c r="AH40" s="122"/>
-      <c r="AI40" s="123"/>
-      <c r="AJ40" s="124"/>
+      <c r="AH40" s="144"/>
+      <c r="AI40" s="145"/>
+      <c r="AJ40" s="146"/>
       <c r="AK40" s="73"/>
-      <c r="AL40" s="122"/>
-      <c r="AM40" s="123"/>
-      <c r="AN40" s="124"/>
+      <c r="AL40" s="144"/>
+      <c r="AM40" s="145"/>
+      <c r="AN40" s="146"/>
       <c r="AO40" s="68"/>
-      <c r="AP40" s="122"/>
-      <c r="AQ40" s="123"/>
-      <c r="AR40" s="123"/>
+      <c r="AP40" s="144"/>
+      <c r="AQ40" s="145"/>
+      <c r="AR40" s="145"/>
       <c r="AS40" s="68"/>
-      <c r="AT40" s="122"/>
-      <c r="AU40" s="123"/>
-      <c r="AV40" s="124"/>
+      <c r="AT40" s="144"/>
+      <c r="AU40" s="145"/>
+      <c r="AV40" s="146"/>
       <c r="AW40" s="76"/>
-      <c r="AX40" s="122"/>
-      <c r="AY40" s="123"/>
-      <c r="AZ40" s="124"/>
+      <c r="AX40" s="144"/>
+      <c r="AY40" s="145"/>
+      <c r="AZ40" s="146"/>
       <c r="BA40" s="76"/>
-      <c r="BB40" s="122"/>
-      <c r="BC40" s="123"/>
-      <c r="BD40" s="124"/>
+      <c r="BB40" s="144"/>
+      <c r="BC40" s="145"/>
+      <c r="BD40" s="146"/>
       <c r="BE40" s="80"/>
       <c r="BF40" s="81"/>
     </row>
@@ -6548,39 +6548,39 @@
       <c r="Y41" s="70" t="s">
         <v>58</v>
       </c>
-      <c r="Z41" s="122" t="s">
+      <c r="Z41" s="144" t="s">
         <v>233</v>
       </c>
-      <c r="AA41" s="123"/>
-      <c r="AB41" s="123"/>
+      <c r="AA41" s="145"/>
+      <c r="AB41" s="145"/>
       <c r="AC41" s="68"/>
-      <c r="AD41" s="122"/>
-      <c r="AE41" s="123"/>
-      <c r="AF41" s="124"/>
+      <c r="AD41" s="144"/>
+      <c r="AE41" s="145"/>
+      <c r="AF41" s="146"/>
       <c r="AG41" s="73"/>
-      <c r="AH41" s="122"/>
-      <c r="AI41" s="123"/>
-      <c r="AJ41" s="124"/>
+      <c r="AH41" s="144"/>
+      <c r="AI41" s="145"/>
+      <c r="AJ41" s="146"/>
       <c r="AK41" s="73"/>
-      <c r="AL41" s="122"/>
-      <c r="AM41" s="123"/>
-      <c r="AN41" s="124"/>
+      <c r="AL41" s="144"/>
+      <c r="AM41" s="145"/>
+      <c r="AN41" s="146"/>
       <c r="AO41" s="68"/>
-      <c r="AP41" s="122"/>
-      <c r="AQ41" s="123"/>
-      <c r="AR41" s="123"/>
+      <c r="AP41" s="144"/>
+      <c r="AQ41" s="145"/>
+      <c r="AR41" s="145"/>
       <c r="AS41" s="68"/>
-      <c r="AT41" s="122"/>
-      <c r="AU41" s="123"/>
-      <c r="AV41" s="124"/>
+      <c r="AT41" s="144"/>
+      <c r="AU41" s="145"/>
+      <c r="AV41" s="146"/>
       <c r="AW41" s="76"/>
-      <c r="AX41" s="122"/>
-      <c r="AY41" s="123"/>
-      <c r="AZ41" s="124"/>
+      <c r="AX41" s="144"/>
+      <c r="AY41" s="145"/>
+      <c r="AZ41" s="146"/>
       <c r="BA41" s="76"/>
-      <c r="BB41" s="122"/>
-      <c r="BC41" s="123"/>
-      <c r="BD41" s="124"/>
+      <c r="BB41" s="144"/>
+      <c r="BC41" s="145"/>
+      <c r="BD41" s="146"/>
       <c r="BE41" s="80"/>
       <c r="BF41" s="81"/>
     </row>
@@ -6622,39 +6622,39 @@
       <c r="Y42" s="70" t="s">
         <v>235</v>
       </c>
-      <c r="Z42" s="122" t="s">
+      <c r="Z42" s="144" t="s">
         <v>236</v>
       </c>
-      <c r="AA42" s="123"/>
-      <c r="AB42" s="123"/>
+      <c r="AA42" s="145"/>
+      <c r="AB42" s="145"/>
       <c r="AC42" s="68"/>
-      <c r="AD42" s="122"/>
-      <c r="AE42" s="123"/>
-      <c r="AF42" s="124"/>
+      <c r="AD42" s="144"/>
+      <c r="AE42" s="145"/>
+      <c r="AF42" s="146"/>
       <c r="AG42" s="73"/>
-      <c r="AH42" s="122"/>
-      <c r="AI42" s="123"/>
-      <c r="AJ42" s="124"/>
+      <c r="AH42" s="144"/>
+      <c r="AI42" s="145"/>
+      <c r="AJ42" s="146"/>
       <c r="AK42" s="73"/>
-      <c r="AL42" s="122"/>
-      <c r="AM42" s="123"/>
-      <c r="AN42" s="124"/>
+      <c r="AL42" s="144"/>
+      <c r="AM42" s="145"/>
+      <c r="AN42" s="146"/>
       <c r="AO42" s="68"/>
-      <c r="AP42" s="122"/>
-      <c r="AQ42" s="123"/>
-      <c r="AR42" s="123"/>
+      <c r="AP42" s="144"/>
+      <c r="AQ42" s="145"/>
+      <c r="AR42" s="145"/>
       <c r="AS42" s="68"/>
-      <c r="AT42" s="122"/>
-      <c r="AU42" s="123"/>
-      <c r="AV42" s="124"/>
+      <c r="AT42" s="144"/>
+      <c r="AU42" s="145"/>
+      <c r="AV42" s="146"/>
       <c r="AW42" s="76"/>
-      <c r="AX42" s="122"/>
-      <c r="AY42" s="123"/>
-      <c r="AZ42" s="124"/>
+      <c r="AX42" s="144"/>
+      <c r="AY42" s="145"/>
+      <c r="AZ42" s="146"/>
       <c r="BA42" s="76"/>
-      <c r="BB42" s="122"/>
-      <c r="BC42" s="123"/>
-      <c r="BD42" s="124"/>
+      <c r="BB42" s="144"/>
+      <c r="BC42" s="145"/>
+      <c r="BD42" s="146"/>
       <c r="BE42" s="80"/>
       <c r="BF42" s="81"/>
     </row>
@@ -6702,39 +6702,39 @@
       <c r="Y43" s="70" t="s">
         <v>44</v>
       </c>
-      <c r="Z43" s="122" t="s">
+      <c r="Z43" s="144" t="s">
         <v>239</v>
       </c>
-      <c r="AA43" s="123"/>
-      <c r="AB43" s="123"/>
+      <c r="AA43" s="145"/>
+      <c r="AB43" s="145"/>
       <c r="AC43" s="68"/>
-      <c r="AD43" s="122"/>
-      <c r="AE43" s="123"/>
-      <c r="AF43" s="124"/>
+      <c r="AD43" s="144"/>
+      <c r="AE43" s="145"/>
+      <c r="AF43" s="146"/>
       <c r="AG43" s="73"/>
-      <c r="AH43" s="122"/>
-      <c r="AI43" s="123"/>
-      <c r="AJ43" s="124"/>
+      <c r="AH43" s="144"/>
+      <c r="AI43" s="145"/>
+      <c r="AJ43" s="146"/>
       <c r="AK43" s="73"/>
-      <c r="AL43" s="122"/>
-      <c r="AM43" s="123"/>
-      <c r="AN43" s="124"/>
+      <c r="AL43" s="144"/>
+      <c r="AM43" s="145"/>
+      <c r="AN43" s="146"/>
       <c r="AO43" s="68"/>
-      <c r="AP43" s="122"/>
-      <c r="AQ43" s="123"/>
-      <c r="AR43" s="123"/>
+      <c r="AP43" s="144"/>
+      <c r="AQ43" s="145"/>
+      <c r="AR43" s="145"/>
       <c r="AS43" s="68"/>
-      <c r="AT43" s="122"/>
-      <c r="AU43" s="123"/>
-      <c r="AV43" s="124"/>
+      <c r="AT43" s="144"/>
+      <c r="AU43" s="145"/>
+      <c r="AV43" s="146"/>
       <c r="AW43" s="76"/>
-      <c r="AX43" s="122"/>
-      <c r="AY43" s="123"/>
-      <c r="AZ43" s="124"/>
+      <c r="AX43" s="144"/>
+      <c r="AY43" s="145"/>
+      <c r="AZ43" s="146"/>
       <c r="BA43" s="76"/>
-      <c r="BB43" s="122"/>
-      <c r="BC43" s="123"/>
-      <c r="BD43" s="124"/>
+      <c r="BB43" s="144"/>
+      <c r="BC43" s="145"/>
+      <c r="BD43" s="146"/>
       <c r="BE43" s="80"/>
       <c r="BF43" s="81"/>
     </row>
@@ -6780,39 +6780,39 @@
       <c r="Y44" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="Z44" s="122" t="s">
+      <c r="Z44" s="144" t="s">
         <v>242</v>
       </c>
-      <c r="AA44" s="123"/>
-      <c r="AB44" s="123"/>
+      <c r="AA44" s="145"/>
+      <c r="AB44" s="145"/>
       <c r="AC44" s="68"/>
-      <c r="AD44" s="122"/>
-      <c r="AE44" s="123"/>
-      <c r="AF44" s="124"/>
+      <c r="AD44" s="144"/>
+      <c r="AE44" s="145"/>
+      <c r="AF44" s="146"/>
       <c r="AG44" s="73"/>
-      <c r="AH44" s="122"/>
-      <c r="AI44" s="123"/>
-      <c r="AJ44" s="124"/>
+      <c r="AH44" s="144"/>
+      <c r="AI44" s="145"/>
+      <c r="AJ44" s="146"/>
       <c r="AK44" s="73"/>
-      <c r="AL44" s="122"/>
-      <c r="AM44" s="123"/>
-      <c r="AN44" s="124"/>
+      <c r="AL44" s="144"/>
+      <c r="AM44" s="145"/>
+      <c r="AN44" s="146"/>
       <c r="AO44" s="68"/>
-      <c r="AP44" s="122"/>
-      <c r="AQ44" s="123"/>
-      <c r="AR44" s="123"/>
+      <c r="AP44" s="144"/>
+      <c r="AQ44" s="145"/>
+      <c r="AR44" s="145"/>
       <c r="AS44" s="68"/>
-      <c r="AT44" s="122"/>
-      <c r="AU44" s="123"/>
-      <c r="AV44" s="124"/>
+      <c r="AT44" s="144"/>
+      <c r="AU44" s="145"/>
+      <c r="AV44" s="146"/>
       <c r="AW44" s="76"/>
-      <c r="AX44" s="122"/>
-      <c r="AY44" s="123"/>
-      <c r="AZ44" s="124"/>
+      <c r="AX44" s="144"/>
+      <c r="AY44" s="145"/>
+      <c r="AZ44" s="146"/>
       <c r="BA44" s="76"/>
-      <c r="BB44" s="122"/>
-      <c r="BC44" s="123"/>
-      <c r="BD44" s="124"/>
+      <c r="BB44" s="144"/>
+      <c r="BC44" s="145"/>
+      <c r="BD44" s="146"/>
       <c r="BE44" s="80"/>
       <c r="BF44" s="81"/>
     </row>
@@ -6856,47 +6856,47 @@
       <c r="Y45" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="Z45" s="122" t="s">
+      <c r="Z45" s="144" t="s">
         <v>244</v>
       </c>
-      <c r="AA45" s="123"/>
-      <c r="AB45" s="123"/>
+      <c r="AA45" s="145"/>
+      <c r="AB45" s="145"/>
       <c r="AC45" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="AD45" s="122" t="s">
+      <c r="AD45" s="144" t="s">
         <v>245</v>
       </c>
-      <c r="AE45" s="123"/>
-      <c r="AF45" s="124"/>
+      <c r="AE45" s="145"/>
+      <c r="AF45" s="146"/>
       <c r="AG45" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="AH45" s="122" t="s">
+      <c r="AH45" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="AI45" s="123"/>
-      <c r="AJ45" s="124"/>
+      <c r="AI45" s="145"/>
+      <c r="AJ45" s="146"/>
       <c r="AK45" s="73"/>
-      <c r="AL45" s="122"/>
-      <c r="AM45" s="123"/>
-      <c r="AN45" s="124"/>
+      <c r="AL45" s="144"/>
+      <c r="AM45" s="145"/>
+      <c r="AN45" s="146"/>
       <c r="AO45" s="68"/>
-      <c r="AP45" s="122"/>
-      <c r="AQ45" s="123"/>
-      <c r="AR45" s="123"/>
+      <c r="AP45" s="144"/>
+      <c r="AQ45" s="145"/>
+      <c r="AR45" s="145"/>
       <c r="AS45" s="68"/>
-      <c r="AT45" s="122"/>
-      <c r="AU45" s="123"/>
-      <c r="AV45" s="124"/>
+      <c r="AT45" s="144"/>
+      <c r="AU45" s="145"/>
+      <c r="AV45" s="146"/>
       <c r="AW45" s="76"/>
-      <c r="AX45" s="122"/>
-      <c r="AY45" s="123"/>
-      <c r="AZ45" s="124"/>
+      <c r="AX45" s="144"/>
+      <c r="AY45" s="145"/>
+      <c r="AZ45" s="146"/>
       <c r="BA45" s="76"/>
-      <c r="BB45" s="122"/>
-      <c r="BC45" s="123"/>
-      <c r="BD45" s="124"/>
+      <c r="BB45" s="144"/>
+      <c r="BC45" s="145"/>
+      <c r="BD45" s="146"/>
       <c r="BE45" s="80"/>
       <c r="BF45" s="81"/>
     </row>
@@ -6940,43 +6940,43 @@
       <c r="Y46" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="Z46" s="122" t="s">
+      <c r="Z46" s="144" t="s">
         <v>249</v>
       </c>
-      <c r="AA46" s="123"/>
-      <c r="AB46" s="123"/>
+      <c r="AA46" s="145"/>
+      <c r="AB46" s="145"/>
       <c r="AC46" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="AD46" s="122" t="s">
+      <c r="AD46" s="144" t="s">
         <v>250</v>
       </c>
-      <c r="AE46" s="123"/>
-      <c r="AF46" s="124"/>
+      <c r="AE46" s="145"/>
+      <c r="AF46" s="146"/>
       <c r="AG46" s="73"/>
-      <c r="AH46" s="122"/>
-      <c r="AI46" s="123"/>
-      <c r="AJ46" s="124"/>
+      <c r="AH46" s="144"/>
+      <c r="AI46" s="145"/>
+      <c r="AJ46" s="146"/>
       <c r="AK46" s="73"/>
-      <c r="AL46" s="122"/>
-      <c r="AM46" s="123"/>
-      <c r="AN46" s="124"/>
+      <c r="AL46" s="144"/>
+      <c r="AM46" s="145"/>
+      <c r="AN46" s="146"/>
       <c r="AO46" s="68"/>
-      <c r="AP46" s="122"/>
-      <c r="AQ46" s="123"/>
-      <c r="AR46" s="123"/>
+      <c r="AP46" s="144"/>
+      <c r="AQ46" s="145"/>
+      <c r="AR46" s="145"/>
       <c r="AS46" s="68"/>
-      <c r="AT46" s="122"/>
-      <c r="AU46" s="123"/>
-      <c r="AV46" s="124"/>
+      <c r="AT46" s="144"/>
+      <c r="AU46" s="145"/>
+      <c r="AV46" s="146"/>
       <c r="AW46" s="76"/>
-      <c r="AX46" s="122"/>
-      <c r="AY46" s="123"/>
-      <c r="AZ46" s="124"/>
+      <c r="AX46" s="144"/>
+      <c r="AY46" s="145"/>
+      <c r="AZ46" s="146"/>
       <c r="BA46" s="76"/>
-      <c r="BB46" s="122"/>
-      <c r="BC46" s="123"/>
-      <c r="BD46" s="124"/>
+      <c r="BB46" s="144"/>
+      <c r="BC46" s="145"/>
+      <c r="BD46" s="146"/>
       <c r="BE46" s="80"/>
       <c r="BF46" s="81"/>
     </row>
@@ -7020,39 +7020,39 @@
       <c r="Y47" s="70" t="s">
         <v>143</v>
       </c>
-      <c r="Z47" s="122" t="s">
+      <c r="Z47" s="144" t="s">
         <v>252</v>
       </c>
-      <c r="AA47" s="123"/>
-      <c r="AB47" s="123"/>
+      <c r="AA47" s="145"/>
+      <c r="AB47" s="145"/>
       <c r="AC47" s="68"/>
-      <c r="AD47" s="122"/>
-      <c r="AE47" s="123"/>
-      <c r="AF47" s="124"/>
+      <c r="AD47" s="144"/>
+      <c r="AE47" s="145"/>
+      <c r="AF47" s="146"/>
       <c r="AG47" s="73"/>
-      <c r="AH47" s="122"/>
-      <c r="AI47" s="123"/>
-      <c r="AJ47" s="124"/>
+      <c r="AH47" s="144"/>
+      <c r="AI47" s="145"/>
+      <c r="AJ47" s="146"/>
       <c r="AK47" s="73"/>
-      <c r="AL47" s="122"/>
-      <c r="AM47" s="123"/>
-      <c r="AN47" s="124"/>
+      <c r="AL47" s="144"/>
+      <c r="AM47" s="145"/>
+      <c r="AN47" s="146"/>
       <c r="AO47" s="68"/>
-      <c r="AP47" s="122"/>
-      <c r="AQ47" s="123"/>
-      <c r="AR47" s="123"/>
+      <c r="AP47" s="144"/>
+      <c r="AQ47" s="145"/>
+      <c r="AR47" s="145"/>
       <c r="AS47" s="68"/>
-      <c r="AT47" s="122"/>
-      <c r="AU47" s="123"/>
-      <c r="AV47" s="124"/>
+      <c r="AT47" s="144"/>
+      <c r="AU47" s="145"/>
+      <c r="AV47" s="146"/>
       <c r="AW47" s="76"/>
-      <c r="AX47" s="122"/>
-      <c r="AY47" s="123"/>
-      <c r="AZ47" s="124"/>
+      <c r="AX47" s="144"/>
+      <c r="AY47" s="145"/>
+      <c r="AZ47" s="146"/>
       <c r="BA47" s="76"/>
-      <c r="BB47" s="122"/>
-      <c r="BC47" s="123"/>
-      <c r="BD47" s="124"/>
+      <c r="BB47" s="144"/>
+      <c r="BC47" s="145"/>
+      <c r="BD47" s="146"/>
       <c r="BE47" s="80"/>
       <c r="BF47" s="81"/>
     </row>
@@ -7096,39 +7096,39 @@
       <c r="Y48" s="70" t="s">
         <v>67</v>
       </c>
-      <c r="Z48" s="122" t="s">
+      <c r="Z48" s="144" t="s">
         <v>255</v>
       </c>
-      <c r="AA48" s="123"/>
-      <c r="AB48" s="123"/>
+      <c r="AA48" s="145"/>
+      <c r="AB48" s="145"/>
       <c r="AC48" s="68"/>
-      <c r="AD48" s="122"/>
-      <c r="AE48" s="123"/>
-      <c r="AF48" s="124"/>
+      <c r="AD48" s="144"/>
+      <c r="AE48" s="145"/>
+      <c r="AF48" s="146"/>
       <c r="AG48" s="73"/>
-      <c r="AH48" s="122"/>
-      <c r="AI48" s="123"/>
-      <c r="AJ48" s="124"/>
+      <c r="AH48" s="144"/>
+      <c r="AI48" s="145"/>
+      <c r="AJ48" s="146"/>
       <c r="AK48" s="73"/>
-      <c r="AL48" s="122"/>
-      <c r="AM48" s="123"/>
-      <c r="AN48" s="124"/>
+      <c r="AL48" s="144"/>
+      <c r="AM48" s="145"/>
+      <c r="AN48" s="146"/>
       <c r="AO48" s="68"/>
-      <c r="AP48" s="122"/>
-      <c r="AQ48" s="123"/>
-      <c r="AR48" s="123"/>
+      <c r="AP48" s="144"/>
+      <c r="AQ48" s="145"/>
+      <c r="AR48" s="145"/>
       <c r="AS48" s="68"/>
-      <c r="AT48" s="122"/>
-      <c r="AU48" s="123"/>
-      <c r="AV48" s="124"/>
+      <c r="AT48" s="144"/>
+      <c r="AU48" s="145"/>
+      <c r="AV48" s="146"/>
       <c r="AW48" s="76"/>
-      <c r="AX48" s="122"/>
-      <c r="AY48" s="123"/>
-      <c r="AZ48" s="124"/>
+      <c r="AX48" s="144"/>
+      <c r="AY48" s="145"/>
+      <c r="AZ48" s="146"/>
       <c r="BA48" s="76"/>
-      <c r="BB48" s="122"/>
-      <c r="BC48" s="123"/>
-      <c r="BD48" s="124"/>
+      <c r="BB48" s="144"/>
+      <c r="BC48" s="145"/>
+      <c r="BD48" s="146"/>
       <c r="BE48" s="80"/>
       <c r="BF48" s="81"/>
     </row>
@@ -7172,39 +7172,39 @@
       <c r="Y49" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="Z49" s="122" t="s">
+      <c r="Z49" s="144" t="s">
         <v>258</v>
       </c>
-      <c r="AA49" s="123"/>
-      <c r="AB49" s="123"/>
+      <c r="AA49" s="145"/>
+      <c r="AB49" s="145"/>
       <c r="AC49" s="68"/>
-      <c r="AD49" s="122"/>
-      <c r="AE49" s="123"/>
-      <c r="AF49" s="124"/>
+      <c r="AD49" s="144"/>
+      <c r="AE49" s="145"/>
+      <c r="AF49" s="146"/>
       <c r="AG49" s="73"/>
-      <c r="AH49" s="122"/>
-      <c r="AI49" s="123"/>
-      <c r="AJ49" s="124"/>
+      <c r="AH49" s="144"/>
+      <c r="AI49" s="145"/>
+      <c r="AJ49" s="146"/>
       <c r="AK49" s="73"/>
-      <c r="AL49" s="122"/>
-      <c r="AM49" s="123"/>
-      <c r="AN49" s="124"/>
+      <c r="AL49" s="144"/>
+      <c r="AM49" s="145"/>
+      <c r="AN49" s="146"/>
       <c r="AO49" s="68"/>
-      <c r="AP49" s="122"/>
-      <c r="AQ49" s="123"/>
-      <c r="AR49" s="123"/>
+      <c r="AP49" s="144"/>
+      <c r="AQ49" s="145"/>
+      <c r="AR49" s="145"/>
       <c r="AS49" s="68"/>
-      <c r="AT49" s="122"/>
-      <c r="AU49" s="123"/>
-      <c r="AV49" s="124"/>
+      <c r="AT49" s="144"/>
+      <c r="AU49" s="145"/>
+      <c r="AV49" s="146"/>
       <c r="AW49" s="76"/>
-      <c r="AX49" s="122"/>
-      <c r="AY49" s="123"/>
-      <c r="AZ49" s="124"/>
+      <c r="AX49" s="144"/>
+      <c r="AY49" s="145"/>
+      <c r="AZ49" s="146"/>
       <c r="BA49" s="76"/>
-      <c r="BB49" s="122"/>
-      <c r="BC49" s="123"/>
-      <c r="BD49" s="124"/>
+      <c r="BB49" s="144"/>
+      <c r="BC49" s="145"/>
+      <c r="BD49" s="146"/>
       <c r="BE49" s="80"/>
       <c r="BF49" s="81"/>
     </row>
@@ -7250,39 +7250,39 @@
       <c r="Y50" s="70" t="s">
         <v>95</v>
       </c>
-      <c r="Z50" s="122" t="s">
+      <c r="Z50" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="AA50" s="123"/>
-      <c r="AB50" s="123"/>
+      <c r="AA50" s="145"/>
+      <c r="AB50" s="145"/>
       <c r="AC50" s="68"/>
-      <c r="AD50" s="122"/>
-      <c r="AE50" s="123"/>
-      <c r="AF50" s="124"/>
+      <c r="AD50" s="144"/>
+      <c r="AE50" s="145"/>
+      <c r="AF50" s="146"/>
       <c r="AG50" s="73"/>
-      <c r="AH50" s="122"/>
-      <c r="AI50" s="123"/>
-      <c r="AJ50" s="124"/>
+      <c r="AH50" s="144"/>
+      <c r="AI50" s="145"/>
+      <c r="AJ50" s="146"/>
       <c r="AK50" s="73"/>
-      <c r="AL50" s="122"/>
-      <c r="AM50" s="123"/>
-      <c r="AN50" s="124"/>
+      <c r="AL50" s="144"/>
+      <c r="AM50" s="145"/>
+      <c r="AN50" s="146"/>
       <c r="AO50" s="68"/>
-      <c r="AP50" s="122"/>
-      <c r="AQ50" s="123"/>
-      <c r="AR50" s="123"/>
+      <c r="AP50" s="144"/>
+      <c r="AQ50" s="145"/>
+      <c r="AR50" s="145"/>
       <c r="AS50" s="68"/>
-      <c r="AT50" s="122"/>
-      <c r="AU50" s="123"/>
-      <c r="AV50" s="124"/>
+      <c r="AT50" s="144"/>
+      <c r="AU50" s="145"/>
+      <c r="AV50" s="146"/>
       <c r="AW50" s="76"/>
-      <c r="AX50" s="122"/>
-      <c r="AY50" s="123"/>
-      <c r="AZ50" s="124"/>
+      <c r="AX50" s="144"/>
+      <c r="AY50" s="145"/>
+      <c r="AZ50" s="146"/>
       <c r="BA50" s="76"/>
-      <c r="BB50" s="122"/>
-      <c r="BC50" s="123"/>
-      <c r="BD50" s="124"/>
+      <c r="BB50" s="144"/>
+      <c r="BC50" s="145"/>
+      <c r="BD50" s="146"/>
       <c r="BE50" s="80"/>
       <c r="BF50" s="81"/>
     </row>
@@ -7314,37 +7314,37 @@
       <c r="W51" s="58"/>
       <c r="X51" s="61"/>
       <c r="Y51" s="70"/>
-      <c r="Z51" s="122"/>
-      <c r="AA51" s="123"/>
-      <c r="AB51" s="123"/>
+      <c r="Z51" s="144"/>
+      <c r="AA51" s="145"/>
+      <c r="AB51" s="145"/>
       <c r="AC51" s="68"/>
-      <c r="AD51" s="122"/>
-      <c r="AE51" s="123"/>
-      <c r="AF51" s="124"/>
+      <c r="AD51" s="144"/>
+      <c r="AE51" s="145"/>
+      <c r="AF51" s="146"/>
       <c r="AG51" s="73"/>
-      <c r="AH51" s="122"/>
-      <c r="AI51" s="123"/>
-      <c r="AJ51" s="124"/>
+      <c r="AH51" s="144"/>
+      <c r="AI51" s="145"/>
+      <c r="AJ51" s="146"/>
       <c r="AK51" s="73"/>
-      <c r="AL51" s="122"/>
-      <c r="AM51" s="123"/>
-      <c r="AN51" s="124"/>
+      <c r="AL51" s="144"/>
+      <c r="AM51" s="145"/>
+      <c r="AN51" s="146"/>
       <c r="AO51" s="68"/>
-      <c r="AP51" s="122"/>
-      <c r="AQ51" s="123"/>
-      <c r="AR51" s="123"/>
+      <c r="AP51" s="144"/>
+      <c r="AQ51" s="145"/>
+      <c r="AR51" s="145"/>
       <c r="AS51" s="68"/>
-      <c r="AT51" s="122"/>
-      <c r="AU51" s="123"/>
-      <c r="AV51" s="124"/>
+      <c r="AT51" s="144"/>
+      <c r="AU51" s="145"/>
+      <c r="AV51" s="146"/>
       <c r="AW51" s="76"/>
-      <c r="AX51" s="122"/>
-      <c r="AY51" s="123"/>
-      <c r="AZ51" s="124"/>
+      <c r="AX51" s="144"/>
+      <c r="AY51" s="145"/>
+      <c r="AZ51" s="146"/>
       <c r="BA51" s="76"/>
-      <c r="BB51" s="122"/>
-      <c r="BC51" s="123"/>
-      <c r="BD51" s="124"/>
+      <c r="BB51" s="144"/>
+      <c r="BC51" s="145"/>
+      <c r="BD51" s="146"/>
       <c r="BE51" s="80"/>
       <c r="BF51" s="81"/>
     </row>
@@ -7378,39 +7378,39 @@
       <c r="W52" s="58"/>
       <c r="X52" s="61"/>
       <c r="Y52" s="70"/>
-      <c r="Z52" s="122" t="s">
+      <c r="Z52" s="144" t="s">
         <v>262</v>
       </c>
-      <c r="AA52" s="123"/>
-      <c r="AB52" s="123"/>
+      <c r="AA52" s="145"/>
+      <c r="AB52" s="145"/>
       <c r="AC52" s="71"/>
-      <c r="AD52" s="122"/>
-      <c r="AE52" s="123"/>
-      <c r="AF52" s="124"/>
+      <c r="AD52" s="144"/>
+      <c r="AE52" s="145"/>
+      <c r="AF52" s="146"/>
       <c r="AG52" s="73"/>
-      <c r="AH52" s="122"/>
-      <c r="AI52" s="123"/>
-      <c r="AJ52" s="124"/>
+      <c r="AH52" s="144"/>
+      <c r="AI52" s="145"/>
+      <c r="AJ52" s="146"/>
       <c r="AK52" s="73"/>
-      <c r="AL52" s="122"/>
-      <c r="AM52" s="123"/>
-      <c r="AN52" s="124"/>
+      <c r="AL52" s="144"/>
+      <c r="AM52" s="145"/>
+      <c r="AN52" s="146"/>
       <c r="AO52" s="68"/>
-      <c r="AP52" s="122"/>
-      <c r="AQ52" s="123"/>
-      <c r="AR52" s="123"/>
+      <c r="AP52" s="144"/>
+      <c r="AQ52" s="145"/>
+      <c r="AR52" s="145"/>
       <c r="AS52" s="68"/>
-      <c r="AT52" s="122"/>
-      <c r="AU52" s="123"/>
-      <c r="AV52" s="124"/>
+      <c r="AT52" s="144"/>
+      <c r="AU52" s="145"/>
+      <c r="AV52" s="146"/>
       <c r="AW52" s="76"/>
-      <c r="AX52" s="122"/>
-      <c r="AY52" s="123"/>
-      <c r="AZ52" s="124"/>
+      <c r="AX52" s="144"/>
+      <c r="AY52" s="145"/>
+      <c r="AZ52" s="146"/>
       <c r="BA52" s="76"/>
-      <c r="BB52" s="122"/>
-      <c r="BC52" s="123"/>
-      <c r="BD52" s="124"/>
+      <c r="BB52" s="144"/>
+      <c r="BC52" s="145"/>
+      <c r="BD52" s="146"/>
       <c r="BE52" s="80"/>
       <c r="BF52" s="81"/>
     </row>
@@ -7442,37 +7442,37 @@
       <c r="W53" s="58"/>
       <c r="X53" s="61"/>
       <c r="Y53" s="70"/>
-      <c r="Z53" s="122"/>
-      <c r="AA53" s="123"/>
-      <c r="AB53" s="123"/>
+      <c r="Z53" s="144"/>
+      <c r="AA53" s="145"/>
+      <c r="AB53" s="145"/>
       <c r="AC53" s="71"/>
-      <c r="AD53" s="122"/>
-      <c r="AE53" s="123"/>
-      <c r="AF53" s="124"/>
+      <c r="AD53" s="144"/>
+      <c r="AE53" s="145"/>
+      <c r="AF53" s="146"/>
       <c r="AG53" s="73"/>
-      <c r="AH53" s="122"/>
-      <c r="AI53" s="123"/>
-      <c r="AJ53" s="124"/>
+      <c r="AH53" s="144"/>
+      <c r="AI53" s="145"/>
+      <c r="AJ53" s="146"/>
       <c r="AK53" s="73"/>
-      <c r="AL53" s="122"/>
-      <c r="AM53" s="123"/>
-      <c r="AN53" s="124"/>
+      <c r="AL53" s="144"/>
+      <c r="AM53" s="145"/>
+      <c r="AN53" s="146"/>
       <c r="AO53" s="68"/>
-      <c r="AP53" s="122"/>
-      <c r="AQ53" s="123"/>
-      <c r="AR53" s="123"/>
+      <c r="AP53" s="144"/>
+      <c r="AQ53" s="145"/>
+      <c r="AR53" s="145"/>
       <c r="AS53" s="68"/>
-      <c r="AT53" s="122"/>
-      <c r="AU53" s="123"/>
-      <c r="AV53" s="124"/>
+      <c r="AT53" s="144"/>
+      <c r="AU53" s="145"/>
+      <c r="AV53" s="146"/>
       <c r="AW53" s="76"/>
-      <c r="AX53" s="122"/>
-      <c r="AY53" s="123"/>
-      <c r="AZ53" s="124"/>
+      <c r="AX53" s="144"/>
+      <c r="AY53" s="145"/>
+      <c r="AZ53" s="146"/>
       <c r="BA53" s="76"/>
-      <c r="BB53" s="122"/>
-      <c r="BC53" s="123"/>
-      <c r="BD53" s="124"/>
+      <c r="BB53" s="144"/>
+      <c r="BC53" s="145"/>
+      <c r="BD53" s="146"/>
       <c r="BE53" s="80"/>
       <c r="BF53" s="81"/>
     </row>
@@ -7504,37 +7504,37 @@
       <c r="W54" s="58"/>
       <c r="X54" s="61"/>
       <c r="Y54" s="70"/>
-      <c r="Z54" s="122"/>
-      <c r="AA54" s="123"/>
-      <c r="AB54" s="123"/>
+      <c r="Z54" s="144"/>
+      <c r="AA54" s="145"/>
+      <c r="AB54" s="145"/>
       <c r="AC54" s="71"/>
-      <c r="AD54" s="122"/>
-      <c r="AE54" s="123"/>
-      <c r="AF54" s="124"/>
+      <c r="AD54" s="144"/>
+      <c r="AE54" s="145"/>
+      <c r="AF54" s="146"/>
       <c r="AG54" s="73"/>
-      <c r="AH54" s="122"/>
-      <c r="AI54" s="123"/>
-      <c r="AJ54" s="124"/>
+      <c r="AH54" s="144"/>
+      <c r="AI54" s="145"/>
+      <c r="AJ54" s="146"/>
       <c r="AK54" s="73"/>
-      <c r="AL54" s="122"/>
-      <c r="AM54" s="123"/>
-      <c r="AN54" s="124"/>
+      <c r="AL54" s="144"/>
+      <c r="AM54" s="145"/>
+      <c r="AN54" s="146"/>
       <c r="AO54" s="68"/>
-      <c r="AP54" s="122"/>
-      <c r="AQ54" s="123"/>
-      <c r="AR54" s="123"/>
+      <c r="AP54" s="144"/>
+      <c r="AQ54" s="145"/>
+      <c r="AR54" s="145"/>
       <c r="AS54" s="68"/>
-      <c r="AT54" s="122"/>
-      <c r="AU54" s="123"/>
-      <c r="AV54" s="124"/>
+      <c r="AT54" s="144"/>
+      <c r="AU54" s="145"/>
+      <c r="AV54" s="146"/>
       <c r="AW54" s="76"/>
-      <c r="AX54" s="122"/>
-      <c r="AY54" s="123"/>
-      <c r="AZ54" s="124"/>
+      <c r="AX54" s="144"/>
+      <c r="AY54" s="145"/>
+      <c r="AZ54" s="146"/>
       <c r="BA54" s="76"/>
-      <c r="BB54" s="122"/>
-      <c r="BC54" s="123"/>
-      <c r="BD54" s="124"/>
+      <c r="BB54" s="144"/>
+      <c r="BC54" s="145"/>
+      <c r="BD54" s="146"/>
       <c r="BE54" s="80"/>
       <c r="BF54" s="81"/>
     </row>
@@ -7566,37 +7566,37 @@
       <c r="W55" s="58"/>
       <c r="X55" s="61"/>
       <c r="Y55" s="70"/>
-      <c r="Z55" s="122"/>
-      <c r="AA55" s="123"/>
-      <c r="AB55" s="123"/>
+      <c r="Z55" s="144"/>
+      <c r="AA55" s="145"/>
+      <c r="AB55" s="145"/>
       <c r="AC55" s="71"/>
-      <c r="AD55" s="122"/>
-      <c r="AE55" s="123"/>
-      <c r="AF55" s="124"/>
+      <c r="AD55" s="144"/>
+      <c r="AE55" s="145"/>
+      <c r="AF55" s="146"/>
       <c r="AG55" s="73"/>
-      <c r="AH55" s="122"/>
-      <c r="AI55" s="123"/>
-      <c r="AJ55" s="124"/>
+      <c r="AH55" s="144"/>
+      <c r="AI55" s="145"/>
+      <c r="AJ55" s="146"/>
       <c r="AK55" s="73"/>
-      <c r="AL55" s="122"/>
-      <c r="AM55" s="123"/>
-      <c r="AN55" s="124"/>
+      <c r="AL55" s="144"/>
+      <c r="AM55" s="145"/>
+      <c r="AN55" s="146"/>
       <c r="AO55" s="68"/>
-      <c r="AP55" s="122"/>
-      <c r="AQ55" s="123"/>
-      <c r="AR55" s="123"/>
+      <c r="AP55" s="144"/>
+      <c r="AQ55" s="145"/>
+      <c r="AR55" s="145"/>
       <c r="AS55" s="68"/>
-      <c r="AT55" s="122"/>
-      <c r="AU55" s="123"/>
-      <c r="AV55" s="124"/>
+      <c r="AT55" s="144"/>
+      <c r="AU55" s="145"/>
+      <c r="AV55" s="146"/>
       <c r="AW55" s="76"/>
-      <c r="AX55" s="122"/>
-      <c r="AY55" s="123"/>
-      <c r="AZ55" s="124"/>
+      <c r="AX55" s="144"/>
+      <c r="AY55" s="145"/>
+      <c r="AZ55" s="146"/>
       <c r="BA55" s="76"/>
-      <c r="BB55" s="122"/>
-      <c r="BC55" s="123"/>
-      <c r="BD55" s="124"/>
+      <c r="BB55" s="144"/>
+      <c r="BC55" s="145"/>
+      <c r="BD55" s="146"/>
       <c r="BE55" s="80"/>
       <c r="BF55" s="81"/>
     </row>
@@ -7628,37 +7628,37 @@
       <c r="W56" s="58"/>
       <c r="X56" s="61"/>
       <c r="Y56" s="70"/>
-      <c r="Z56" s="122"/>
-      <c r="AA56" s="123"/>
-      <c r="AB56" s="123"/>
+      <c r="Z56" s="144"/>
+      <c r="AA56" s="145"/>
+      <c r="AB56" s="145"/>
       <c r="AC56" s="71"/>
-      <c r="AD56" s="122"/>
-      <c r="AE56" s="123"/>
-      <c r="AF56" s="124"/>
+      <c r="AD56" s="144"/>
+      <c r="AE56" s="145"/>
+      <c r="AF56" s="146"/>
       <c r="AG56" s="73"/>
-      <c r="AH56" s="122"/>
-      <c r="AI56" s="123"/>
-      <c r="AJ56" s="124"/>
+      <c r="AH56" s="144"/>
+      <c r="AI56" s="145"/>
+      <c r="AJ56" s="146"/>
       <c r="AK56" s="73"/>
-      <c r="AL56" s="122"/>
-      <c r="AM56" s="123"/>
-      <c r="AN56" s="124"/>
+      <c r="AL56" s="144"/>
+      <c r="AM56" s="145"/>
+      <c r="AN56" s="146"/>
       <c r="AO56" s="68"/>
-      <c r="AP56" s="122"/>
-      <c r="AQ56" s="123"/>
-      <c r="AR56" s="123"/>
+      <c r="AP56" s="144"/>
+      <c r="AQ56" s="145"/>
+      <c r="AR56" s="145"/>
       <c r="AS56" s="68"/>
-      <c r="AT56" s="122"/>
-      <c r="AU56" s="123"/>
-      <c r="AV56" s="124"/>
+      <c r="AT56" s="144"/>
+      <c r="AU56" s="145"/>
+      <c r="AV56" s="146"/>
       <c r="AW56" s="76"/>
-      <c r="AX56" s="122"/>
-      <c r="AY56" s="123"/>
-      <c r="AZ56" s="124"/>
+      <c r="AX56" s="144"/>
+      <c r="AY56" s="145"/>
+      <c r="AZ56" s="146"/>
       <c r="BA56" s="76"/>
-      <c r="BB56" s="122"/>
-      <c r="BC56" s="123"/>
-      <c r="BD56" s="124"/>
+      <c r="BB56" s="144"/>
+      <c r="BC56" s="145"/>
+      <c r="BD56" s="146"/>
       <c r="BE56" s="80"/>
       <c r="BF56" s="81"/>
     </row>
@@ -7690,37 +7690,37 @@
       <c r="W57" s="58"/>
       <c r="X57" s="61"/>
       <c r="Y57" s="70"/>
-      <c r="Z57" s="122"/>
-      <c r="AA57" s="123"/>
-      <c r="AB57" s="123"/>
+      <c r="Z57" s="144"/>
+      <c r="AA57" s="145"/>
+      <c r="AB57" s="145"/>
       <c r="AC57" s="71"/>
-      <c r="AD57" s="122"/>
-      <c r="AE57" s="123"/>
-      <c r="AF57" s="124"/>
+      <c r="AD57" s="144"/>
+      <c r="AE57" s="145"/>
+      <c r="AF57" s="146"/>
       <c r="AG57" s="73"/>
-      <c r="AH57" s="122"/>
-      <c r="AI57" s="123"/>
-      <c r="AJ57" s="124"/>
+      <c r="AH57" s="144"/>
+      <c r="AI57" s="145"/>
+      <c r="AJ57" s="146"/>
       <c r="AK57" s="73"/>
-      <c r="AL57" s="122"/>
-      <c r="AM57" s="123"/>
-      <c r="AN57" s="124"/>
+      <c r="AL57" s="144"/>
+      <c r="AM57" s="145"/>
+      <c r="AN57" s="146"/>
       <c r="AO57" s="68"/>
-      <c r="AP57" s="122"/>
-      <c r="AQ57" s="123"/>
-      <c r="AR57" s="123"/>
+      <c r="AP57" s="144"/>
+      <c r="AQ57" s="145"/>
+      <c r="AR57" s="145"/>
       <c r="AS57" s="68"/>
-      <c r="AT57" s="122"/>
-      <c r="AU57" s="123"/>
-      <c r="AV57" s="124"/>
+      <c r="AT57" s="144"/>
+      <c r="AU57" s="145"/>
+      <c r="AV57" s="146"/>
       <c r="AW57" s="76"/>
-      <c r="AX57" s="122"/>
-      <c r="AY57" s="123"/>
-      <c r="AZ57" s="124"/>
+      <c r="AX57" s="144"/>
+      <c r="AY57" s="145"/>
+      <c r="AZ57" s="146"/>
       <c r="BA57" s="76"/>
-      <c r="BB57" s="122"/>
-      <c r="BC57" s="123"/>
-      <c r="BD57" s="124"/>
+      <c r="BB57" s="144"/>
+      <c r="BC57" s="145"/>
+      <c r="BD57" s="146"/>
       <c r="BE57" s="80"/>
       <c r="BF57" s="81"/>
     </row>
@@ -7752,37 +7752,37 @@
       <c r="W58" s="58"/>
       <c r="X58" s="61"/>
       <c r="Y58" s="70"/>
-      <c r="Z58" s="122"/>
-      <c r="AA58" s="123"/>
-      <c r="AB58" s="123"/>
+      <c r="Z58" s="144"/>
+      <c r="AA58" s="145"/>
+      <c r="AB58" s="145"/>
       <c r="AC58" s="71"/>
-      <c r="AD58" s="122"/>
-      <c r="AE58" s="123"/>
-      <c r="AF58" s="124"/>
+      <c r="AD58" s="144"/>
+      <c r="AE58" s="145"/>
+      <c r="AF58" s="146"/>
       <c r="AG58" s="73"/>
-      <c r="AH58" s="122"/>
-      <c r="AI58" s="123"/>
-      <c r="AJ58" s="124"/>
+      <c r="AH58" s="144"/>
+      <c r="AI58" s="145"/>
+      <c r="AJ58" s="146"/>
       <c r="AK58" s="73"/>
-      <c r="AL58" s="122"/>
-      <c r="AM58" s="123"/>
-      <c r="AN58" s="124"/>
+      <c r="AL58" s="144"/>
+      <c r="AM58" s="145"/>
+      <c r="AN58" s="146"/>
       <c r="AO58" s="68"/>
-      <c r="AP58" s="122"/>
-      <c r="AQ58" s="123"/>
-      <c r="AR58" s="123"/>
+      <c r="AP58" s="144"/>
+      <c r="AQ58" s="145"/>
+      <c r="AR58" s="145"/>
       <c r="AS58" s="68"/>
-      <c r="AT58" s="122"/>
-      <c r="AU58" s="123"/>
-      <c r="AV58" s="124"/>
+      <c r="AT58" s="144"/>
+      <c r="AU58" s="145"/>
+      <c r="AV58" s="146"/>
       <c r="AW58" s="76"/>
-      <c r="AX58" s="122"/>
-      <c r="AY58" s="123"/>
-      <c r="AZ58" s="124"/>
+      <c r="AX58" s="144"/>
+      <c r="AY58" s="145"/>
+      <c r="AZ58" s="146"/>
       <c r="BA58" s="76"/>
-      <c r="BB58" s="122"/>
-      <c r="BC58" s="123"/>
-      <c r="BD58" s="124"/>
+      <c r="BB58" s="144"/>
+      <c r="BC58" s="145"/>
+      <c r="BD58" s="146"/>
       <c r="BE58" s="80"/>
       <c r="BF58" s="81"/>
     </row>
@@ -7814,37 +7814,37 @@
       <c r="W59" s="58"/>
       <c r="X59" s="61"/>
       <c r="Y59" s="70"/>
-      <c r="Z59" s="122"/>
-      <c r="AA59" s="123"/>
-      <c r="AB59" s="123"/>
+      <c r="Z59" s="144"/>
+      <c r="AA59" s="145"/>
+      <c r="AB59" s="145"/>
       <c r="AC59" s="71"/>
-      <c r="AD59" s="122"/>
-      <c r="AE59" s="123"/>
-      <c r="AF59" s="124"/>
+      <c r="AD59" s="144"/>
+      <c r="AE59" s="145"/>
+      <c r="AF59" s="146"/>
       <c r="AG59" s="73"/>
-      <c r="AH59" s="122"/>
-      <c r="AI59" s="123"/>
-      <c r="AJ59" s="124"/>
+      <c r="AH59" s="144"/>
+      <c r="AI59" s="145"/>
+      <c r="AJ59" s="146"/>
       <c r="AK59" s="73"/>
-      <c r="AL59" s="122"/>
-      <c r="AM59" s="123"/>
-      <c r="AN59" s="124"/>
+      <c r="AL59" s="144"/>
+      <c r="AM59" s="145"/>
+      <c r="AN59" s="146"/>
       <c r="AO59" s="68"/>
-      <c r="AP59" s="122"/>
-      <c r="AQ59" s="123"/>
-      <c r="AR59" s="123"/>
+      <c r="AP59" s="144"/>
+      <c r="AQ59" s="145"/>
+      <c r="AR59" s="145"/>
       <c r="AS59" s="68"/>
-      <c r="AT59" s="122"/>
-      <c r="AU59" s="123"/>
-      <c r="AV59" s="124"/>
+      <c r="AT59" s="144"/>
+      <c r="AU59" s="145"/>
+      <c r="AV59" s="146"/>
       <c r="AW59" s="76"/>
-      <c r="AX59" s="122"/>
-      <c r="AY59" s="123"/>
-      <c r="AZ59" s="124"/>
+      <c r="AX59" s="144"/>
+      <c r="AY59" s="145"/>
+      <c r="AZ59" s="146"/>
       <c r="BA59" s="76"/>
-      <c r="BB59" s="122"/>
-      <c r="BC59" s="123"/>
-      <c r="BD59" s="124"/>
+      <c r="BB59" s="144"/>
+      <c r="BC59" s="145"/>
+      <c r="BD59" s="146"/>
       <c r="BE59" s="80"/>
       <c r="BF59" s="81"/>
     </row>
@@ -7876,37 +7876,37 @@
       <c r="W60" s="58"/>
       <c r="X60" s="61"/>
       <c r="Y60" s="70"/>
-      <c r="Z60" s="122"/>
-      <c r="AA60" s="123"/>
-      <c r="AB60" s="123"/>
+      <c r="Z60" s="144"/>
+      <c r="AA60" s="145"/>
+      <c r="AB60" s="145"/>
       <c r="AC60" s="71"/>
-      <c r="AD60" s="122"/>
-      <c r="AE60" s="123"/>
-      <c r="AF60" s="124"/>
+      <c r="AD60" s="144"/>
+      <c r="AE60" s="145"/>
+      <c r="AF60" s="146"/>
       <c r="AG60" s="73"/>
-      <c r="AH60" s="122"/>
-      <c r="AI60" s="123"/>
-      <c r="AJ60" s="124"/>
+      <c r="AH60" s="144"/>
+      <c r="AI60" s="145"/>
+      <c r="AJ60" s="146"/>
       <c r="AK60" s="73"/>
-      <c r="AL60" s="122"/>
-      <c r="AM60" s="123"/>
-      <c r="AN60" s="124"/>
+      <c r="AL60" s="144"/>
+      <c r="AM60" s="145"/>
+      <c r="AN60" s="146"/>
       <c r="AO60" s="68"/>
-      <c r="AP60" s="122"/>
-      <c r="AQ60" s="123"/>
-      <c r="AR60" s="123"/>
+      <c r="AP60" s="144"/>
+      <c r="AQ60" s="145"/>
+      <c r="AR60" s="145"/>
       <c r="AS60" s="68"/>
-      <c r="AT60" s="122"/>
-      <c r="AU60" s="123"/>
-      <c r="AV60" s="124"/>
+      <c r="AT60" s="144"/>
+      <c r="AU60" s="145"/>
+      <c r="AV60" s="146"/>
       <c r="AW60" s="76"/>
-      <c r="AX60" s="122"/>
-      <c r="AY60" s="123"/>
-      <c r="AZ60" s="124"/>
+      <c r="AX60" s="144"/>
+      <c r="AY60" s="145"/>
+      <c r="AZ60" s="146"/>
       <c r="BA60" s="76"/>
-      <c r="BB60" s="122"/>
-      <c r="BC60" s="123"/>
-      <c r="BD60" s="124"/>
+      <c r="BB60" s="144"/>
+      <c r="BC60" s="145"/>
+      <c r="BD60" s="146"/>
       <c r="BE60" s="80"/>
       <c r="BF60" s="81"/>
     </row>
@@ -7938,37 +7938,37 @@
       <c r="W61" s="58"/>
       <c r="X61" s="61"/>
       <c r="Y61" s="70"/>
-      <c r="Z61" s="122"/>
-      <c r="AA61" s="123"/>
-      <c r="AB61" s="123"/>
+      <c r="Z61" s="144"/>
+      <c r="AA61" s="145"/>
+      <c r="AB61" s="145"/>
       <c r="AC61" s="71"/>
-      <c r="AD61" s="122"/>
-      <c r="AE61" s="123"/>
-      <c r="AF61" s="124"/>
+      <c r="AD61" s="144"/>
+      <c r="AE61" s="145"/>
+      <c r="AF61" s="146"/>
       <c r="AG61" s="73"/>
-      <c r="AH61" s="122"/>
-      <c r="AI61" s="123"/>
-      <c r="AJ61" s="124"/>
+      <c r="AH61" s="144"/>
+      <c r="AI61" s="145"/>
+      <c r="AJ61" s="146"/>
       <c r="AK61" s="73"/>
-      <c r="AL61" s="122"/>
-      <c r="AM61" s="123"/>
-      <c r="AN61" s="124"/>
+      <c r="AL61" s="144"/>
+      <c r="AM61" s="145"/>
+      <c r="AN61" s="146"/>
       <c r="AO61" s="73"/>
-      <c r="AP61" s="122"/>
-      <c r="AQ61" s="123"/>
-      <c r="AR61" s="123"/>
+      <c r="AP61" s="144"/>
+      <c r="AQ61" s="145"/>
+      <c r="AR61" s="145"/>
       <c r="AS61" s="76"/>
-      <c r="AT61" s="122"/>
-      <c r="AU61" s="123"/>
-      <c r="AV61" s="124"/>
+      <c r="AT61" s="144"/>
+      <c r="AU61" s="145"/>
+      <c r="AV61" s="146"/>
       <c r="AW61" s="76"/>
-      <c r="AX61" s="122"/>
-      <c r="AY61" s="123"/>
-      <c r="AZ61" s="124"/>
+      <c r="AX61" s="144"/>
+      <c r="AY61" s="145"/>
+      <c r="AZ61" s="146"/>
       <c r="BA61" s="76"/>
-      <c r="BB61" s="122"/>
-      <c r="BC61" s="123"/>
-      <c r="BD61" s="124"/>
+      <c r="BB61" s="144"/>
+      <c r="BC61" s="145"/>
+      <c r="BD61" s="146"/>
       <c r="BE61" s="80"/>
       <c r="BF61" s="81"/>
     </row>
@@ -8000,37 +8000,37 @@
       <c r="W62" s="58"/>
       <c r="X62" s="61"/>
       <c r="Y62" s="70"/>
-      <c r="Z62" s="122"/>
-      <c r="AA62" s="123"/>
-      <c r="AB62" s="123"/>
+      <c r="Z62" s="144"/>
+      <c r="AA62" s="145"/>
+      <c r="AB62" s="145"/>
       <c r="AC62" s="71"/>
-      <c r="AD62" s="122"/>
-      <c r="AE62" s="123"/>
-      <c r="AF62" s="124"/>
+      <c r="AD62" s="144"/>
+      <c r="AE62" s="145"/>
+      <c r="AF62" s="146"/>
       <c r="AG62" s="73"/>
-      <c r="AH62" s="122"/>
-      <c r="AI62" s="123"/>
-      <c r="AJ62" s="124"/>
+      <c r="AH62" s="144"/>
+      <c r="AI62" s="145"/>
+      <c r="AJ62" s="146"/>
       <c r="AK62" s="73"/>
-      <c r="AL62" s="122"/>
-      <c r="AM62" s="123"/>
-      <c r="AN62" s="124"/>
+      <c r="AL62" s="144"/>
+      <c r="AM62" s="145"/>
+      <c r="AN62" s="146"/>
       <c r="AO62" s="73"/>
-      <c r="AP62" s="122"/>
-      <c r="AQ62" s="123"/>
-      <c r="AR62" s="123"/>
+      <c r="AP62" s="144"/>
+      <c r="AQ62" s="145"/>
+      <c r="AR62" s="145"/>
       <c r="AS62" s="76"/>
-      <c r="AT62" s="122"/>
-      <c r="AU62" s="123"/>
-      <c r="AV62" s="124"/>
+      <c r="AT62" s="144"/>
+      <c r="AU62" s="145"/>
+      <c r="AV62" s="146"/>
       <c r="AW62" s="76"/>
-      <c r="AX62" s="122"/>
-      <c r="AY62" s="123"/>
-      <c r="AZ62" s="124"/>
+      <c r="AX62" s="144"/>
+      <c r="AY62" s="145"/>
+      <c r="AZ62" s="146"/>
       <c r="BA62" s="76"/>
-      <c r="BB62" s="122"/>
-      <c r="BC62" s="123"/>
-      <c r="BD62" s="124"/>
+      <c r="BB62" s="144"/>
+      <c r="BC62" s="145"/>
+      <c r="BD62" s="146"/>
       <c r="BE62" s="80"/>
       <c r="BF62" s="81"/>
     </row>
@@ -8062,37 +8062,37 @@
       <c r="W63" s="58"/>
       <c r="X63" s="61"/>
       <c r="Y63" s="70"/>
-      <c r="Z63" s="122"/>
-      <c r="AA63" s="123"/>
-      <c r="AB63" s="123"/>
+      <c r="Z63" s="144"/>
+      <c r="AA63" s="145"/>
+      <c r="AB63" s="145"/>
       <c r="AC63" s="71"/>
-      <c r="AD63" s="122"/>
-      <c r="AE63" s="123"/>
-      <c r="AF63" s="124"/>
+      <c r="AD63" s="144"/>
+      <c r="AE63" s="145"/>
+      <c r="AF63" s="146"/>
       <c r="AG63" s="73"/>
-      <c r="AH63" s="122"/>
-      <c r="AI63" s="123"/>
-      <c r="AJ63" s="124"/>
+      <c r="AH63" s="144"/>
+      <c r="AI63" s="145"/>
+      <c r="AJ63" s="146"/>
       <c r="AK63" s="73"/>
-      <c r="AL63" s="122"/>
-      <c r="AM63" s="123"/>
-      <c r="AN63" s="124"/>
+      <c r="AL63" s="144"/>
+      <c r="AM63" s="145"/>
+      <c r="AN63" s="146"/>
       <c r="AO63" s="73"/>
-      <c r="AP63" s="122"/>
-      <c r="AQ63" s="123"/>
-      <c r="AR63" s="123"/>
+      <c r="AP63" s="144"/>
+      <c r="AQ63" s="145"/>
+      <c r="AR63" s="145"/>
       <c r="AS63" s="76"/>
-      <c r="AT63" s="122"/>
-      <c r="AU63" s="123"/>
-      <c r="AV63" s="124"/>
+      <c r="AT63" s="144"/>
+      <c r="AU63" s="145"/>
+      <c r="AV63" s="146"/>
       <c r="AW63" s="76"/>
-      <c r="AX63" s="122"/>
-      <c r="AY63" s="123"/>
-      <c r="AZ63" s="124"/>
+      <c r="AX63" s="144"/>
+      <c r="AY63" s="145"/>
+      <c r="AZ63" s="146"/>
       <c r="BA63" s="76"/>
-      <c r="BB63" s="122"/>
-      <c r="BC63" s="123"/>
-      <c r="BD63" s="124"/>
+      <c r="BB63" s="144"/>
+      <c r="BC63" s="145"/>
+      <c r="BD63" s="146"/>
       <c r="BE63" s="80"/>
       <c r="BF63" s="81"/>
     </row>
@@ -8124,37 +8124,37 @@
       <c r="W64" s="58"/>
       <c r="X64" s="61"/>
       <c r="Y64" s="70"/>
-      <c r="Z64" s="122"/>
-      <c r="AA64" s="123"/>
-      <c r="AB64" s="123"/>
+      <c r="Z64" s="144"/>
+      <c r="AA64" s="145"/>
+      <c r="AB64" s="145"/>
       <c r="AC64" s="71"/>
-      <c r="AD64" s="122"/>
-      <c r="AE64" s="123"/>
-      <c r="AF64" s="124"/>
+      <c r="AD64" s="144"/>
+      <c r="AE64" s="145"/>
+      <c r="AF64" s="146"/>
       <c r="AG64" s="73"/>
-      <c r="AH64" s="122"/>
-      <c r="AI64" s="123"/>
-      <c r="AJ64" s="124"/>
+      <c r="AH64" s="144"/>
+      <c r="AI64" s="145"/>
+      <c r="AJ64" s="146"/>
       <c r="AK64" s="73"/>
-      <c r="AL64" s="122"/>
-      <c r="AM64" s="123"/>
-      <c r="AN64" s="124"/>
+      <c r="AL64" s="144"/>
+      <c r="AM64" s="145"/>
+      <c r="AN64" s="146"/>
       <c r="AO64" s="73"/>
-      <c r="AP64" s="122"/>
-      <c r="AQ64" s="123"/>
-      <c r="AR64" s="123"/>
+      <c r="AP64" s="144"/>
+      <c r="AQ64" s="145"/>
+      <c r="AR64" s="145"/>
       <c r="AS64" s="76"/>
-      <c r="AT64" s="122"/>
-      <c r="AU64" s="123"/>
-      <c r="AV64" s="124"/>
+      <c r="AT64" s="144"/>
+      <c r="AU64" s="145"/>
+      <c r="AV64" s="146"/>
       <c r="AW64" s="76"/>
-      <c r="AX64" s="122"/>
-      <c r="AY64" s="123"/>
-      <c r="AZ64" s="124"/>
+      <c r="AX64" s="144"/>
+      <c r="AY64" s="145"/>
+      <c r="AZ64" s="146"/>
       <c r="BA64" s="76"/>
-      <c r="BB64" s="122"/>
-      <c r="BC64" s="123"/>
-      <c r="BD64" s="124"/>
+      <c r="BB64" s="144"/>
+      <c r="BC64" s="145"/>
+      <c r="BD64" s="146"/>
       <c r="BE64" s="80"/>
       <c r="BF64" s="81"/>
     </row>
@@ -8186,37 +8186,37 @@
       <c r="W65" s="58"/>
       <c r="X65" s="61"/>
       <c r="Y65" s="70"/>
-      <c r="Z65" s="122"/>
-      <c r="AA65" s="123"/>
-      <c r="AB65" s="123"/>
+      <c r="Z65" s="144"/>
+      <c r="AA65" s="145"/>
+      <c r="AB65" s="145"/>
       <c r="AC65" s="71"/>
-      <c r="AD65" s="122"/>
-      <c r="AE65" s="123"/>
-      <c r="AF65" s="124"/>
+      <c r="AD65" s="144"/>
+      <c r="AE65" s="145"/>
+      <c r="AF65" s="146"/>
       <c r="AG65" s="73"/>
-      <c r="AH65" s="122"/>
-      <c r="AI65" s="123"/>
-      <c r="AJ65" s="124"/>
+      <c r="AH65" s="144"/>
+      <c r="AI65" s="145"/>
+      <c r="AJ65" s="146"/>
       <c r="AK65" s="73"/>
-      <c r="AL65" s="122"/>
-      <c r="AM65" s="123"/>
-      <c r="AN65" s="124"/>
+      <c r="AL65" s="144"/>
+      <c r="AM65" s="145"/>
+      <c r="AN65" s="146"/>
       <c r="AO65" s="73"/>
-      <c r="AP65" s="122"/>
-      <c r="AQ65" s="123"/>
-      <c r="AR65" s="123"/>
+      <c r="AP65" s="144"/>
+      <c r="AQ65" s="145"/>
+      <c r="AR65" s="145"/>
       <c r="AS65" s="76"/>
-      <c r="AT65" s="122"/>
-      <c r="AU65" s="123"/>
-      <c r="AV65" s="124"/>
+      <c r="AT65" s="144"/>
+      <c r="AU65" s="145"/>
+      <c r="AV65" s="146"/>
       <c r="AW65" s="76"/>
-      <c r="AX65" s="122"/>
-      <c r="AY65" s="123"/>
-      <c r="AZ65" s="124"/>
+      <c r="AX65" s="144"/>
+      <c r="AY65" s="145"/>
+      <c r="AZ65" s="146"/>
       <c r="BA65" s="76"/>
-      <c r="BB65" s="122"/>
-      <c r="BC65" s="123"/>
-      <c r="BD65" s="124"/>
+      <c r="BB65" s="144"/>
+      <c r="BC65" s="145"/>
+      <c r="BD65" s="146"/>
       <c r="BE65" s="80"/>
       <c r="BF65" s="81"/>
     </row>
@@ -8248,37 +8248,37 @@
       <c r="W66" s="58"/>
       <c r="X66" s="61"/>
       <c r="Y66" s="70"/>
-      <c r="Z66" s="122"/>
-      <c r="AA66" s="123"/>
-      <c r="AB66" s="123"/>
+      <c r="Z66" s="144"/>
+      <c r="AA66" s="145"/>
+      <c r="AB66" s="145"/>
       <c r="AC66" s="71"/>
-      <c r="AD66" s="122"/>
-      <c r="AE66" s="123"/>
-      <c r="AF66" s="124"/>
+      <c r="AD66" s="144"/>
+      <c r="AE66" s="145"/>
+      <c r="AF66" s="146"/>
       <c r="AG66" s="73"/>
-      <c r="AH66" s="122"/>
-      <c r="AI66" s="123"/>
-      <c r="AJ66" s="124"/>
+      <c r="AH66" s="144"/>
+      <c r="AI66" s="145"/>
+      <c r="AJ66" s="146"/>
       <c r="AK66" s="73"/>
-      <c r="AL66" s="122"/>
-      <c r="AM66" s="123"/>
-      <c r="AN66" s="124"/>
+      <c r="AL66" s="144"/>
+      <c r="AM66" s="145"/>
+      <c r="AN66" s="146"/>
       <c r="AO66" s="73"/>
-      <c r="AP66" s="122"/>
-      <c r="AQ66" s="123"/>
-      <c r="AR66" s="123"/>
+      <c r="AP66" s="144"/>
+      <c r="AQ66" s="145"/>
+      <c r="AR66" s="145"/>
       <c r="AS66" s="76"/>
-      <c r="AT66" s="122"/>
-      <c r="AU66" s="123"/>
-      <c r="AV66" s="124"/>
+      <c r="AT66" s="144"/>
+      <c r="AU66" s="145"/>
+      <c r="AV66" s="146"/>
       <c r="AW66" s="76"/>
-      <c r="AX66" s="122"/>
-      <c r="AY66" s="123"/>
-      <c r="AZ66" s="124"/>
+      <c r="AX66" s="144"/>
+      <c r="AY66" s="145"/>
+      <c r="AZ66" s="146"/>
       <c r="BA66" s="76"/>
-      <c r="BB66" s="122"/>
-      <c r="BC66" s="123"/>
-      <c r="BD66" s="124"/>
+      <c r="BB66" s="144"/>
+      <c r="BC66" s="145"/>
+      <c r="BD66" s="146"/>
       <c r="BE66" s="80"/>
       <c r="BF66" s="81"/>
     </row>
@@ -8310,37 +8310,37 @@
       <c r="W67" s="58"/>
       <c r="X67" s="61"/>
       <c r="Y67" s="70"/>
-      <c r="Z67" s="122"/>
-      <c r="AA67" s="123"/>
-      <c r="AB67" s="123"/>
+      <c r="Z67" s="144"/>
+      <c r="AA67" s="145"/>
+      <c r="AB67" s="145"/>
       <c r="AC67" s="71"/>
-      <c r="AD67" s="122"/>
-      <c r="AE67" s="123"/>
-      <c r="AF67" s="124"/>
+      <c r="AD67" s="144"/>
+      <c r="AE67" s="145"/>
+      <c r="AF67" s="146"/>
       <c r="AG67" s="73"/>
-      <c r="AH67" s="122"/>
-      <c r="AI67" s="123"/>
-      <c r="AJ67" s="124"/>
+      <c r="AH67" s="144"/>
+      <c r="AI67" s="145"/>
+      <c r="AJ67" s="146"/>
       <c r="AK67" s="73"/>
-      <c r="AL67" s="122"/>
-      <c r="AM67" s="123"/>
-      <c r="AN67" s="124"/>
+      <c r="AL67" s="144"/>
+      <c r="AM67" s="145"/>
+      <c r="AN67" s="146"/>
       <c r="AO67" s="73"/>
-      <c r="AP67" s="122"/>
-      <c r="AQ67" s="123"/>
-      <c r="AR67" s="123"/>
+      <c r="AP67" s="144"/>
+      <c r="AQ67" s="145"/>
+      <c r="AR67" s="145"/>
       <c r="AS67" s="76"/>
-      <c r="AT67" s="122"/>
-      <c r="AU67" s="123"/>
-      <c r="AV67" s="124"/>
+      <c r="AT67" s="144"/>
+      <c r="AU67" s="145"/>
+      <c r="AV67" s="146"/>
       <c r="AW67" s="76"/>
-      <c r="AX67" s="122"/>
-      <c r="AY67" s="123"/>
-      <c r="AZ67" s="124"/>
+      <c r="AX67" s="144"/>
+      <c r="AY67" s="145"/>
+      <c r="AZ67" s="146"/>
       <c r="BA67" s="76"/>
-      <c r="BB67" s="122"/>
-      <c r="BC67" s="123"/>
-      <c r="BD67" s="124"/>
+      <c r="BB67" s="144"/>
+      <c r="BC67" s="145"/>
+      <c r="BD67" s="146"/>
       <c r="BE67" s="80"/>
       <c r="BF67" s="81"/>
     </row>
@@ -8372,37 +8372,37 @@
       <c r="W68" s="58"/>
       <c r="X68" s="61"/>
       <c r="Y68" s="70"/>
-      <c r="Z68" s="122"/>
-      <c r="AA68" s="123"/>
-      <c r="AB68" s="123"/>
+      <c r="Z68" s="144"/>
+      <c r="AA68" s="145"/>
+      <c r="AB68" s="145"/>
       <c r="AC68" s="71"/>
-      <c r="AD68" s="122"/>
-      <c r="AE68" s="123"/>
-      <c r="AF68" s="124"/>
+      <c r="AD68" s="144"/>
+      <c r="AE68" s="145"/>
+      <c r="AF68" s="146"/>
       <c r="AG68" s="73"/>
-      <c r="AH68" s="122"/>
-      <c r="AI68" s="123"/>
-      <c r="AJ68" s="124"/>
+      <c r="AH68" s="144"/>
+      <c r="AI68" s="145"/>
+      <c r="AJ68" s="146"/>
       <c r="AK68" s="73"/>
-      <c r="AL68" s="122"/>
-      <c r="AM68" s="123"/>
-      <c r="AN68" s="124"/>
+      <c r="AL68" s="144"/>
+      <c r="AM68" s="145"/>
+      <c r="AN68" s="146"/>
       <c r="AO68" s="73"/>
-      <c r="AP68" s="122"/>
-      <c r="AQ68" s="123"/>
-      <c r="AR68" s="123"/>
+      <c r="AP68" s="144"/>
+      <c r="AQ68" s="145"/>
+      <c r="AR68" s="145"/>
       <c r="AS68" s="76"/>
-      <c r="AT68" s="122"/>
-      <c r="AU68" s="123"/>
-      <c r="AV68" s="124"/>
+      <c r="AT68" s="144"/>
+      <c r="AU68" s="145"/>
+      <c r="AV68" s="146"/>
       <c r="AW68" s="76"/>
-      <c r="AX68" s="122"/>
-      <c r="AY68" s="123"/>
-      <c r="AZ68" s="124"/>
+      <c r="AX68" s="144"/>
+      <c r="AY68" s="145"/>
+      <c r="AZ68" s="146"/>
       <c r="BA68" s="76"/>
-      <c r="BB68" s="122"/>
-      <c r="BC68" s="123"/>
-      <c r="BD68" s="124"/>
+      <c r="BB68" s="144"/>
+      <c r="BC68" s="145"/>
+      <c r="BD68" s="146"/>
       <c r="BE68" s="80"/>
       <c r="BF68" s="81"/>
     </row>
@@ -8434,37 +8434,37 @@
       <c r="W69" s="58"/>
       <c r="X69" s="61"/>
       <c r="Y69" s="70"/>
-      <c r="Z69" s="122"/>
-      <c r="AA69" s="123"/>
-      <c r="AB69" s="123"/>
+      <c r="Z69" s="144"/>
+      <c r="AA69" s="145"/>
+      <c r="AB69" s="145"/>
       <c r="AC69" s="71"/>
-      <c r="AD69" s="122"/>
-      <c r="AE69" s="123"/>
-      <c r="AF69" s="124"/>
+      <c r="AD69" s="144"/>
+      <c r="AE69" s="145"/>
+      <c r="AF69" s="146"/>
       <c r="AG69" s="73"/>
-      <c r="AH69" s="122"/>
-      <c r="AI69" s="123"/>
-      <c r="AJ69" s="124"/>
+      <c r="AH69" s="144"/>
+      <c r="AI69" s="145"/>
+      <c r="AJ69" s="146"/>
       <c r="AK69" s="73"/>
-      <c r="AL69" s="122"/>
-      <c r="AM69" s="123"/>
-      <c r="AN69" s="124"/>
+      <c r="AL69" s="144"/>
+      <c r="AM69" s="145"/>
+      <c r="AN69" s="146"/>
       <c r="AO69" s="73"/>
-      <c r="AP69" s="122"/>
-      <c r="AQ69" s="123"/>
-      <c r="AR69" s="123"/>
+      <c r="AP69" s="144"/>
+      <c r="AQ69" s="145"/>
+      <c r="AR69" s="145"/>
       <c r="AS69" s="76"/>
-      <c r="AT69" s="122"/>
-      <c r="AU69" s="123"/>
-      <c r="AV69" s="124"/>
+      <c r="AT69" s="144"/>
+      <c r="AU69" s="145"/>
+      <c r="AV69" s="146"/>
       <c r="AW69" s="76"/>
-      <c r="AX69" s="122"/>
-      <c r="AY69" s="123"/>
-      <c r="AZ69" s="124"/>
+      <c r="AX69" s="144"/>
+      <c r="AY69" s="145"/>
+      <c r="AZ69" s="146"/>
       <c r="BA69" s="76"/>
-      <c r="BB69" s="122"/>
-      <c r="BC69" s="123"/>
-      <c r="BD69" s="124"/>
+      <c r="BB69" s="144"/>
+      <c r="BC69" s="145"/>
+      <c r="BD69" s="146"/>
       <c r="BE69" s="80"/>
       <c r="BF69" s="81"/>
     </row>
@@ -8496,37 +8496,37 @@
       <c r="W70" s="58"/>
       <c r="X70" s="61"/>
       <c r="Y70" s="70"/>
-      <c r="Z70" s="122"/>
-      <c r="AA70" s="123"/>
-      <c r="AB70" s="123"/>
+      <c r="Z70" s="144"/>
+      <c r="AA70" s="145"/>
+      <c r="AB70" s="145"/>
       <c r="AC70" s="71"/>
-      <c r="AD70" s="122"/>
-      <c r="AE70" s="123"/>
-      <c r="AF70" s="124"/>
+      <c r="AD70" s="144"/>
+      <c r="AE70" s="145"/>
+      <c r="AF70" s="146"/>
       <c r="AG70" s="73"/>
-      <c r="AH70" s="122"/>
-      <c r="AI70" s="123"/>
-      <c r="AJ70" s="124"/>
+      <c r="AH70" s="144"/>
+      <c r="AI70" s="145"/>
+      <c r="AJ70" s="146"/>
       <c r="AK70" s="73"/>
-      <c r="AL70" s="122"/>
-      <c r="AM70" s="123"/>
-      <c r="AN70" s="124"/>
+      <c r="AL70" s="144"/>
+      <c r="AM70" s="145"/>
+      <c r="AN70" s="146"/>
       <c r="AO70" s="73"/>
-      <c r="AP70" s="122"/>
-      <c r="AQ70" s="123"/>
-      <c r="AR70" s="123"/>
+      <c r="AP70" s="144"/>
+      <c r="AQ70" s="145"/>
+      <c r="AR70" s="145"/>
       <c r="AS70" s="76"/>
-      <c r="AT70" s="122"/>
-      <c r="AU70" s="123"/>
-      <c r="AV70" s="124"/>
+      <c r="AT70" s="144"/>
+      <c r="AU70" s="145"/>
+      <c r="AV70" s="146"/>
       <c r="AW70" s="76"/>
-      <c r="AX70" s="122"/>
-      <c r="AY70" s="123"/>
-      <c r="AZ70" s="124"/>
+      <c r="AX70" s="144"/>
+      <c r="AY70" s="145"/>
+      <c r="AZ70" s="146"/>
       <c r="BA70" s="76"/>
-      <c r="BB70" s="122"/>
-      <c r="BC70" s="123"/>
-      <c r="BD70" s="124"/>
+      <c r="BB70" s="144"/>
+      <c r="BC70" s="145"/>
+      <c r="BD70" s="146"/>
       <c r="BE70" s="80"/>
       <c r="BF70" s="81"/>
     </row>
@@ -8558,37 +8558,37 @@
       <c r="W71" s="58"/>
       <c r="X71" s="61"/>
       <c r="Y71" s="70"/>
-      <c r="Z71" s="122"/>
-      <c r="AA71" s="123"/>
-      <c r="AB71" s="123"/>
+      <c r="Z71" s="144"/>
+      <c r="AA71" s="145"/>
+      <c r="AB71" s="145"/>
       <c r="AC71" s="71"/>
-      <c r="AD71" s="122"/>
-      <c r="AE71" s="123"/>
-      <c r="AF71" s="124"/>
+      <c r="AD71" s="144"/>
+      <c r="AE71" s="145"/>
+      <c r="AF71" s="146"/>
       <c r="AG71" s="73"/>
-      <c r="AH71" s="122"/>
-      <c r="AI71" s="123"/>
-      <c r="AJ71" s="124"/>
+      <c r="AH71" s="144"/>
+      <c r="AI71" s="145"/>
+      <c r="AJ71" s="146"/>
       <c r="AK71" s="73"/>
-      <c r="AL71" s="122"/>
-      <c r="AM71" s="123"/>
-      <c r="AN71" s="124"/>
+      <c r="AL71" s="144"/>
+      <c r="AM71" s="145"/>
+      <c r="AN71" s="146"/>
       <c r="AO71" s="73"/>
-      <c r="AP71" s="122"/>
-      <c r="AQ71" s="123"/>
-      <c r="AR71" s="123"/>
+      <c r="AP71" s="144"/>
+      <c r="AQ71" s="145"/>
+      <c r="AR71" s="145"/>
       <c r="AS71" s="76"/>
-      <c r="AT71" s="122"/>
-      <c r="AU71" s="123"/>
-      <c r="AV71" s="124"/>
+      <c r="AT71" s="144"/>
+      <c r="AU71" s="145"/>
+      <c r="AV71" s="146"/>
       <c r="AW71" s="76"/>
-      <c r="AX71" s="122"/>
-      <c r="AY71" s="123"/>
-      <c r="AZ71" s="124"/>
+      <c r="AX71" s="144"/>
+      <c r="AY71" s="145"/>
+      <c r="AZ71" s="146"/>
       <c r="BA71" s="76"/>
-      <c r="BB71" s="122"/>
-      <c r="BC71" s="123"/>
-      <c r="BD71" s="124"/>
+      <c r="BB71" s="144"/>
+      <c r="BC71" s="145"/>
+      <c r="BD71" s="146"/>
       <c r="BE71" s="80"/>
       <c r="BF71" s="81"/>
     </row>
@@ -8620,37 +8620,37 @@
       <c r="W72" s="58"/>
       <c r="X72" s="61"/>
       <c r="Y72" s="70"/>
-      <c r="Z72" s="122"/>
-      <c r="AA72" s="123"/>
-      <c r="AB72" s="123"/>
+      <c r="Z72" s="144"/>
+      <c r="AA72" s="145"/>
+      <c r="AB72" s="145"/>
       <c r="AC72" s="71"/>
-      <c r="AD72" s="122"/>
-      <c r="AE72" s="123"/>
-      <c r="AF72" s="124"/>
+      <c r="AD72" s="144"/>
+      <c r="AE72" s="145"/>
+      <c r="AF72" s="146"/>
       <c r="AG72" s="73"/>
-      <c r="AH72" s="122"/>
-      <c r="AI72" s="123"/>
-      <c r="AJ72" s="124"/>
+      <c r="AH72" s="144"/>
+      <c r="AI72" s="145"/>
+      <c r="AJ72" s="146"/>
       <c r="AK72" s="73"/>
-      <c r="AL72" s="122"/>
-      <c r="AM72" s="123"/>
-      <c r="AN72" s="124"/>
+      <c r="AL72" s="144"/>
+      <c r="AM72" s="145"/>
+      <c r="AN72" s="146"/>
       <c r="AO72" s="73"/>
-      <c r="AP72" s="122"/>
-      <c r="AQ72" s="123"/>
-      <c r="AR72" s="123"/>
+      <c r="AP72" s="144"/>
+      <c r="AQ72" s="145"/>
+      <c r="AR72" s="145"/>
       <c r="AS72" s="76"/>
-      <c r="AT72" s="122"/>
-      <c r="AU72" s="123"/>
-      <c r="AV72" s="124"/>
+      <c r="AT72" s="144"/>
+      <c r="AU72" s="145"/>
+      <c r="AV72" s="146"/>
       <c r="AW72" s="76"/>
-      <c r="AX72" s="122"/>
-      <c r="AY72" s="123"/>
-      <c r="AZ72" s="124"/>
+      <c r="AX72" s="144"/>
+      <c r="AY72" s="145"/>
+      <c r="AZ72" s="146"/>
       <c r="BA72" s="76"/>
-      <c r="BB72" s="122"/>
-      <c r="BC72" s="123"/>
-      <c r="BD72" s="124"/>
+      <c r="BB72" s="144"/>
+      <c r="BC72" s="145"/>
+      <c r="BD72" s="146"/>
       <c r="BE72" s="80"/>
       <c r="BF72" s="81"/>
     </row>
@@ -8682,37 +8682,37 @@
       <c r="W73" s="58"/>
       <c r="X73" s="61"/>
       <c r="Y73" s="70"/>
-      <c r="Z73" s="122"/>
-      <c r="AA73" s="123"/>
-      <c r="AB73" s="123"/>
+      <c r="Z73" s="144"/>
+      <c r="AA73" s="145"/>
+      <c r="AB73" s="145"/>
       <c r="AC73" s="71"/>
-      <c r="AD73" s="122"/>
-      <c r="AE73" s="123"/>
-      <c r="AF73" s="124"/>
+      <c r="AD73" s="144"/>
+      <c r="AE73" s="145"/>
+      <c r="AF73" s="146"/>
       <c r="AG73" s="73"/>
-      <c r="AH73" s="122"/>
-      <c r="AI73" s="123"/>
-      <c r="AJ73" s="124"/>
+      <c r="AH73" s="144"/>
+      <c r="AI73" s="145"/>
+      <c r="AJ73" s="146"/>
       <c r="AK73" s="73"/>
-      <c r="AL73" s="122"/>
-      <c r="AM73" s="123"/>
-      <c r="AN73" s="124"/>
+      <c r="AL73" s="144"/>
+      <c r="AM73" s="145"/>
+      <c r="AN73" s="146"/>
       <c r="AO73" s="73"/>
-      <c r="AP73" s="122"/>
-      <c r="AQ73" s="123"/>
-      <c r="AR73" s="123"/>
+      <c r="AP73" s="144"/>
+      <c r="AQ73" s="145"/>
+      <c r="AR73" s="145"/>
       <c r="AS73" s="76"/>
-      <c r="AT73" s="122"/>
-      <c r="AU73" s="123"/>
-      <c r="AV73" s="124"/>
+      <c r="AT73" s="144"/>
+      <c r="AU73" s="145"/>
+      <c r="AV73" s="146"/>
       <c r="AW73" s="76"/>
-      <c r="AX73" s="122"/>
-      <c r="AY73" s="123"/>
-      <c r="AZ73" s="124"/>
+      <c r="AX73" s="144"/>
+      <c r="AY73" s="145"/>
+      <c r="AZ73" s="146"/>
       <c r="BA73" s="76"/>
-      <c r="BB73" s="122"/>
-      <c r="BC73" s="123"/>
-      <c r="BD73" s="124"/>
+      <c r="BB73" s="144"/>
+      <c r="BC73" s="145"/>
+      <c r="BD73" s="146"/>
       <c r="BE73" s="80"/>
       <c r="BF73" s="81"/>
     </row>
@@ -8744,37 +8744,37 @@
       <c r="W74" s="58"/>
       <c r="X74" s="61"/>
       <c r="Y74" s="70"/>
-      <c r="Z74" s="122"/>
-      <c r="AA74" s="123"/>
-      <c r="AB74" s="123"/>
+      <c r="Z74" s="144"/>
+      <c r="AA74" s="145"/>
+      <c r="AB74" s="145"/>
       <c r="AC74" s="71"/>
-      <c r="AD74" s="122"/>
-      <c r="AE74" s="123"/>
-      <c r="AF74" s="124"/>
+      <c r="AD74" s="144"/>
+      <c r="AE74" s="145"/>
+      <c r="AF74" s="146"/>
       <c r="AG74" s="73"/>
-      <c r="AH74" s="122"/>
-      <c r="AI74" s="123"/>
-      <c r="AJ74" s="124"/>
+      <c r="AH74" s="144"/>
+      <c r="AI74" s="145"/>
+      <c r="AJ74" s="146"/>
       <c r="AK74" s="73"/>
-      <c r="AL74" s="122"/>
-      <c r="AM74" s="123"/>
-      <c r="AN74" s="124"/>
+      <c r="AL74" s="144"/>
+      <c r="AM74" s="145"/>
+      <c r="AN74" s="146"/>
       <c r="AO74" s="73"/>
-      <c r="AP74" s="122"/>
-      <c r="AQ74" s="123"/>
-      <c r="AR74" s="123"/>
+      <c r="AP74" s="144"/>
+      <c r="AQ74" s="145"/>
+      <c r="AR74" s="145"/>
       <c r="AS74" s="76"/>
-      <c r="AT74" s="122"/>
-      <c r="AU74" s="123"/>
-      <c r="AV74" s="124"/>
+      <c r="AT74" s="144"/>
+      <c r="AU74" s="145"/>
+      <c r="AV74" s="146"/>
       <c r="AW74" s="76"/>
-      <c r="AX74" s="122"/>
-      <c r="AY74" s="123"/>
-      <c r="AZ74" s="124"/>
+      <c r="AX74" s="144"/>
+      <c r="AY74" s="145"/>
+      <c r="AZ74" s="146"/>
       <c r="BA74" s="76"/>
-      <c r="BB74" s="122"/>
-      <c r="BC74" s="123"/>
-      <c r="BD74" s="124"/>
+      <c r="BB74" s="144"/>
+      <c r="BC74" s="145"/>
+      <c r="BD74" s="146"/>
       <c r="BE74" s="80"/>
       <c r="BF74" s="81"/>
     </row>
@@ -8806,37 +8806,37 @@
       <c r="W75" s="58"/>
       <c r="X75" s="61"/>
       <c r="Y75" s="70"/>
-      <c r="Z75" s="122"/>
-      <c r="AA75" s="123"/>
-      <c r="AB75" s="123"/>
+      <c r="Z75" s="144"/>
+      <c r="AA75" s="145"/>
+      <c r="AB75" s="145"/>
       <c r="AC75" s="71"/>
-      <c r="AD75" s="122"/>
-      <c r="AE75" s="123"/>
-      <c r="AF75" s="124"/>
+      <c r="AD75" s="144"/>
+      <c r="AE75" s="145"/>
+      <c r="AF75" s="146"/>
       <c r="AG75" s="73"/>
-      <c r="AH75" s="122"/>
-      <c r="AI75" s="123"/>
-      <c r="AJ75" s="124"/>
+      <c r="AH75" s="144"/>
+      <c r="AI75" s="145"/>
+      <c r="AJ75" s="146"/>
       <c r="AK75" s="73"/>
-      <c r="AL75" s="122"/>
-      <c r="AM75" s="123"/>
-      <c r="AN75" s="124"/>
+      <c r="AL75" s="144"/>
+      <c r="AM75" s="145"/>
+      <c r="AN75" s="146"/>
       <c r="AO75" s="73"/>
-      <c r="AP75" s="122"/>
-      <c r="AQ75" s="123"/>
-      <c r="AR75" s="123"/>
+      <c r="AP75" s="144"/>
+      <c r="AQ75" s="145"/>
+      <c r="AR75" s="145"/>
       <c r="AS75" s="76"/>
-      <c r="AT75" s="122"/>
-      <c r="AU75" s="123"/>
-      <c r="AV75" s="124"/>
+      <c r="AT75" s="144"/>
+      <c r="AU75" s="145"/>
+      <c r="AV75" s="146"/>
       <c r="AW75" s="76"/>
-      <c r="AX75" s="122"/>
-      <c r="AY75" s="123"/>
-      <c r="AZ75" s="124"/>
+      <c r="AX75" s="144"/>
+      <c r="AY75" s="145"/>
+      <c r="AZ75" s="146"/>
       <c r="BA75" s="76"/>
-      <c r="BB75" s="122"/>
-      <c r="BC75" s="123"/>
-      <c r="BD75" s="124"/>
+      <c r="BB75" s="144"/>
+      <c r="BC75" s="145"/>
+      <c r="BD75" s="146"/>
       <c r="BE75" s="80"/>
       <c r="BF75" s="81"/>
     </row>
@@ -8868,37 +8868,37 @@
       <c r="W76" s="58"/>
       <c r="X76" s="61"/>
       <c r="Y76" s="70"/>
-      <c r="Z76" s="122"/>
-      <c r="AA76" s="123"/>
-      <c r="AB76" s="123"/>
+      <c r="Z76" s="144"/>
+      <c r="AA76" s="145"/>
+      <c r="AB76" s="145"/>
       <c r="AC76" s="71"/>
-      <c r="AD76" s="122"/>
-      <c r="AE76" s="123"/>
-      <c r="AF76" s="124"/>
+      <c r="AD76" s="144"/>
+      <c r="AE76" s="145"/>
+      <c r="AF76" s="146"/>
       <c r="AG76" s="73"/>
-      <c r="AH76" s="122"/>
-      <c r="AI76" s="123"/>
-      <c r="AJ76" s="124"/>
+      <c r="AH76" s="144"/>
+      <c r="AI76" s="145"/>
+      <c r="AJ76" s="146"/>
       <c r="AK76" s="73"/>
-      <c r="AL76" s="122"/>
-      <c r="AM76" s="123"/>
-      <c r="AN76" s="124"/>
+      <c r="AL76" s="144"/>
+      <c r="AM76" s="145"/>
+      <c r="AN76" s="146"/>
       <c r="AO76" s="73"/>
-      <c r="AP76" s="122"/>
-      <c r="AQ76" s="123"/>
-      <c r="AR76" s="123"/>
+      <c r="AP76" s="144"/>
+      <c r="AQ76" s="145"/>
+      <c r="AR76" s="145"/>
       <c r="AS76" s="76"/>
-      <c r="AT76" s="122"/>
-      <c r="AU76" s="123"/>
-      <c r="AV76" s="124"/>
+      <c r="AT76" s="144"/>
+      <c r="AU76" s="145"/>
+      <c r="AV76" s="146"/>
       <c r="AW76" s="76"/>
-      <c r="AX76" s="122"/>
-      <c r="AY76" s="123"/>
-      <c r="AZ76" s="124"/>
+      <c r="AX76" s="144"/>
+      <c r="AY76" s="145"/>
+      <c r="AZ76" s="146"/>
       <c r="BA76" s="76"/>
-      <c r="BB76" s="122"/>
-      <c r="BC76" s="123"/>
-      <c r="BD76" s="124"/>
+      <c r="BB76" s="144"/>
+      <c r="BC76" s="145"/>
+      <c r="BD76" s="146"/>
       <c r="BE76" s="80"/>
       <c r="BF76" s="81"/>
     </row>
@@ -8930,37 +8930,37 @@
       <c r="W77" s="58"/>
       <c r="X77" s="61"/>
       <c r="Y77" s="70"/>
-      <c r="Z77" s="122"/>
-      <c r="AA77" s="123"/>
-      <c r="AB77" s="123"/>
+      <c r="Z77" s="144"/>
+      <c r="AA77" s="145"/>
+      <c r="AB77" s="145"/>
       <c r="AC77" s="71"/>
-      <c r="AD77" s="122"/>
-      <c r="AE77" s="123"/>
-      <c r="AF77" s="124"/>
+      <c r="AD77" s="144"/>
+      <c r="AE77" s="145"/>
+      <c r="AF77" s="146"/>
       <c r="AG77" s="73"/>
-      <c r="AH77" s="122"/>
-      <c r="AI77" s="123"/>
-      <c r="AJ77" s="124"/>
+      <c r="AH77" s="144"/>
+      <c r="AI77" s="145"/>
+      <c r="AJ77" s="146"/>
       <c r="AK77" s="73"/>
-      <c r="AL77" s="122"/>
-      <c r="AM77" s="123"/>
-      <c r="AN77" s="124"/>
+      <c r="AL77" s="144"/>
+      <c r="AM77" s="145"/>
+      <c r="AN77" s="146"/>
       <c r="AO77" s="73"/>
-      <c r="AP77" s="122"/>
-      <c r="AQ77" s="123"/>
-      <c r="AR77" s="123"/>
+      <c r="AP77" s="144"/>
+      <c r="AQ77" s="145"/>
+      <c r="AR77" s="145"/>
       <c r="AS77" s="76"/>
-      <c r="AT77" s="122"/>
-      <c r="AU77" s="123"/>
-      <c r="AV77" s="124"/>
+      <c r="AT77" s="144"/>
+      <c r="AU77" s="145"/>
+      <c r="AV77" s="146"/>
       <c r="AW77" s="76"/>
-      <c r="AX77" s="122"/>
-      <c r="AY77" s="123"/>
-      <c r="AZ77" s="124"/>
+      <c r="AX77" s="144"/>
+      <c r="AY77" s="145"/>
+      <c r="AZ77" s="146"/>
       <c r="BA77" s="76"/>
-      <c r="BB77" s="122"/>
-      <c r="BC77" s="123"/>
-      <c r="BD77" s="124"/>
+      <c r="BB77" s="144"/>
+      <c r="BC77" s="145"/>
+      <c r="BD77" s="146"/>
       <c r="BE77" s="80"/>
       <c r="BF77" s="81"/>
     </row>
@@ -8992,37 +8992,37 @@
       <c r="W78" s="96"/>
       <c r="X78" s="97"/>
       <c r="Y78" s="99"/>
-      <c r="Z78" s="115"/>
-      <c r="AA78" s="115"/>
-      <c r="AB78" s="116"/>
+      <c r="Z78" s="147"/>
+      <c r="AA78" s="147"/>
+      <c r="AB78" s="148"/>
       <c r="AC78" s="100"/>
-      <c r="AD78" s="115"/>
-      <c r="AE78" s="115"/>
-      <c r="AF78" s="117"/>
+      <c r="AD78" s="147"/>
+      <c r="AE78" s="147"/>
+      <c r="AF78" s="149"/>
       <c r="AG78" s="101"/>
-      <c r="AH78" s="115"/>
-      <c r="AI78" s="115"/>
-      <c r="AJ78" s="117"/>
+      <c r="AH78" s="147"/>
+      <c r="AI78" s="147"/>
+      <c r="AJ78" s="149"/>
       <c r="AK78" s="101"/>
-      <c r="AL78" s="115"/>
-      <c r="AM78" s="115"/>
-      <c r="AN78" s="117"/>
+      <c r="AL78" s="147"/>
+      <c r="AM78" s="147"/>
+      <c r="AN78" s="149"/>
       <c r="AO78" s="101"/>
-      <c r="AP78" s="115"/>
-      <c r="AQ78" s="115"/>
-      <c r="AR78" s="116"/>
+      <c r="AP78" s="147"/>
+      <c r="AQ78" s="147"/>
+      <c r="AR78" s="148"/>
       <c r="AS78" s="102"/>
-      <c r="AT78" s="116"/>
-      <c r="AU78" s="118"/>
-      <c r="AV78" s="119"/>
+      <c r="AT78" s="148"/>
+      <c r="AU78" s="150"/>
+      <c r="AV78" s="151"/>
       <c r="AW78" s="102"/>
-      <c r="AX78" s="116"/>
-      <c r="AY78" s="118"/>
-      <c r="AZ78" s="119"/>
+      <c r="AX78" s="148"/>
+      <c r="AY78" s="150"/>
+      <c r="AZ78" s="151"/>
       <c r="BA78" s="102"/>
-      <c r="BB78" s="116"/>
-      <c r="BC78" s="118"/>
-      <c r="BD78" s="119"/>
+      <c r="BB78" s="148"/>
+      <c r="BC78" s="150"/>
+      <c r="BD78" s="151"/>
       <c r="BE78" s="103"/>
       <c r="BF78" s="104"/>
     </row>
@@ -9215,596 +9215,6 @@
   </sheetData>
   <autoFilter ref="A4:BL78"/>
   <mergeCells count="614">
-    <mergeCell ref="A1:BF1"/>
-    <mergeCell ref="B3:H3"/>
-    <mergeCell ref="I3:R3"/>
-    <mergeCell ref="S3:X3"/>
-    <mergeCell ref="Y3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="AK3:AN3"/>
-    <mergeCell ref="AO3:AR3"/>
-    <mergeCell ref="AS3:AV3"/>
-    <mergeCell ref="AW3:AZ3"/>
-    <mergeCell ref="BA3:BD3"/>
-    <mergeCell ref="BE3:BF3"/>
-    <mergeCell ref="Z4:AB4"/>
-    <mergeCell ref="AD4:AF4"/>
-    <mergeCell ref="AH4:AJ4"/>
-    <mergeCell ref="AL4:AN4"/>
-    <mergeCell ref="AP4:AR4"/>
-    <mergeCell ref="AT4:AV4"/>
-    <mergeCell ref="AX4:AZ4"/>
-    <mergeCell ref="BB4:BD4"/>
-    <mergeCell ref="Z5:AB5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="AH5:AJ5"/>
-    <mergeCell ref="AL5:AN5"/>
-    <mergeCell ref="AP5:AR5"/>
-    <mergeCell ref="AT5:AV5"/>
-    <mergeCell ref="AX5:AZ5"/>
-    <mergeCell ref="BB5:BD5"/>
-    <mergeCell ref="Z6:AB6"/>
-    <mergeCell ref="AD6:AF6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AP6:AR6"/>
-    <mergeCell ref="AT6:AV6"/>
-    <mergeCell ref="AX6:AZ6"/>
-    <mergeCell ref="BB6:BD6"/>
-    <mergeCell ref="Z7:AB7"/>
-    <mergeCell ref="AD7:AF7"/>
-    <mergeCell ref="AH7:AJ7"/>
-    <mergeCell ref="AL7:AN7"/>
-    <mergeCell ref="AP7:AR7"/>
-    <mergeCell ref="AT7:AV7"/>
-    <mergeCell ref="AX7:AZ7"/>
-    <mergeCell ref="BB7:BD7"/>
-    <mergeCell ref="Z8:AB8"/>
-    <mergeCell ref="AD8:AF8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="AL8:AN8"/>
-    <mergeCell ref="AP8:AR8"/>
-    <mergeCell ref="AT8:AV8"/>
-    <mergeCell ref="AX8:AZ8"/>
-    <mergeCell ref="BB8:BD8"/>
-    <mergeCell ref="Z9:AB9"/>
-    <mergeCell ref="AD9:AF9"/>
-    <mergeCell ref="AH9:AJ9"/>
-    <mergeCell ref="AL9:AN9"/>
-    <mergeCell ref="AP9:AR9"/>
-    <mergeCell ref="AT9:AV9"/>
-    <mergeCell ref="AX9:AZ9"/>
-    <mergeCell ref="BB9:BD9"/>
-    <mergeCell ref="Z10:AB10"/>
-    <mergeCell ref="AD10:AF10"/>
-    <mergeCell ref="AH10:AJ10"/>
-    <mergeCell ref="AL10:AN10"/>
-    <mergeCell ref="AP10:AR10"/>
-    <mergeCell ref="AT10:AV10"/>
-    <mergeCell ref="AX10:AZ10"/>
-    <mergeCell ref="BB10:BD10"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="AD11:AF11"/>
-    <mergeCell ref="AH11:AJ11"/>
-    <mergeCell ref="AL11:AN11"/>
-    <mergeCell ref="AP11:AR11"/>
-    <mergeCell ref="AT11:AV11"/>
-    <mergeCell ref="AX11:AZ11"/>
-    <mergeCell ref="BB11:BD11"/>
-    <mergeCell ref="Z12:AB12"/>
-    <mergeCell ref="AD12:AF12"/>
-    <mergeCell ref="AH12:AJ12"/>
-    <mergeCell ref="AL12:AN12"/>
-    <mergeCell ref="AP12:AR12"/>
-    <mergeCell ref="AT12:AV12"/>
-    <mergeCell ref="AX12:AZ12"/>
-    <mergeCell ref="BB12:BD12"/>
-    <mergeCell ref="Z13:AB13"/>
-    <mergeCell ref="AD13:AF13"/>
-    <mergeCell ref="AH13:AJ13"/>
-    <mergeCell ref="AL13:AN13"/>
-    <mergeCell ref="AP13:AR13"/>
-    <mergeCell ref="AT13:AV13"/>
-    <mergeCell ref="AX13:AZ13"/>
-    <mergeCell ref="BB13:BD13"/>
-    <mergeCell ref="Z14:AB14"/>
-    <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AL14:AN14"/>
-    <mergeCell ref="AP14:AR14"/>
-    <mergeCell ref="AT14:AV14"/>
-    <mergeCell ref="AX14:AZ14"/>
-    <mergeCell ref="BB14:BD14"/>
-    <mergeCell ref="Z15:AB15"/>
-    <mergeCell ref="AD15:AF15"/>
-    <mergeCell ref="AH15:AJ15"/>
-    <mergeCell ref="AL15:AN15"/>
-    <mergeCell ref="AP15:AR15"/>
-    <mergeCell ref="AT15:AV15"/>
-    <mergeCell ref="AX15:AZ15"/>
-    <mergeCell ref="BB15:BD15"/>
-    <mergeCell ref="Z16:AB16"/>
-    <mergeCell ref="AD16:AF16"/>
-    <mergeCell ref="AH16:AJ16"/>
-    <mergeCell ref="AL16:AN16"/>
-    <mergeCell ref="AP16:AR16"/>
-    <mergeCell ref="AT16:AV16"/>
-    <mergeCell ref="AX16:AZ16"/>
-    <mergeCell ref="BB16:BD16"/>
-    <mergeCell ref="Z17:AB17"/>
-    <mergeCell ref="AD17:AF17"/>
-    <mergeCell ref="AH17:AJ17"/>
-    <mergeCell ref="AL17:AN17"/>
-    <mergeCell ref="AP17:AR17"/>
-    <mergeCell ref="AT17:AV17"/>
-    <mergeCell ref="AX17:AZ17"/>
-    <mergeCell ref="BB17:BD17"/>
-    <mergeCell ref="Z18:AB18"/>
-    <mergeCell ref="AD18:AF18"/>
-    <mergeCell ref="AH18:AJ18"/>
-    <mergeCell ref="AL18:AN18"/>
-    <mergeCell ref="AP18:AR18"/>
-    <mergeCell ref="AT18:AV18"/>
-    <mergeCell ref="AX18:AZ18"/>
-    <mergeCell ref="BB18:BD18"/>
-    <mergeCell ref="Z19:AB19"/>
-    <mergeCell ref="AD19:AF19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AL19:AN19"/>
-    <mergeCell ref="AP19:AR19"/>
-    <mergeCell ref="AT19:AV19"/>
-    <mergeCell ref="AX19:AZ19"/>
-    <mergeCell ref="BB19:BD19"/>
-    <mergeCell ref="Z20:AB20"/>
-    <mergeCell ref="AD20:AF20"/>
-    <mergeCell ref="AH20:AJ20"/>
-    <mergeCell ref="AL20:AN20"/>
-    <mergeCell ref="AP20:AR20"/>
-    <mergeCell ref="AT20:AV20"/>
-    <mergeCell ref="AX20:AZ20"/>
-    <mergeCell ref="BB20:BD20"/>
-    <mergeCell ref="Z21:AB21"/>
-    <mergeCell ref="AD21:AF21"/>
-    <mergeCell ref="AH21:AJ21"/>
-    <mergeCell ref="AL21:AN21"/>
-    <mergeCell ref="AP21:AR21"/>
-    <mergeCell ref="AT21:AV21"/>
-    <mergeCell ref="AX21:AZ21"/>
-    <mergeCell ref="BB21:BD21"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="AD22:AF22"/>
-    <mergeCell ref="AH22:AJ22"/>
-    <mergeCell ref="AL22:AN22"/>
-    <mergeCell ref="AP22:AR22"/>
-    <mergeCell ref="AT22:AV22"/>
-    <mergeCell ref="AX22:AZ22"/>
-    <mergeCell ref="BB22:BD22"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AD23:AF23"/>
-    <mergeCell ref="AH23:AJ23"/>
-    <mergeCell ref="AL23:AN23"/>
-    <mergeCell ref="AP23:AR23"/>
-    <mergeCell ref="AT23:AV23"/>
-    <mergeCell ref="AX23:AZ23"/>
-    <mergeCell ref="BB23:BD23"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="AH24:AJ24"/>
-    <mergeCell ref="AL24:AN24"/>
-    <mergeCell ref="AP24:AR24"/>
-    <mergeCell ref="AT24:AV24"/>
-    <mergeCell ref="AX24:AZ24"/>
-    <mergeCell ref="BB24:BD24"/>
-    <mergeCell ref="Z25:AB25"/>
-    <mergeCell ref="AD25:AF25"/>
-    <mergeCell ref="AH25:AJ25"/>
-    <mergeCell ref="AL25:AN25"/>
-    <mergeCell ref="AP25:AR25"/>
-    <mergeCell ref="AT25:AV25"/>
-    <mergeCell ref="AX25:AZ25"/>
-    <mergeCell ref="BB25:BD25"/>
-    <mergeCell ref="Z26:AB26"/>
-    <mergeCell ref="AD26:AF26"/>
-    <mergeCell ref="AH26:AJ26"/>
-    <mergeCell ref="AL26:AN26"/>
-    <mergeCell ref="AP26:AR26"/>
-    <mergeCell ref="AT26:AV26"/>
-    <mergeCell ref="AX26:AZ26"/>
-    <mergeCell ref="BB26:BD26"/>
-    <mergeCell ref="Z27:AB27"/>
-    <mergeCell ref="AD27:AF27"/>
-    <mergeCell ref="AH27:AJ27"/>
-    <mergeCell ref="AL27:AN27"/>
-    <mergeCell ref="AP27:AR27"/>
-    <mergeCell ref="AT27:AV27"/>
-    <mergeCell ref="AX27:AZ27"/>
-    <mergeCell ref="BB27:BD27"/>
-    <mergeCell ref="Z28:AB28"/>
-    <mergeCell ref="AD28:AF28"/>
-    <mergeCell ref="AH28:AJ28"/>
-    <mergeCell ref="AL28:AN28"/>
-    <mergeCell ref="AP28:AR28"/>
-    <mergeCell ref="AT28:AV28"/>
-    <mergeCell ref="AX28:AZ28"/>
-    <mergeCell ref="BB28:BD28"/>
-    <mergeCell ref="Z29:AB29"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="AH29:AJ29"/>
-    <mergeCell ref="AL29:AN29"/>
-    <mergeCell ref="AP29:AR29"/>
-    <mergeCell ref="AT29:AV29"/>
-    <mergeCell ref="AX29:AZ29"/>
-    <mergeCell ref="BB29:BD29"/>
-    <mergeCell ref="Z30:AB30"/>
-    <mergeCell ref="AD30:AF30"/>
-    <mergeCell ref="AH30:AJ30"/>
-    <mergeCell ref="AL30:AN30"/>
-    <mergeCell ref="AP30:AR30"/>
-    <mergeCell ref="AT30:AV30"/>
-    <mergeCell ref="AX30:AZ30"/>
-    <mergeCell ref="BB30:BD30"/>
-    <mergeCell ref="Z31:AB31"/>
-    <mergeCell ref="AD31:AF31"/>
-    <mergeCell ref="AH31:AJ31"/>
-    <mergeCell ref="AL31:AN31"/>
-    <mergeCell ref="AP31:AR31"/>
-    <mergeCell ref="AT31:AV31"/>
-    <mergeCell ref="AX31:AZ31"/>
-    <mergeCell ref="BB31:BD31"/>
-    <mergeCell ref="Z32:AB32"/>
-    <mergeCell ref="AD32:AF32"/>
-    <mergeCell ref="AH32:AJ32"/>
-    <mergeCell ref="AL32:AN32"/>
-    <mergeCell ref="AP32:AR32"/>
-    <mergeCell ref="AT32:AV32"/>
-    <mergeCell ref="AX32:AZ32"/>
-    <mergeCell ref="BB32:BD32"/>
-    <mergeCell ref="Z33:AB33"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="AH33:AJ33"/>
-    <mergeCell ref="AL33:AN33"/>
-    <mergeCell ref="AP33:AR33"/>
-    <mergeCell ref="AT33:AV33"/>
-    <mergeCell ref="AX33:AZ33"/>
-    <mergeCell ref="BB33:BD33"/>
-    <mergeCell ref="Z34:AB34"/>
-    <mergeCell ref="AD34:AF34"/>
-    <mergeCell ref="AH34:AJ34"/>
-    <mergeCell ref="AL34:AN34"/>
-    <mergeCell ref="AP34:AR34"/>
-    <mergeCell ref="AT34:AV34"/>
-    <mergeCell ref="AX34:AZ34"/>
-    <mergeCell ref="BB34:BD34"/>
-    <mergeCell ref="Z35:AB35"/>
-    <mergeCell ref="AD35:AF35"/>
-    <mergeCell ref="AH35:AJ35"/>
-    <mergeCell ref="AL35:AN35"/>
-    <mergeCell ref="AP35:AR35"/>
-    <mergeCell ref="AT35:AV35"/>
-    <mergeCell ref="AX35:AZ35"/>
-    <mergeCell ref="BB35:BD35"/>
-    <mergeCell ref="Z36:AB36"/>
-    <mergeCell ref="AD36:AF36"/>
-    <mergeCell ref="AH36:AJ36"/>
-    <mergeCell ref="AL36:AN36"/>
-    <mergeCell ref="AP36:AR36"/>
-    <mergeCell ref="AT36:AV36"/>
-    <mergeCell ref="AX36:AZ36"/>
-    <mergeCell ref="BB36:BD36"/>
-    <mergeCell ref="Z37:AB37"/>
-    <mergeCell ref="AD37:AF37"/>
-    <mergeCell ref="AH37:AJ37"/>
-    <mergeCell ref="AL37:AN37"/>
-    <mergeCell ref="AP37:AR37"/>
-    <mergeCell ref="AT37:AV37"/>
-    <mergeCell ref="AX37:AZ37"/>
-    <mergeCell ref="BB37:BD37"/>
-    <mergeCell ref="Z38:AB38"/>
-    <mergeCell ref="AD38:AF38"/>
-    <mergeCell ref="AH38:AJ38"/>
-    <mergeCell ref="AL38:AN38"/>
-    <mergeCell ref="AP38:AR38"/>
-    <mergeCell ref="AT38:AV38"/>
-    <mergeCell ref="AX38:AZ38"/>
-    <mergeCell ref="BB38:BD38"/>
-    <mergeCell ref="Z39:AB39"/>
-    <mergeCell ref="AD39:AF39"/>
-    <mergeCell ref="AH39:AJ39"/>
-    <mergeCell ref="AL39:AN39"/>
-    <mergeCell ref="AP39:AR39"/>
-    <mergeCell ref="AT39:AV39"/>
-    <mergeCell ref="AX39:AZ39"/>
-    <mergeCell ref="BB39:BD39"/>
-    <mergeCell ref="Z40:AB40"/>
-    <mergeCell ref="AD40:AF40"/>
-    <mergeCell ref="AH40:AJ40"/>
-    <mergeCell ref="AL40:AN40"/>
-    <mergeCell ref="AP40:AR40"/>
-    <mergeCell ref="AT40:AV40"/>
-    <mergeCell ref="AX40:AZ40"/>
-    <mergeCell ref="BB40:BD40"/>
-    <mergeCell ref="Z41:AB41"/>
-    <mergeCell ref="AD41:AF41"/>
-    <mergeCell ref="AH41:AJ41"/>
-    <mergeCell ref="AL41:AN41"/>
-    <mergeCell ref="AP41:AR41"/>
-    <mergeCell ref="AT41:AV41"/>
-    <mergeCell ref="AX41:AZ41"/>
-    <mergeCell ref="BB41:BD41"/>
-    <mergeCell ref="Z42:AB42"/>
-    <mergeCell ref="AD42:AF42"/>
-    <mergeCell ref="AH42:AJ42"/>
-    <mergeCell ref="AL42:AN42"/>
-    <mergeCell ref="AP42:AR42"/>
-    <mergeCell ref="AT42:AV42"/>
-    <mergeCell ref="AX42:AZ42"/>
-    <mergeCell ref="BB42:BD42"/>
-    <mergeCell ref="Z43:AB43"/>
-    <mergeCell ref="AD43:AF43"/>
-    <mergeCell ref="AH43:AJ43"/>
-    <mergeCell ref="AL43:AN43"/>
-    <mergeCell ref="AP43:AR43"/>
-    <mergeCell ref="AT43:AV43"/>
-    <mergeCell ref="AX43:AZ43"/>
-    <mergeCell ref="BB43:BD43"/>
-    <mergeCell ref="Z44:AB44"/>
-    <mergeCell ref="AD44:AF44"/>
-    <mergeCell ref="AH44:AJ44"/>
-    <mergeCell ref="AL44:AN44"/>
-    <mergeCell ref="AP44:AR44"/>
-    <mergeCell ref="AT44:AV44"/>
-    <mergeCell ref="AX44:AZ44"/>
-    <mergeCell ref="BB44:BD44"/>
-    <mergeCell ref="Z45:AB45"/>
-    <mergeCell ref="AD45:AF45"/>
-    <mergeCell ref="AH45:AJ45"/>
-    <mergeCell ref="AL45:AN45"/>
-    <mergeCell ref="AP45:AR45"/>
-    <mergeCell ref="AT45:AV45"/>
-    <mergeCell ref="AX45:AZ45"/>
-    <mergeCell ref="BB45:BD45"/>
-    <mergeCell ref="Z46:AB46"/>
-    <mergeCell ref="AD46:AF46"/>
-    <mergeCell ref="AH46:AJ46"/>
-    <mergeCell ref="AL46:AN46"/>
-    <mergeCell ref="AP46:AR46"/>
-    <mergeCell ref="AT46:AV46"/>
-    <mergeCell ref="AX46:AZ46"/>
-    <mergeCell ref="BB46:BD46"/>
-    <mergeCell ref="Z47:AB47"/>
-    <mergeCell ref="AD47:AF47"/>
-    <mergeCell ref="AH47:AJ47"/>
-    <mergeCell ref="AL47:AN47"/>
-    <mergeCell ref="AP47:AR47"/>
-    <mergeCell ref="AT47:AV47"/>
-    <mergeCell ref="AX47:AZ47"/>
-    <mergeCell ref="BB47:BD47"/>
-    <mergeCell ref="Z48:AB48"/>
-    <mergeCell ref="AD48:AF48"/>
-    <mergeCell ref="AH48:AJ48"/>
-    <mergeCell ref="AL48:AN48"/>
-    <mergeCell ref="AP48:AR48"/>
-    <mergeCell ref="AT48:AV48"/>
-    <mergeCell ref="AX48:AZ48"/>
-    <mergeCell ref="BB48:BD48"/>
-    <mergeCell ref="Z49:AB49"/>
-    <mergeCell ref="AD49:AF49"/>
-    <mergeCell ref="AH49:AJ49"/>
-    <mergeCell ref="AL49:AN49"/>
-    <mergeCell ref="AP49:AR49"/>
-    <mergeCell ref="AT49:AV49"/>
-    <mergeCell ref="AX49:AZ49"/>
-    <mergeCell ref="BB49:BD49"/>
-    <mergeCell ref="Z50:AB50"/>
-    <mergeCell ref="AD50:AF50"/>
-    <mergeCell ref="AH50:AJ50"/>
-    <mergeCell ref="AL50:AN50"/>
-    <mergeCell ref="AP50:AR50"/>
-    <mergeCell ref="AT50:AV50"/>
-    <mergeCell ref="AX50:AZ50"/>
-    <mergeCell ref="BB50:BD50"/>
-    <mergeCell ref="Z51:AB51"/>
-    <mergeCell ref="AD51:AF51"/>
-    <mergeCell ref="AH51:AJ51"/>
-    <mergeCell ref="AL51:AN51"/>
-    <mergeCell ref="AP51:AR51"/>
-    <mergeCell ref="AT51:AV51"/>
-    <mergeCell ref="AX51:AZ51"/>
-    <mergeCell ref="BB51:BD51"/>
-    <mergeCell ref="Z52:AB52"/>
-    <mergeCell ref="AD52:AF52"/>
-    <mergeCell ref="AH52:AJ52"/>
-    <mergeCell ref="AL52:AN52"/>
-    <mergeCell ref="AP52:AR52"/>
-    <mergeCell ref="AT52:AV52"/>
-    <mergeCell ref="AX52:AZ52"/>
-    <mergeCell ref="BB52:BD52"/>
-    <mergeCell ref="Z53:AB53"/>
-    <mergeCell ref="AD53:AF53"/>
-    <mergeCell ref="AH53:AJ53"/>
-    <mergeCell ref="AL53:AN53"/>
-    <mergeCell ref="AP53:AR53"/>
-    <mergeCell ref="AT53:AV53"/>
-    <mergeCell ref="AX53:AZ53"/>
-    <mergeCell ref="BB53:BD53"/>
-    <mergeCell ref="Z54:AB54"/>
-    <mergeCell ref="AD54:AF54"/>
-    <mergeCell ref="AH54:AJ54"/>
-    <mergeCell ref="AL54:AN54"/>
-    <mergeCell ref="AP54:AR54"/>
-    <mergeCell ref="AT54:AV54"/>
-    <mergeCell ref="AX54:AZ54"/>
-    <mergeCell ref="BB54:BD54"/>
-    <mergeCell ref="Z55:AB55"/>
-    <mergeCell ref="AD55:AF55"/>
-    <mergeCell ref="AH55:AJ55"/>
-    <mergeCell ref="AL55:AN55"/>
-    <mergeCell ref="AP55:AR55"/>
-    <mergeCell ref="AT55:AV55"/>
-    <mergeCell ref="AX55:AZ55"/>
-    <mergeCell ref="BB55:BD55"/>
-    <mergeCell ref="Z56:AB56"/>
-    <mergeCell ref="AD56:AF56"/>
-    <mergeCell ref="AH56:AJ56"/>
-    <mergeCell ref="AL56:AN56"/>
-    <mergeCell ref="AP56:AR56"/>
-    <mergeCell ref="AT56:AV56"/>
-    <mergeCell ref="AX56:AZ56"/>
-    <mergeCell ref="BB56:BD56"/>
-    <mergeCell ref="Z57:AB57"/>
-    <mergeCell ref="AD57:AF57"/>
-    <mergeCell ref="AH57:AJ57"/>
-    <mergeCell ref="AL57:AN57"/>
-    <mergeCell ref="AP57:AR57"/>
-    <mergeCell ref="AT57:AV57"/>
-    <mergeCell ref="AX57:AZ57"/>
-    <mergeCell ref="BB57:BD57"/>
-    <mergeCell ref="Z58:AB58"/>
-    <mergeCell ref="AD58:AF58"/>
-    <mergeCell ref="AH58:AJ58"/>
-    <mergeCell ref="AL58:AN58"/>
-    <mergeCell ref="AP58:AR58"/>
-    <mergeCell ref="AT58:AV58"/>
-    <mergeCell ref="AX58:AZ58"/>
-    <mergeCell ref="BB58:BD58"/>
-    <mergeCell ref="Z59:AB59"/>
-    <mergeCell ref="AD59:AF59"/>
-    <mergeCell ref="AH59:AJ59"/>
-    <mergeCell ref="AL59:AN59"/>
-    <mergeCell ref="AP59:AR59"/>
-    <mergeCell ref="AT59:AV59"/>
-    <mergeCell ref="AX59:AZ59"/>
-    <mergeCell ref="BB59:BD59"/>
-    <mergeCell ref="Z60:AB60"/>
-    <mergeCell ref="AD60:AF60"/>
-    <mergeCell ref="AH60:AJ60"/>
-    <mergeCell ref="AL60:AN60"/>
-    <mergeCell ref="AP60:AR60"/>
-    <mergeCell ref="AT60:AV60"/>
-    <mergeCell ref="AX60:AZ60"/>
-    <mergeCell ref="BB60:BD60"/>
-    <mergeCell ref="Z61:AB61"/>
-    <mergeCell ref="AD61:AF61"/>
-    <mergeCell ref="AH61:AJ61"/>
-    <mergeCell ref="AL61:AN61"/>
-    <mergeCell ref="AP61:AR61"/>
-    <mergeCell ref="AT61:AV61"/>
-    <mergeCell ref="AX61:AZ61"/>
-    <mergeCell ref="BB61:BD61"/>
-    <mergeCell ref="Z62:AB62"/>
-    <mergeCell ref="AD62:AF62"/>
-    <mergeCell ref="AH62:AJ62"/>
-    <mergeCell ref="AL62:AN62"/>
-    <mergeCell ref="AP62:AR62"/>
-    <mergeCell ref="AT62:AV62"/>
-    <mergeCell ref="AX62:AZ62"/>
-    <mergeCell ref="BB62:BD62"/>
-    <mergeCell ref="Z63:AB63"/>
-    <mergeCell ref="AD63:AF63"/>
-    <mergeCell ref="AH63:AJ63"/>
-    <mergeCell ref="AL63:AN63"/>
-    <mergeCell ref="AP63:AR63"/>
-    <mergeCell ref="AT63:AV63"/>
-    <mergeCell ref="AX63:AZ63"/>
-    <mergeCell ref="BB63:BD63"/>
-    <mergeCell ref="Z64:AB64"/>
-    <mergeCell ref="AD64:AF64"/>
-    <mergeCell ref="AH64:AJ64"/>
-    <mergeCell ref="AL64:AN64"/>
-    <mergeCell ref="AP64:AR64"/>
-    <mergeCell ref="AT64:AV64"/>
-    <mergeCell ref="AX64:AZ64"/>
-    <mergeCell ref="BB64:BD64"/>
-    <mergeCell ref="Z65:AB65"/>
-    <mergeCell ref="AD65:AF65"/>
-    <mergeCell ref="AH65:AJ65"/>
-    <mergeCell ref="AL65:AN65"/>
-    <mergeCell ref="AP65:AR65"/>
-    <mergeCell ref="AT65:AV65"/>
-    <mergeCell ref="AX65:AZ65"/>
-    <mergeCell ref="BB65:BD65"/>
-    <mergeCell ref="Z66:AB66"/>
-    <mergeCell ref="AD66:AF66"/>
-    <mergeCell ref="AH66:AJ66"/>
-    <mergeCell ref="AL66:AN66"/>
-    <mergeCell ref="AP66:AR66"/>
-    <mergeCell ref="AT66:AV66"/>
-    <mergeCell ref="AX66:AZ66"/>
-    <mergeCell ref="BB66:BD66"/>
-    <mergeCell ref="Z67:AB67"/>
-    <mergeCell ref="AD67:AF67"/>
-    <mergeCell ref="AH67:AJ67"/>
-    <mergeCell ref="AL67:AN67"/>
-    <mergeCell ref="AP67:AR67"/>
-    <mergeCell ref="AT67:AV67"/>
-    <mergeCell ref="AX67:AZ67"/>
-    <mergeCell ref="BB67:BD67"/>
-    <mergeCell ref="Z68:AB68"/>
-    <mergeCell ref="AD68:AF68"/>
-    <mergeCell ref="AH68:AJ68"/>
-    <mergeCell ref="AL68:AN68"/>
-    <mergeCell ref="AP68:AR68"/>
-    <mergeCell ref="AT68:AV68"/>
-    <mergeCell ref="AX68:AZ68"/>
-    <mergeCell ref="BB68:BD68"/>
-    <mergeCell ref="Z69:AB69"/>
-    <mergeCell ref="AD69:AF69"/>
-    <mergeCell ref="AH69:AJ69"/>
-    <mergeCell ref="AL69:AN69"/>
-    <mergeCell ref="AP69:AR69"/>
-    <mergeCell ref="AT69:AV69"/>
-    <mergeCell ref="AX69:AZ69"/>
-    <mergeCell ref="BB69:BD69"/>
-    <mergeCell ref="Z70:AB70"/>
-    <mergeCell ref="AD70:AF70"/>
-    <mergeCell ref="AH70:AJ70"/>
-    <mergeCell ref="AL70:AN70"/>
-    <mergeCell ref="AP70:AR70"/>
-    <mergeCell ref="AT70:AV70"/>
-    <mergeCell ref="AX70:AZ70"/>
-    <mergeCell ref="BB70:BD70"/>
-    <mergeCell ref="Z71:AB71"/>
-    <mergeCell ref="AD71:AF71"/>
-    <mergeCell ref="AH71:AJ71"/>
-    <mergeCell ref="AL71:AN71"/>
-    <mergeCell ref="AP71:AR71"/>
-    <mergeCell ref="AT71:AV71"/>
-    <mergeCell ref="AX71:AZ71"/>
-    <mergeCell ref="BB71:BD71"/>
-    <mergeCell ref="Z72:AB72"/>
-    <mergeCell ref="AD72:AF72"/>
-    <mergeCell ref="AH72:AJ72"/>
-    <mergeCell ref="AL72:AN72"/>
-    <mergeCell ref="AP72:AR72"/>
-    <mergeCell ref="AT72:AV72"/>
-    <mergeCell ref="AX72:AZ72"/>
-    <mergeCell ref="BB72:BD72"/>
-    <mergeCell ref="Z73:AB73"/>
-    <mergeCell ref="AD73:AF73"/>
-    <mergeCell ref="AH73:AJ73"/>
-    <mergeCell ref="AL73:AN73"/>
-    <mergeCell ref="AP73:AR73"/>
-    <mergeCell ref="AT73:AV73"/>
-    <mergeCell ref="AX73:AZ73"/>
-    <mergeCell ref="BB73:BD73"/>
-    <mergeCell ref="BB77:BD77"/>
-    <mergeCell ref="Z74:AB74"/>
-    <mergeCell ref="AD74:AF74"/>
-    <mergeCell ref="AH74:AJ74"/>
-    <mergeCell ref="AL74:AN74"/>
-    <mergeCell ref="AP74:AR74"/>
-    <mergeCell ref="AT74:AV74"/>
-    <mergeCell ref="AX74:AZ74"/>
-    <mergeCell ref="BB74:BD74"/>
-    <mergeCell ref="Z75:AB75"/>
-    <mergeCell ref="AD75:AF75"/>
-    <mergeCell ref="AH75:AJ75"/>
-    <mergeCell ref="AL75:AN75"/>
-    <mergeCell ref="AP75:AR75"/>
-    <mergeCell ref="AT75:AV75"/>
-    <mergeCell ref="AX75:AZ75"/>
-    <mergeCell ref="BB75:BD75"/>
     <mergeCell ref="Z78:AB78"/>
     <mergeCell ref="AD78:AF78"/>
     <mergeCell ref="AH78:AJ78"/>
@@ -9829,6 +9239,596 @@
     <mergeCell ref="AP77:AR77"/>
     <mergeCell ref="AT77:AV77"/>
     <mergeCell ref="AX77:AZ77"/>
+    <mergeCell ref="BB77:BD77"/>
+    <mergeCell ref="Z74:AB74"/>
+    <mergeCell ref="AD74:AF74"/>
+    <mergeCell ref="AH74:AJ74"/>
+    <mergeCell ref="AL74:AN74"/>
+    <mergeCell ref="AP74:AR74"/>
+    <mergeCell ref="AT74:AV74"/>
+    <mergeCell ref="AX74:AZ74"/>
+    <mergeCell ref="BB74:BD74"/>
+    <mergeCell ref="Z75:AB75"/>
+    <mergeCell ref="AD75:AF75"/>
+    <mergeCell ref="AH75:AJ75"/>
+    <mergeCell ref="AL75:AN75"/>
+    <mergeCell ref="AP75:AR75"/>
+    <mergeCell ref="AT75:AV75"/>
+    <mergeCell ref="AX75:AZ75"/>
+    <mergeCell ref="BB75:BD75"/>
+    <mergeCell ref="Z72:AB72"/>
+    <mergeCell ref="AD72:AF72"/>
+    <mergeCell ref="AH72:AJ72"/>
+    <mergeCell ref="AL72:AN72"/>
+    <mergeCell ref="AP72:AR72"/>
+    <mergeCell ref="AT72:AV72"/>
+    <mergeCell ref="AX72:AZ72"/>
+    <mergeCell ref="BB72:BD72"/>
+    <mergeCell ref="Z73:AB73"/>
+    <mergeCell ref="AD73:AF73"/>
+    <mergeCell ref="AH73:AJ73"/>
+    <mergeCell ref="AL73:AN73"/>
+    <mergeCell ref="AP73:AR73"/>
+    <mergeCell ref="AT73:AV73"/>
+    <mergeCell ref="AX73:AZ73"/>
+    <mergeCell ref="BB73:BD73"/>
+    <mergeCell ref="Z70:AB70"/>
+    <mergeCell ref="AD70:AF70"/>
+    <mergeCell ref="AH70:AJ70"/>
+    <mergeCell ref="AL70:AN70"/>
+    <mergeCell ref="AP70:AR70"/>
+    <mergeCell ref="AT70:AV70"/>
+    <mergeCell ref="AX70:AZ70"/>
+    <mergeCell ref="BB70:BD70"/>
+    <mergeCell ref="Z71:AB71"/>
+    <mergeCell ref="AD71:AF71"/>
+    <mergeCell ref="AH71:AJ71"/>
+    <mergeCell ref="AL71:AN71"/>
+    <mergeCell ref="AP71:AR71"/>
+    <mergeCell ref="AT71:AV71"/>
+    <mergeCell ref="AX71:AZ71"/>
+    <mergeCell ref="BB71:BD71"/>
+    <mergeCell ref="Z68:AB68"/>
+    <mergeCell ref="AD68:AF68"/>
+    <mergeCell ref="AH68:AJ68"/>
+    <mergeCell ref="AL68:AN68"/>
+    <mergeCell ref="AP68:AR68"/>
+    <mergeCell ref="AT68:AV68"/>
+    <mergeCell ref="AX68:AZ68"/>
+    <mergeCell ref="BB68:BD68"/>
+    <mergeCell ref="Z69:AB69"/>
+    <mergeCell ref="AD69:AF69"/>
+    <mergeCell ref="AH69:AJ69"/>
+    <mergeCell ref="AL69:AN69"/>
+    <mergeCell ref="AP69:AR69"/>
+    <mergeCell ref="AT69:AV69"/>
+    <mergeCell ref="AX69:AZ69"/>
+    <mergeCell ref="BB69:BD69"/>
+    <mergeCell ref="Z66:AB66"/>
+    <mergeCell ref="AD66:AF66"/>
+    <mergeCell ref="AH66:AJ66"/>
+    <mergeCell ref="AL66:AN66"/>
+    <mergeCell ref="AP66:AR66"/>
+    <mergeCell ref="AT66:AV66"/>
+    <mergeCell ref="AX66:AZ66"/>
+    <mergeCell ref="BB66:BD66"/>
+    <mergeCell ref="Z67:AB67"/>
+    <mergeCell ref="AD67:AF67"/>
+    <mergeCell ref="AH67:AJ67"/>
+    <mergeCell ref="AL67:AN67"/>
+    <mergeCell ref="AP67:AR67"/>
+    <mergeCell ref="AT67:AV67"/>
+    <mergeCell ref="AX67:AZ67"/>
+    <mergeCell ref="BB67:BD67"/>
+    <mergeCell ref="Z64:AB64"/>
+    <mergeCell ref="AD64:AF64"/>
+    <mergeCell ref="AH64:AJ64"/>
+    <mergeCell ref="AL64:AN64"/>
+    <mergeCell ref="AP64:AR64"/>
+    <mergeCell ref="AT64:AV64"/>
+    <mergeCell ref="AX64:AZ64"/>
+    <mergeCell ref="BB64:BD64"/>
+    <mergeCell ref="Z65:AB65"/>
+    <mergeCell ref="AD65:AF65"/>
+    <mergeCell ref="AH65:AJ65"/>
+    <mergeCell ref="AL65:AN65"/>
+    <mergeCell ref="AP65:AR65"/>
+    <mergeCell ref="AT65:AV65"/>
+    <mergeCell ref="AX65:AZ65"/>
+    <mergeCell ref="BB65:BD65"/>
+    <mergeCell ref="Z62:AB62"/>
+    <mergeCell ref="AD62:AF62"/>
+    <mergeCell ref="AH62:AJ62"/>
+    <mergeCell ref="AL62:AN62"/>
+    <mergeCell ref="AP62:AR62"/>
+    <mergeCell ref="AT62:AV62"/>
+    <mergeCell ref="AX62:AZ62"/>
+    <mergeCell ref="BB62:BD62"/>
+    <mergeCell ref="Z63:AB63"/>
+    <mergeCell ref="AD63:AF63"/>
+    <mergeCell ref="AH63:AJ63"/>
+    <mergeCell ref="AL63:AN63"/>
+    <mergeCell ref="AP63:AR63"/>
+    <mergeCell ref="AT63:AV63"/>
+    <mergeCell ref="AX63:AZ63"/>
+    <mergeCell ref="BB63:BD63"/>
+    <mergeCell ref="Z60:AB60"/>
+    <mergeCell ref="AD60:AF60"/>
+    <mergeCell ref="AH60:AJ60"/>
+    <mergeCell ref="AL60:AN60"/>
+    <mergeCell ref="AP60:AR60"/>
+    <mergeCell ref="AT60:AV60"/>
+    <mergeCell ref="AX60:AZ60"/>
+    <mergeCell ref="BB60:BD60"/>
+    <mergeCell ref="Z61:AB61"/>
+    <mergeCell ref="AD61:AF61"/>
+    <mergeCell ref="AH61:AJ61"/>
+    <mergeCell ref="AL61:AN61"/>
+    <mergeCell ref="AP61:AR61"/>
+    <mergeCell ref="AT61:AV61"/>
+    <mergeCell ref="AX61:AZ61"/>
+    <mergeCell ref="BB61:BD61"/>
+    <mergeCell ref="Z58:AB58"/>
+    <mergeCell ref="AD58:AF58"/>
+    <mergeCell ref="AH58:AJ58"/>
+    <mergeCell ref="AL58:AN58"/>
+    <mergeCell ref="AP58:AR58"/>
+    <mergeCell ref="AT58:AV58"/>
+    <mergeCell ref="AX58:AZ58"/>
+    <mergeCell ref="BB58:BD58"/>
+    <mergeCell ref="Z59:AB59"/>
+    <mergeCell ref="AD59:AF59"/>
+    <mergeCell ref="AH59:AJ59"/>
+    <mergeCell ref="AL59:AN59"/>
+    <mergeCell ref="AP59:AR59"/>
+    <mergeCell ref="AT59:AV59"/>
+    <mergeCell ref="AX59:AZ59"/>
+    <mergeCell ref="BB59:BD59"/>
+    <mergeCell ref="Z56:AB56"/>
+    <mergeCell ref="AD56:AF56"/>
+    <mergeCell ref="AH56:AJ56"/>
+    <mergeCell ref="AL56:AN56"/>
+    <mergeCell ref="AP56:AR56"/>
+    <mergeCell ref="AT56:AV56"/>
+    <mergeCell ref="AX56:AZ56"/>
+    <mergeCell ref="BB56:BD56"/>
+    <mergeCell ref="Z57:AB57"/>
+    <mergeCell ref="AD57:AF57"/>
+    <mergeCell ref="AH57:AJ57"/>
+    <mergeCell ref="AL57:AN57"/>
+    <mergeCell ref="AP57:AR57"/>
+    <mergeCell ref="AT57:AV57"/>
+    <mergeCell ref="AX57:AZ57"/>
+    <mergeCell ref="BB57:BD57"/>
+    <mergeCell ref="Z54:AB54"/>
+    <mergeCell ref="AD54:AF54"/>
+    <mergeCell ref="AH54:AJ54"/>
+    <mergeCell ref="AL54:AN54"/>
+    <mergeCell ref="AP54:AR54"/>
+    <mergeCell ref="AT54:AV54"/>
+    <mergeCell ref="AX54:AZ54"/>
+    <mergeCell ref="BB54:BD54"/>
+    <mergeCell ref="Z55:AB55"/>
+    <mergeCell ref="AD55:AF55"/>
+    <mergeCell ref="AH55:AJ55"/>
+    <mergeCell ref="AL55:AN55"/>
+    <mergeCell ref="AP55:AR55"/>
+    <mergeCell ref="AT55:AV55"/>
+    <mergeCell ref="AX55:AZ55"/>
+    <mergeCell ref="BB55:BD55"/>
+    <mergeCell ref="Z52:AB52"/>
+    <mergeCell ref="AD52:AF52"/>
+    <mergeCell ref="AH52:AJ52"/>
+    <mergeCell ref="AL52:AN52"/>
+    <mergeCell ref="AP52:AR52"/>
+    <mergeCell ref="AT52:AV52"/>
+    <mergeCell ref="AX52:AZ52"/>
+    <mergeCell ref="BB52:BD52"/>
+    <mergeCell ref="Z53:AB53"/>
+    <mergeCell ref="AD53:AF53"/>
+    <mergeCell ref="AH53:AJ53"/>
+    <mergeCell ref="AL53:AN53"/>
+    <mergeCell ref="AP53:AR53"/>
+    <mergeCell ref="AT53:AV53"/>
+    <mergeCell ref="AX53:AZ53"/>
+    <mergeCell ref="BB53:BD53"/>
+    <mergeCell ref="Z50:AB50"/>
+    <mergeCell ref="AD50:AF50"/>
+    <mergeCell ref="AH50:AJ50"/>
+    <mergeCell ref="AL50:AN50"/>
+    <mergeCell ref="AP50:AR50"/>
+    <mergeCell ref="AT50:AV50"/>
+    <mergeCell ref="AX50:AZ50"/>
+    <mergeCell ref="BB50:BD50"/>
+    <mergeCell ref="Z51:AB51"/>
+    <mergeCell ref="AD51:AF51"/>
+    <mergeCell ref="AH51:AJ51"/>
+    <mergeCell ref="AL51:AN51"/>
+    <mergeCell ref="AP51:AR51"/>
+    <mergeCell ref="AT51:AV51"/>
+    <mergeCell ref="AX51:AZ51"/>
+    <mergeCell ref="BB51:BD51"/>
+    <mergeCell ref="Z48:AB48"/>
+    <mergeCell ref="AD48:AF48"/>
+    <mergeCell ref="AH48:AJ48"/>
+    <mergeCell ref="AL48:AN48"/>
+    <mergeCell ref="AP48:AR48"/>
+    <mergeCell ref="AT48:AV48"/>
+    <mergeCell ref="AX48:AZ48"/>
+    <mergeCell ref="BB48:BD48"/>
+    <mergeCell ref="Z49:AB49"/>
+    <mergeCell ref="AD49:AF49"/>
+    <mergeCell ref="AH49:AJ49"/>
+    <mergeCell ref="AL49:AN49"/>
+    <mergeCell ref="AP49:AR49"/>
+    <mergeCell ref="AT49:AV49"/>
+    <mergeCell ref="AX49:AZ49"/>
+    <mergeCell ref="BB49:BD49"/>
+    <mergeCell ref="Z46:AB46"/>
+    <mergeCell ref="AD46:AF46"/>
+    <mergeCell ref="AH46:AJ46"/>
+    <mergeCell ref="AL46:AN46"/>
+    <mergeCell ref="AP46:AR46"/>
+    <mergeCell ref="AT46:AV46"/>
+    <mergeCell ref="AX46:AZ46"/>
+    <mergeCell ref="BB46:BD46"/>
+    <mergeCell ref="Z47:AB47"/>
+    <mergeCell ref="AD47:AF47"/>
+    <mergeCell ref="AH47:AJ47"/>
+    <mergeCell ref="AL47:AN47"/>
+    <mergeCell ref="AP47:AR47"/>
+    <mergeCell ref="AT47:AV47"/>
+    <mergeCell ref="AX47:AZ47"/>
+    <mergeCell ref="BB47:BD47"/>
+    <mergeCell ref="Z44:AB44"/>
+    <mergeCell ref="AD44:AF44"/>
+    <mergeCell ref="AH44:AJ44"/>
+    <mergeCell ref="AL44:AN44"/>
+    <mergeCell ref="AP44:AR44"/>
+    <mergeCell ref="AT44:AV44"/>
+    <mergeCell ref="AX44:AZ44"/>
+    <mergeCell ref="BB44:BD44"/>
+    <mergeCell ref="Z45:AB45"/>
+    <mergeCell ref="AD45:AF45"/>
+    <mergeCell ref="AH45:AJ45"/>
+    <mergeCell ref="AL45:AN45"/>
+    <mergeCell ref="AP45:AR45"/>
+    <mergeCell ref="AT45:AV45"/>
+    <mergeCell ref="AX45:AZ45"/>
+    <mergeCell ref="BB45:BD45"/>
+    <mergeCell ref="Z42:AB42"/>
+    <mergeCell ref="AD42:AF42"/>
+    <mergeCell ref="AH42:AJ42"/>
+    <mergeCell ref="AL42:AN42"/>
+    <mergeCell ref="AP42:AR42"/>
+    <mergeCell ref="AT42:AV42"/>
+    <mergeCell ref="AX42:AZ42"/>
+    <mergeCell ref="BB42:BD42"/>
+    <mergeCell ref="Z43:AB43"/>
+    <mergeCell ref="AD43:AF43"/>
+    <mergeCell ref="AH43:AJ43"/>
+    <mergeCell ref="AL43:AN43"/>
+    <mergeCell ref="AP43:AR43"/>
+    <mergeCell ref="AT43:AV43"/>
+    <mergeCell ref="AX43:AZ43"/>
+    <mergeCell ref="BB43:BD43"/>
+    <mergeCell ref="Z40:AB40"/>
+    <mergeCell ref="AD40:AF40"/>
+    <mergeCell ref="AH40:AJ40"/>
+    <mergeCell ref="AL40:AN40"/>
+    <mergeCell ref="AP40:AR40"/>
+    <mergeCell ref="AT40:AV40"/>
+    <mergeCell ref="AX40:AZ40"/>
+    <mergeCell ref="BB40:BD40"/>
+    <mergeCell ref="Z41:AB41"/>
+    <mergeCell ref="AD41:AF41"/>
+    <mergeCell ref="AH41:AJ41"/>
+    <mergeCell ref="AL41:AN41"/>
+    <mergeCell ref="AP41:AR41"/>
+    <mergeCell ref="AT41:AV41"/>
+    <mergeCell ref="AX41:AZ41"/>
+    <mergeCell ref="BB41:BD41"/>
+    <mergeCell ref="Z38:AB38"/>
+    <mergeCell ref="AD38:AF38"/>
+    <mergeCell ref="AH38:AJ38"/>
+    <mergeCell ref="AL38:AN38"/>
+    <mergeCell ref="AP38:AR38"/>
+    <mergeCell ref="AT38:AV38"/>
+    <mergeCell ref="AX38:AZ38"/>
+    <mergeCell ref="BB38:BD38"/>
+    <mergeCell ref="Z39:AB39"/>
+    <mergeCell ref="AD39:AF39"/>
+    <mergeCell ref="AH39:AJ39"/>
+    <mergeCell ref="AL39:AN39"/>
+    <mergeCell ref="AP39:AR39"/>
+    <mergeCell ref="AT39:AV39"/>
+    <mergeCell ref="AX39:AZ39"/>
+    <mergeCell ref="BB39:BD39"/>
+    <mergeCell ref="Z36:AB36"/>
+    <mergeCell ref="AD36:AF36"/>
+    <mergeCell ref="AH36:AJ36"/>
+    <mergeCell ref="AL36:AN36"/>
+    <mergeCell ref="AP36:AR36"/>
+    <mergeCell ref="AT36:AV36"/>
+    <mergeCell ref="AX36:AZ36"/>
+    <mergeCell ref="BB36:BD36"/>
+    <mergeCell ref="Z37:AB37"/>
+    <mergeCell ref="AD37:AF37"/>
+    <mergeCell ref="AH37:AJ37"/>
+    <mergeCell ref="AL37:AN37"/>
+    <mergeCell ref="AP37:AR37"/>
+    <mergeCell ref="AT37:AV37"/>
+    <mergeCell ref="AX37:AZ37"/>
+    <mergeCell ref="BB37:BD37"/>
+    <mergeCell ref="Z34:AB34"/>
+    <mergeCell ref="AD34:AF34"/>
+    <mergeCell ref="AH34:AJ34"/>
+    <mergeCell ref="AL34:AN34"/>
+    <mergeCell ref="AP34:AR34"/>
+    <mergeCell ref="AT34:AV34"/>
+    <mergeCell ref="AX34:AZ34"/>
+    <mergeCell ref="BB34:BD34"/>
+    <mergeCell ref="Z35:AB35"/>
+    <mergeCell ref="AD35:AF35"/>
+    <mergeCell ref="AH35:AJ35"/>
+    <mergeCell ref="AL35:AN35"/>
+    <mergeCell ref="AP35:AR35"/>
+    <mergeCell ref="AT35:AV35"/>
+    <mergeCell ref="AX35:AZ35"/>
+    <mergeCell ref="BB35:BD35"/>
+    <mergeCell ref="Z32:AB32"/>
+    <mergeCell ref="AD32:AF32"/>
+    <mergeCell ref="AH32:AJ32"/>
+    <mergeCell ref="AL32:AN32"/>
+    <mergeCell ref="AP32:AR32"/>
+    <mergeCell ref="AT32:AV32"/>
+    <mergeCell ref="AX32:AZ32"/>
+    <mergeCell ref="BB32:BD32"/>
+    <mergeCell ref="Z33:AB33"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="AH33:AJ33"/>
+    <mergeCell ref="AL33:AN33"/>
+    <mergeCell ref="AP33:AR33"/>
+    <mergeCell ref="AT33:AV33"/>
+    <mergeCell ref="AX33:AZ33"/>
+    <mergeCell ref="BB33:BD33"/>
+    <mergeCell ref="Z30:AB30"/>
+    <mergeCell ref="AD30:AF30"/>
+    <mergeCell ref="AH30:AJ30"/>
+    <mergeCell ref="AL30:AN30"/>
+    <mergeCell ref="AP30:AR30"/>
+    <mergeCell ref="AT30:AV30"/>
+    <mergeCell ref="AX30:AZ30"/>
+    <mergeCell ref="BB30:BD30"/>
+    <mergeCell ref="Z31:AB31"/>
+    <mergeCell ref="AD31:AF31"/>
+    <mergeCell ref="AH31:AJ31"/>
+    <mergeCell ref="AL31:AN31"/>
+    <mergeCell ref="AP31:AR31"/>
+    <mergeCell ref="AT31:AV31"/>
+    <mergeCell ref="AX31:AZ31"/>
+    <mergeCell ref="BB31:BD31"/>
+    <mergeCell ref="Z28:AB28"/>
+    <mergeCell ref="AD28:AF28"/>
+    <mergeCell ref="AH28:AJ28"/>
+    <mergeCell ref="AL28:AN28"/>
+    <mergeCell ref="AP28:AR28"/>
+    <mergeCell ref="AT28:AV28"/>
+    <mergeCell ref="AX28:AZ28"/>
+    <mergeCell ref="BB28:BD28"/>
+    <mergeCell ref="Z29:AB29"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="AH29:AJ29"/>
+    <mergeCell ref="AL29:AN29"/>
+    <mergeCell ref="AP29:AR29"/>
+    <mergeCell ref="AT29:AV29"/>
+    <mergeCell ref="AX29:AZ29"/>
+    <mergeCell ref="BB29:BD29"/>
+    <mergeCell ref="Z26:AB26"/>
+    <mergeCell ref="AD26:AF26"/>
+    <mergeCell ref="AH26:AJ26"/>
+    <mergeCell ref="AL26:AN26"/>
+    <mergeCell ref="AP26:AR26"/>
+    <mergeCell ref="AT26:AV26"/>
+    <mergeCell ref="AX26:AZ26"/>
+    <mergeCell ref="BB26:BD26"/>
+    <mergeCell ref="Z27:AB27"/>
+    <mergeCell ref="AD27:AF27"/>
+    <mergeCell ref="AH27:AJ27"/>
+    <mergeCell ref="AL27:AN27"/>
+    <mergeCell ref="AP27:AR27"/>
+    <mergeCell ref="AT27:AV27"/>
+    <mergeCell ref="AX27:AZ27"/>
+    <mergeCell ref="BB27:BD27"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="AL24:AN24"/>
+    <mergeCell ref="AP24:AR24"/>
+    <mergeCell ref="AT24:AV24"/>
+    <mergeCell ref="AX24:AZ24"/>
+    <mergeCell ref="BB24:BD24"/>
+    <mergeCell ref="Z25:AB25"/>
+    <mergeCell ref="AD25:AF25"/>
+    <mergeCell ref="AH25:AJ25"/>
+    <mergeCell ref="AL25:AN25"/>
+    <mergeCell ref="AP25:AR25"/>
+    <mergeCell ref="AT25:AV25"/>
+    <mergeCell ref="AX25:AZ25"/>
+    <mergeCell ref="BB25:BD25"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="AD22:AF22"/>
+    <mergeCell ref="AH22:AJ22"/>
+    <mergeCell ref="AL22:AN22"/>
+    <mergeCell ref="AP22:AR22"/>
+    <mergeCell ref="AT22:AV22"/>
+    <mergeCell ref="AX22:AZ22"/>
+    <mergeCell ref="BB22:BD22"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AD23:AF23"/>
+    <mergeCell ref="AH23:AJ23"/>
+    <mergeCell ref="AL23:AN23"/>
+    <mergeCell ref="AP23:AR23"/>
+    <mergeCell ref="AT23:AV23"/>
+    <mergeCell ref="AX23:AZ23"/>
+    <mergeCell ref="BB23:BD23"/>
+    <mergeCell ref="Z20:AB20"/>
+    <mergeCell ref="AD20:AF20"/>
+    <mergeCell ref="AH20:AJ20"/>
+    <mergeCell ref="AL20:AN20"/>
+    <mergeCell ref="AP20:AR20"/>
+    <mergeCell ref="AT20:AV20"/>
+    <mergeCell ref="AX20:AZ20"/>
+    <mergeCell ref="BB20:BD20"/>
+    <mergeCell ref="Z21:AB21"/>
+    <mergeCell ref="AD21:AF21"/>
+    <mergeCell ref="AH21:AJ21"/>
+    <mergeCell ref="AL21:AN21"/>
+    <mergeCell ref="AP21:AR21"/>
+    <mergeCell ref="AT21:AV21"/>
+    <mergeCell ref="AX21:AZ21"/>
+    <mergeCell ref="BB21:BD21"/>
+    <mergeCell ref="Z18:AB18"/>
+    <mergeCell ref="AD18:AF18"/>
+    <mergeCell ref="AH18:AJ18"/>
+    <mergeCell ref="AL18:AN18"/>
+    <mergeCell ref="AP18:AR18"/>
+    <mergeCell ref="AT18:AV18"/>
+    <mergeCell ref="AX18:AZ18"/>
+    <mergeCell ref="BB18:BD18"/>
+    <mergeCell ref="Z19:AB19"/>
+    <mergeCell ref="AD19:AF19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AL19:AN19"/>
+    <mergeCell ref="AP19:AR19"/>
+    <mergeCell ref="AT19:AV19"/>
+    <mergeCell ref="AX19:AZ19"/>
+    <mergeCell ref="BB19:BD19"/>
+    <mergeCell ref="Z16:AB16"/>
+    <mergeCell ref="AD16:AF16"/>
+    <mergeCell ref="AH16:AJ16"/>
+    <mergeCell ref="AL16:AN16"/>
+    <mergeCell ref="AP16:AR16"/>
+    <mergeCell ref="AT16:AV16"/>
+    <mergeCell ref="AX16:AZ16"/>
+    <mergeCell ref="BB16:BD16"/>
+    <mergeCell ref="Z17:AB17"/>
+    <mergeCell ref="AD17:AF17"/>
+    <mergeCell ref="AH17:AJ17"/>
+    <mergeCell ref="AL17:AN17"/>
+    <mergeCell ref="AP17:AR17"/>
+    <mergeCell ref="AT17:AV17"/>
+    <mergeCell ref="AX17:AZ17"/>
+    <mergeCell ref="BB17:BD17"/>
+    <mergeCell ref="Z14:AB14"/>
+    <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AL14:AN14"/>
+    <mergeCell ref="AP14:AR14"/>
+    <mergeCell ref="AT14:AV14"/>
+    <mergeCell ref="AX14:AZ14"/>
+    <mergeCell ref="BB14:BD14"/>
+    <mergeCell ref="Z15:AB15"/>
+    <mergeCell ref="AD15:AF15"/>
+    <mergeCell ref="AH15:AJ15"/>
+    <mergeCell ref="AL15:AN15"/>
+    <mergeCell ref="AP15:AR15"/>
+    <mergeCell ref="AT15:AV15"/>
+    <mergeCell ref="AX15:AZ15"/>
+    <mergeCell ref="BB15:BD15"/>
+    <mergeCell ref="Z12:AB12"/>
+    <mergeCell ref="AD12:AF12"/>
+    <mergeCell ref="AH12:AJ12"/>
+    <mergeCell ref="AL12:AN12"/>
+    <mergeCell ref="AP12:AR12"/>
+    <mergeCell ref="AT12:AV12"/>
+    <mergeCell ref="AX12:AZ12"/>
+    <mergeCell ref="BB12:BD12"/>
+    <mergeCell ref="Z13:AB13"/>
+    <mergeCell ref="AD13:AF13"/>
+    <mergeCell ref="AH13:AJ13"/>
+    <mergeCell ref="AL13:AN13"/>
+    <mergeCell ref="AP13:AR13"/>
+    <mergeCell ref="AT13:AV13"/>
+    <mergeCell ref="AX13:AZ13"/>
+    <mergeCell ref="BB13:BD13"/>
+    <mergeCell ref="Z10:AB10"/>
+    <mergeCell ref="AD10:AF10"/>
+    <mergeCell ref="AH10:AJ10"/>
+    <mergeCell ref="AL10:AN10"/>
+    <mergeCell ref="AP10:AR10"/>
+    <mergeCell ref="AT10:AV10"/>
+    <mergeCell ref="AX10:AZ10"/>
+    <mergeCell ref="BB10:BD10"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AD11:AF11"/>
+    <mergeCell ref="AH11:AJ11"/>
+    <mergeCell ref="AL11:AN11"/>
+    <mergeCell ref="AP11:AR11"/>
+    <mergeCell ref="AT11:AV11"/>
+    <mergeCell ref="AX11:AZ11"/>
+    <mergeCell ref="BB11:BD11"/>
+    <mergeCell ref="Z8:AB8"/>
+    <mergeCell ref="AD8:AF8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AL8:AN8"/>
+    <mergeCell ref="AP8:AR8"/>
+    <mergeCell ref="AT8:AV8"/>
+    <mergeCell ref="AX8:AZ8"/>
+    <mergeCell ref="BB8:BD8"/>
+    <mergeCell ref="Z9:AB9"/>
+    <mergeCell ref="AD9:AF9"/>
+    <mergeCell ref="AH9:AJ9"/>
+    <mergeCell ref="AL9:AN9"/>
+    <mergeCell ref="AP9:AR9"/>
+    <mergeCell ref="AT9:AV9"/>
+    <mergeCell ref="AX9:AZ9"/>
+    <mergeCell ref="BB9:BD9"/>
+    <mergeCell ref="Z6:AB6"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AP6:AR6"/>
+    <mergeCell ref="AT6:AV6"/>
+    <mergeCell ref="AX6:AZ6"/>
+    <mergeCell ref="BB6:BD6"/>
+    <mergeCell ref="Z7:AB7"/>
+    <mergeCell ref="AD7:AF7"/>
+    <mergeCell ref="AH7:AJ7"/>
+    <mergeCell ref="AL7:AN7"/>
+    <mergeCell ref="AP7:AR7"/>
+    <mergeCell ref="AT7:AV7"/>
+    <mergeCell ref="AX7:AZ7"/>
+    <mergeCell ref="BB7:BD7"/>
+    <mergeCell ref="Z4:AB4"/>
+    <mergeCell ref="AD4:AF4"/>
+    <mergeCell ref="AH4:AJ4"/>
+    <mergeCell ref="AL4:AN4"/>
+    <mergeCell ref="AP4:AR4"/>
+    <mergeCell ref="AT4:AV4"/>
+    <mergeCell ref="AX4:AZ4"/>
+    <mergeCell ref="BB4:BD4"/>
+    <mergeCell ref="Z5:AB5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AH5:AJ5"/>
+    <mergeCell ref="AL5:AN5"/>
+    <mergeCell ref="AP5:AR5"/>
+    <mergeCell ref="AT5:AV5"/>
+    <mergeCell ref="AX5:AZ5"/>
+    <mergeCell ref="BB5:BD5"/>
+    <mergeCell ref="A1:BF1"/>
+    <mergeCell ref="B3:H3"/>
+    <mergeCell ref="I3:R3"/>
+    <mergeCell ref="S3:X3"/>
+    <mergeCell ref="Y3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="AK3:AN3"/>
+    <mergeCell ref="AO3:AR3"/>
+    <mergeCell ref="AS3:AV3"/>
+    <mergeCell ref="AW3:AZ3"/>
+    <mergeCell ref="BA3:BD3"/>
+    <mergeCell ref="BE3:BF3"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
